--- a/TeamTextRPG/Data/Excel/Items.xlsx
+++ b/TeamTextRPG/Data/Excel/Items.xlsx
@@ -1,21 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26626"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\js022\바탕 화면\WorkSpace\TeamTextRPG\TeamTextRPG\Data\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A55ACD2-3D99-4036-B5A2-6DFB0CD8B8FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" activeTab="0"/>
+    <workbookView xWindow="135" yWindow="90" windowWidth="14205" windowHeight="14940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr fullCalcOnLoad="1"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$1</definedName>
+  </definedNames>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="188">
   <si>
     <t>Name</t>
   </si>
@@ -459,18 +467,608 @@
   </si>
   <si>
     <t>드래곤의 비늘을 덧댄 신발로 아주 튼튼합니다.</t>
+  </si>
+  <si>
+    <t>용병의 검</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>용병의 투구</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>용병의 갑옷</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>용병의 각반</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>용병의 부츠</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>적당한 검</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>적당한 투구</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>적당한 갑옷</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>적당한 각반</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>적당한 부츠</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>숙련자의 검</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>숙련자의 투구</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>숙련자의 갑옷</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>숙련자의 각반</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>숙련자의 부츠</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>장인의 검</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>장인의 투구</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>장인의 갑옷</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>장인의 각반</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>장인의 부츠</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>무난하게 사용 가능한 검입니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>무난하게 사용 가능한 투구입니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>무난하게</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사용</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가능한 갑옷입니다.</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>무난하게</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사용</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가능한 각반입니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>무난하게 사용 가능한 부츠입니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>용병들이 자주 쓰는 검입니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>용병들이 자주 쓰는 투구입니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>용병들이 자주 쓰는 갑옷입니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>용병들이 자주 쓰는 각반입니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>용병들이 자주 쓰는 부츠입니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>숙련된 모험자가 쓰는 고급 검입니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>숙련된</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>모험자가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>쓰는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>고급</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>투구입니다.</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>숙련된</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>모험자가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>쓰는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>고급</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>갑옷입니다.</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>숙련된</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>모험자가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>쓰는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>고급</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>각반입니다.</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>숙련된 모험자가 쓰는 고급 부츠입니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대장장이 장인이 빚어낸 검입니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>대장장이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>장인이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>빚어낸</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>투구입니다.</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대장장이 장인이 빚어낸 갑옷입니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대장장이 장인이 빚어낸 각반입니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대장장이 장인이 빚어낸 부츠입니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="굴림"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="돋움"/>
+      <family val="2"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="2">
@@ -490,110 +1088,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="15" builtinId="5"/>
-    <cellStyle name="Currency" xfId="16" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="17" builtinId="7"/>
-    <cellStyle name="Comma" xfId="18" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="19" builtinId="6"/>
+  <cellStyles count="1">
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -901,23 +1411,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4bceb05d-bec8-483f-8f99-a6afe1180441}">
-  <dimension ref="A1:H71"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BCEB05D-BEC8-483F-8F99-A6AFE1180441}">
+  <dimension ref="A1:H91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E100" sqref="E100"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="19.142857142857142" customWidth="1"/>
-    <col min="2" max="2" width="3.2857142857142856" customWidth="1"/>
-    <col min="3" max="4" width="4.714285714285714" customWidth="1"/>
-    <col min="5" max="5" width="44.857142857142854" customWidth="1"/>
-    <col min="6" max="6" width="7.285714285714286" customWidth="1"/>
-    <col min="7" max="7" width="5.428571428571429" customWidth="1"/>
-    <col min="8" max="8" width="10" customWidth="1"/>
+    <col min="1" max="1" width="19.140625" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
+    <col min="5" max="5" width="44.85546875" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" customWidth="1"/>
+    <col min="8" max="8" width="27.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="12.75">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -943,7 +1456,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="12.75">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -969,7 +1482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="12.75">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -995,7 +1508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="12.75">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -1021,7 +1534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="12.75">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -1047,7 +1560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="12.75">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -1073,7 +1586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="12.75">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -1099,7 +1612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="12.75">
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -1125,7 +1638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="12.75">
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -1151,7 +1664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="12.75">
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -1177,7 +1690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="12.75">
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -1203,7 +1716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="12.75">
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -1229,7 +1742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="12.75">
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>30</v>
       </c>
@@ -1255,7 +1768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="12.75">
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -1281,7 +1794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="12.75">
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>34</v>
       </c>
@@ -1307,7 +1820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="12.75">
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>36</v>
       </c>
@@ -1333,7 +1846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="12.75">
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
         <v>38</v>
       </c>
@@ -1359,7 +1872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="12.75">
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
         <v>40</v>
       </c>
@@ -1385,7 +1898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="12.75">
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
         <v>42</v>
       </c>
@@ -1411,7 +1924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="12.75">
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
         <v>44</v>
       </c>
@@ -1437,7 +1950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="12.75">
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
         <v>46</v>
       </c>
@@ -1463,7 +1976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="12.75">
+    <row r="22" spans="1:8">
       <c r="A22" t="s">
         <v>48</v>
       </c>
@@ -1489,7 +2002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="12.75">
+    <row r="23" spans="1:8">
       <c r="A23" t="s">
         <v>50</v>
       </c>
@@ -1515,7 +2028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="12.75">
+    <row r="24" spans="1:8">
       <c r="A24" t="s">
         <v>52</v>
       </c>
@@ -1541,7 +2054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="12.75">
+    <row r="25" spans="1:8">
       <c r="A25" t="s">
         <v>54</v>
       </c>
@@ -1567,7 +2080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="12.75">
+    <row r="26" spans="1:8">
       <c r="A26" t="s">
         <v>56</v>
       </c>
@@ -1593,7 +2106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="12.75">
+    <row r="27" spans="1:8">
       <c r="A27" t="s">
         <v>58</v>
       </c>
@@ -1619,7 +2132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="12.75">
+    <row r="28" spans="1:8">
       <c r="A28" t="s">
         <v>60</v>
       </c>
@@ -1645,7 +2158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="12.75">
+    <row r="29" spans="1:8">
       <c r="A29" t="s">
         <v>62</v>
       </c>
@@ -1671,7 +2184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="12.75">
+    <row r="30" spans="1:8">
       <c r="A30" t="s">
         <v>64</v>
       </c>
@@ -1697,7 +2210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="12.75">
+    <row r="31" spans="1:8">
       <c r="A31" t="s">
         <v>66</v>
       </c>
@@ -1723,7 +2236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="12.75">
+    <row r="32" spans="1:8">
       <c r="A32" t="s">
         <v>68</v>
       </c>
@@ -1749,7 +2262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="12.75">
+    <row r="33" spans="1:8">
       <c r="A33" t="s">
         <v>70</v>
       </c>
@@ -1775,7 +2288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="12.75">
+    <row r="34" spans="1:8">
       <c r="A34" t="s">
         <v>72</v>
       </c>
@@ -1801,7 +2314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="12.75">
+    <row r="35" spans="1:8">
       <c r="A35" t="s">
         <v>74</v>
       </c>
@@ -1827,7 +2340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="12.75">
+    <row r="36" spans="1:8">
       <c r="A36" t="s">
         <v>76</v>
       </c>
@@ -1853,7 +2366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="12.75">
+    <row r="37" spans="1:8">
       <c r="A37" t="s">
         <v>78</v>
       </c>
@@ -1879,7 +2392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="12.75">
+    <row r="38" spans="1:8">
       <c r="A38" t="s">
         <v>80</v>
       </c>
@@ -1905,7 +2418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="12.75">
+    <row r="39" spans="1:8">
       <c r="A39" t="s">
         <v>82</v>
       </c>
@@ -1931,7 +2444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="12.75">
+    <row r="40" spans="1:8">
       <c r="A40" t="s">
         <v>84</v>
       </c>
@@ -1957,7 +2470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="12.75">
+    <row r="41" spans="1:8">
       <c r="A41" t="s">
         <v>86</v>
       </c>
@@ -1983,7 +2496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="12.75">
+    <row r="42" spans="1:8">
       <c r="A42" t="s">
         <v>88</v>
       </c>
@@ -1994,7 +2507,7 @@
         <v>4</v>
       </c>
       <c r="D42">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E42" t="s">
         <v>89</v>
@@ -2009,7 +2522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="12.75">
+    <row r="43" spans="1:8">
       <c r="A43" t="s">
         <v>90</v>
       </c>
@@ -2020,7 +2533,7 @@
         <v>4</v>
       </c>
       <c r="D43">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="E43" t="s">
         <v>91</v>
@@ -2035,7 +2548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="12.75">
+    <row r="44" spans="1:8">
       <c r="A44" t="s">
         <v>92</v>
       </c>
@@ -2046,7 +2559,7 @@
         <v>4</v>
       </c>
       <c r="D44">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="E44" t="s">
         <v>93</v>
@@ -2061,7 +2574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="12.75">
+    <row r="45" spans="1:8">
       <c r="A45" t="s">
         <v>94</v>
       </c>
@@ -2072,7 +2585,7 @@
         <v>4</v>
       </c>
       <c r="D45">
-        <v>80</v>
+        <v>8</v>
       </c>
       <c r="E45" t="s">
         <v>95</v>
@@ -2087,7 +2600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="12.75">
+    <row r="46" spans="1:8">
       <c r="A46" t="s">
         <v>96</v>
       </c>
@@ -2098,7 +2611,7 @@
         <v>4</v>
       </c>
       <c r="D46">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
         <v>97</v>
@@ -2113,7 +2626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="12.75">
+    <row r="47" spans="1:8">
       <c r="A47" t="s">
         <v>98</v>
       </c>
@@ -2124,7 +2637,7 @@
         <v>4</v>
       </c>
       <c r="D47">
-        <v>180</v>
+        <v>12</v>
       </c>
       <c r="E47" t="s">
         <v>99</v>
@@ -2139,7 +2652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="12.75">
+    <row r="48" spans="1:8">
       <c r="A48" t="s">
         <v>100</v>
       </c>
@@ -2150,7 +2663,7 @@
         <v>4</v>
       </c>
       <c r="D48">
-        <v>245</v>
+        <v>14</v>
       </c>
       <c r="E48" t="s">
         <v>101</v>
@@ -2165,7 +2678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="12.75">
+    <row r="49" spans="1:8">
       <c r="A49" t="s">
         <v>102</v>
       </c>
@@ -2176,7 +2689,7 @@
         <v>4</v>
       </c>
       <c r="D49">
-        <v>320</v>
+        <v>16</v>
       </c>
       <c r="E49" t="s">
         <v>103</v>
@@ -2191,7 +2704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="12.75">
+    <row r="50" spans="1:8">
       <c r="A50" t="s">
         <v>104</v>
       </c>
@@ -2202,7 +2715,7 @@
         <v>4</v>
       </c>
       <c r="D50">
-        <v>405</v>
+        <v>18</v>
       </c>
       <c r="E50" t="s">
         <v>105</v>
@@ -2217,7 +2730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="12.75">
+    <row r="51" spans="1:8">
       <c r="A51" t="s">
         <v>106</v>
       </c>
@@ -2228,7 +2741,7 @@
         <v>4</v>
       </c>
       <c r="D51">
-        <v>500</v>
+        <v>20</v>
       </c>
       <c r="E51" t="s">
         <v>107</v>
@@ -2243,7 +2756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="12.75">
+    <row r="52" spans="1:8">
       <c r="A52" t="s">
         <v>108</v>
       </c>
@@ -2269,7 +2782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="12.75">
+    <row r="53" spans="1:8">
       <c r="A53" t="s">
         <v>110</v>
       </c>
@@ -2295,7 +2808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="12.75">
+    <row r="54" spans="1:8">
       <c r="A54" t="s">
         <v>112</v>
       </c>
@@ -2321,7 +2834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="12.75">
+    <row r="55" spans="1:8">
       <c r="A55" t="s">
         <v>114</v>
       </c>
@@ -2332,7 +2845,7 @@
         <v>4</v>
       </c>
       <c r="D55">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E55" t="s">
         <v>115</v>
@@ -2347,7 +2860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="12.75">
+    <row r="56" spans="1:8">
       <c r="A56" t="s">
         <v>116</v>
       </c>
@@ -2373,7 +2886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="12.75">
+    <row r="57" spans="1:8">
       <c r="A57" t="s">
         <v>118</v>
       </c>
@@ -2384,7 +2897,7 @@
         <v>4</v>
       </c>
       <c r="D57">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E57" t="s">
         <v>119</v>
@@ -2399,7 +2912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="12.75">
+    <row r="58" spans="1:8">
       <c r="A58" t="s">
         <v>120</v>
       </c>
@@ -2425,7 +2938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="12.75">
+    <row r="59" spans="1:8">
       <c r="A59" t="s">
         <v>122</v>
       </c>
@@ -2451,7 +2964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="12.75">
+    <row r="60" spans="1:8">
       <c r="A60" t="s">
         <v>124</v>
       </c>
@@ -2477,7 +2990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="12.75">
+    <row r="61" spans="1:8">
       <c r="A61" t="s">
         <v>126</v>
       </c>
@@ -2503,7 +3016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="12.75">
+    <row r="62" spans="1:8">
       <c r="A62" t="s">
         <v>128</v>
       </c>
@@ -2529,7 +3042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="12.75">
+    <row r="63" spans="1:8">
       <c r="A63" t="s">
         <v>130</v>
       </c>
@@ -2555,7 +3068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="12.75">
+    <row r="64" spans="1:8">
       <c r="A64" t="s">
         <v>132</v>
       </c>
@@ -2566,7 +3079,7 @@
         <v>4</v>
       </c>
       <c r="D64">
-        <v>150</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
         <v>133</v>
@@ -2581,7 +3094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="12.75">
+    <row r="65" spans="1:8">
       <c r="A65" t="s">
         <v>134</v>
       </c>
@@ -2607,7 +3120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="12.75">
+    <row r="66" spans="1:8">
       <c r="A66" t="s">
         <v>136</v>
       </c>
@@ -2633,7 +3146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="12.75">
+    <row r="67" spans="1:8">
       <c r="A67" t="s">
         <v>138</v>
       </c>
@@ -2659,7 +3172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="12.75">
+    <row r="68" spans="1:8">
       <c r="A68" t="s">
         <v>140</v>
       </c>
@@ -2685,7 +3198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="12.75">
+    <row r="69" spans="1:8">
       <c r="A69" t="s">
         <v>142</v>
       </c>
@@ -2711,7 +3224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="12.75">
+    <row r="70" spans="1:8">
       <c r="A70" t="s">
         <v>144</v>
       </c>
@@ -2737,7 +3250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="12.75">
+    <row r="71" spans="1:8">
       <c r="A71" t="s">
         <v>146</v>
       </c>
@@ -2748,7 +3261,7 @@
         <v>4</v>
       </c>
       <c r="D71">
-        <v>450</v>
+        <v>19</v>
       </c>
       <c r="E71" t="s">
         <v>147</v>
@@ -2763,7 +3276,533 @@
         <v>0</v>
       </c>
     </row>
+    <row r="72" spans="1:8">
+      <c r="A72" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B72">
+        <v>70</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <v>10</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F72">
+        <v>3000</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B73">
+        <v>71</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+      <c r="D73">
+        <v>80</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F73">
+        <v>2000</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B74">
+        <v>72</v>
+      </c>
+      <c r="C74">
+        <v>2</v>
+      </c>
+      <c r="D74">
+        <v>2</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="F74">
+        <v>2000</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B75">
+        <v>73</v>
+      </c>
+      <c r="C75">
+        <v>3</v>
+      </c>
+      <c r="D75">
+        <v>2</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="F75">
+        <v>2000</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B76">
+        <v>74</v>
+      </c>
+      <c r="C76">
+        <v>4</v>
+      </c>
+      <c r="D76">
+        <v>4</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="F76">
+        <v>2000</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B77">
+        <v>75</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+      <c r="D77">
+        <v>25</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="F77">
+        <v>20000</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B78">
+        <v>76</v>
+      </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
+      <c r="D78">
+        <v>170</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="F78">
+        <v>13000</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+      <c r="H78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B79">
+        <v>77</v>
+      </c>
+      <c r="C79">
+        <v>2</v>
+      </c>
+      <c r="D79">
+        <v>4</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="F79">
+        <v>13000</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B80">
+        <v>78</v>
+      </c>
+      <c r="C80">
+        <v>3</v>
+      </c>
+      <c r="D80">
+        <v>4</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="F80">
+        <v>13000</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
+      <c r="H80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B81">
+        <v>79</v>
+      </c>
+      <c r="C81">
+        <v>4</v>
+      </c>
+      <c r="D81">
+        <v>8</v>
+      </c>
+      <c r="E81" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="F81">
+        <v>13000</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B82">
+        <v>80</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+      <c r="D82">
+        <v>45</v>
+      </c>
+      <c r="E82" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="F82">
+        <v>55000</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B83">
+        <v>81</v>
+      </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
+      <c r="D83">
+        <v>280</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="F83">
+        <v>35000</v>
+      </c>
+      <c r="G83">
+        <v>0</v>
+      </c>
+      <c r="H83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B84">
+        <v>82</v>
+      </c>
+      <c r="C84">
+        <v>2</v>
+      </c>
+      <c r="D84">
+        <v>7</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="F84">
+        <v>35000</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B85">
+        <v>83</v>
+      </c>
+      <c r="C85">
+        <v>3</v>
+      </c>
+      <c r="D85">
+        <v>7</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="F85">
+        <v>35000</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+      <c r="H85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B86">
+        <v>84</v>
+      </c>
+      <c r="C86">
+        <v>4</v>
+      </c>
+      <c r="D86">
+        <v>12</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="F86">
+        <v>35000</v>
+      </c>
+      <c r="G86">
+        <v>0</v>
+      </c>
+      <c r="H86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B87">
+        <v>85</v>
+      </c>
+      <c r="C87">
+        <v>0</v>
+      </c>
+      <c r="D87">
+        <v>75</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F87">
+        <v>150000</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
+      <c r="H87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B88">
+        <v>86</v>
+      </c>
+      <c r="C88">
+        <v>1</v>
+      </c>
+      <c r="D88">
+        <v>420</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="F88">
+        <v>90000</v>
+      </c>
+      <c r="G88">
+        <v>0</v>
+      </c>
+      <c r="H88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B89">
+        <v>87</v>
+      </c>
+      <c r="C89">
+        <v>2</v>
+      </c>
+      <c r="D89">
+        <v>11</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="F89">
+        <v>90000</v>
+      </c>
+      <c r="G89">
+        <v>0</v>
+      </c>
+      <c r="H89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B90">
+        <v>88</v>
+      </c>
+      <c r="C90">
+        <v>3</v>
+      </c>
+      <c r="D90">
+        <v>11</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="F90">
+        <v>90000</v>
+      </c>
+      <c r="G90">
+        <v>0</v>
+      </c>
+      <c r="H90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B91">
+        <v>89</v>
+      </c>
+      <c r="C91">
+        <v>4</v>
+      </c>
+      <c r="D91">
+        <v>16</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F91">
+        <v>90000</v>
+      </c>
+      <c r="G91">
+        <v>0</v>
+      </c>
+      <c r="H91">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:H1" xr:uid="{4BCEB05D-BEC8-483F-8F99-A6AFE1180441}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H91">
+      <sortCondition ref="B1"/>
+    </sortState>
+  </autoFilter>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/TeamTextRPG/Data/Excel/Items.xlsx
+++ b/TeamTextRPG/Data/Excel/Items.xlsx
@@ -1,19 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="9302"/>
   <workbookPr/>
+  <bookViews>
+    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" activeTab="0"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$H$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$1</definedName>
   </definedNames>
-  <calcPr/>
-  <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="Cuj8F/YhdlOeqEhY3IWwtu61DWF58m+W8uKDZjtzpkk="/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -481,41 +480,46 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Dotum"/>
-        <color theme="1"/>
-        <sz val="10.0"/>
+        <family val="2"/>
       </rPr>
       <t>무난하게</t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="10.0"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="돋움"/>
-        <color theme="1"/>
-        <sz val="10.0"/>
+        <family val="2"/>
       </rPr>
       <t>사용</t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="10.0"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="돋움"/>
-        <color theme="1"/>
-        <sz val="10.0"/>
+        <family val="2"/>
       </rPr>
       <t>가능한 갑옷입니다.</t>
     </r>
@@ -526,49 +530,55 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="돋움"/>
-        <color theme="1"/>
-        <sz val="10.0"/>
+        <family val="2"/>
       </rPr>
       <t>무난하게</t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="10.0"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="돋움"/>
-        <color theme="1"/>
-        <sz val="10.0"/>
+        <family val="2"/>
       </rPr>
       <t>사용</t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="10.0"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="돋움"/>
-        <color theme="1"/>
-        <sz val="10.0"/>
+        <family val="2"/>
       </rPr>
       <t>가능한 각반입니다</t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="10.0"/>
+        <family val="2"/>
       </rPr>
       <t>.</t>
     </r>
@@ -621,73 +631,82 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Dotum"/>
-        <color theme="1"/>
-        <sz val="10.0"/>
+        <family val="2"/>
       </rPr>
       <t>숙련된</t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="10.0"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="돋움"/>
-        <color theme="1"/>
-        <sz val="10.0"/>
+        <family val="2"/>
       </rPr>
       <t>모험자가</t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="10.0"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="돋움"/>
-        <color theme="1"/>
-        <sz val="10.0"/>
+        <family val="2"/>
       </rPr>
       <t>쓰는</t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="10.0"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="돋움"/>
-        <color theme="1"/>
-        <sz val="10.0"/>
+        <family val="2"/>
       </rPr>
       <t>고급</t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="10.0"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="돋움"/>
-        <color theme="1"/>
-        <sz val="10.0"/>
+        <family val="2"/>
       </rPr>
       <t>투구입니다.</t>
     </r>
@@ -698,73 +717,82 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Dotum"/>
-        <color theme="1"/>
-        <sz val="10.0"/>
+        <family val="2"/>
       </rPr>
       <t>숙련된</t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="10.0"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="돋움"/>
-        <color theme="1"/>
-        <sz val="10.0"/>
+        <family val="2"/>
       </rPr>
       <t>모험자가</t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="10.0"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="돋움"/>
-        <color theme="1"/>
-        <sz val="10.0"/>
+        <family val="2"/>
       </rPr>
       <t>쓰는</t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="10.0"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="돋움"/>
-        <color theme="1"/>
-        <sz val="10.0"/>
+        <family val="2"/>
       </rPr>
       <t>고급</t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="10.0"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="돋움"/>
-        <color theme="1"/>
-        <sz val="10.0"/>
+        <family val="2"/>
       </rPr>
       <t>갑옷입니다.</t>
     </r>
@@ -775,73 +803,82 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Dotum"/>
-        <color theme="1"/>
-        <sz val="10.0"/>
+        <family val="2"/>
       </rPr>
       <t>숙련된</t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="10.0"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="돋움"/>
-        <color theme="1"/>
-        <sz val="10.0"/>
+        <family val="2"/>
       </rPr>
       <t>모험자가</t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="10.0"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="돋움"/>
-        <color theme="1"/>
-        <sz val="10.0"/>
+        <family val="2"/>
       </rPr>
       <t>쓰는</t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="10.0"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="돋움"/>
-        <color theme="1"/>
-        <sz val="10.0"/>
+        <family val="2"/>
       </rPr>
       <t>고급</t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="10.0"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="돋움"/>
-        <color theme="1"/>
-        <sz val="10.0"/>
+        <family val="2"/>
       </rPr>
       <t>각반입니다.</t>
     </r>
@@ -864,57 +901,64 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Dotum"/>
-        <color theme="1"/>
-        <sz val="10.0"/>
+        <family val="2"/>
       </rPr>
       <t>대장장이</t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="10.0"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="돋움"/>
-        <color theme="1"/>
-        <sz val="10.0"/>
+        <family val="2"/>
       </rPr>
       <t>장인이</t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="10.0"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="돋움"/>
-        <color theme="1"/>
-        <sz val="10.0"/>
+        <family val="2"/>
       </rPr>
       <t>빚어낸</t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="10.0"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="돋움"/>
-        <color theme="1"/>
-        <sz val="10.0"/>
+        <family val="2"/>
       </rPr>
       <t>투구입니다.</t>
     </r>
@@ -941,19 +985,19 @@
     <t>회복 물약(소)</t>
   </si>
   <si>
-    <t>체력을 10 회복시켜줍니다</t>
+    <t>체력을 30 회복시켜줍니다.</t>
   </si>
   <si>
     <t>회복 물약(중)</t>
   </si>
   <si>
-    <t>체력을 30 회복시켜줍니다</t>
-  </si>
-  <si>
-    <t>용도모를 스크롤</t>
-  </si>
-  <si>
-    <t>열어보기 전에는 아무것도 모릅니다.</t>
+    <t>마력을 50 회복시켜줍니다.</t>
+  </si>
+  <si>
+    <t>스테로이드</t>
+  </si>
+  <si>
+    <t>공격력을 10 추가합니다.</t>
   </si>
 </sst>
 </file>
@@ -962,35 +1006,41 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <fonts count="6">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arimo"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Gulim"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Dotum"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="돋움"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -998,37 +1048,141 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="15" builtinId="5"/>
+    <cellStyle name="Currency" xfId="16" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="17" builtinId="7"/>
+    <cellStyle name="Comma" xfId="18" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="19" builtinId="6"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1226,27 +1380,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1">
+      <selection pane="topLeft" activeCell="N72" sqref="N72"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.434285714285714" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="19.14"/>
-    <col customWidth="1" min="2" max="2" width="12.43"/>
-    <col customWidth="1" min="3" max="3" width="11.14"/>
-    <col customWidth="1" min="4" max="4" width="13.43"/>
-    <col customWidth="1" min="5" max="5" width="44.86"/>
-    <col customWidth="1" min="6" max="6" width="13.57"/>
-    <col customWidth="1" min="7" max="7" width="16.57"/>
-    <col customWidth="1" min="8" max="8" width="27.86"/>
-    <col customWidth="1" min="9" max="26" width="8.71"/>
+    <col min="1" max="1" width="19.142857142857142" customWidth="1"/>
+    <col min="2" max="2" width="12.428571428571429" customWidth="1"/>
+    <col min="3" max="3" width="11.142857142857142" customWidth="1"/>
+    <col min="4" max="4" width="13.428571428571429" customWidth="1"/>
+    <col min="5" max="5" width="44.857142857142854" customWidth="1"/>
+    <col min="6" max="6" width="13.571428571428571" customWidth="1"/>
+    <col min="7" max="7" width="16.571428571428573" customWidth="1"/>
+    <col min="8" max="8" width="27.857142857142858" customWidth="1"/>
+    <col min="9" max="26" width="8.714285714285714" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.75" customHeight="1">
+    <row r="1" spans="1:8" ht="12.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1272,2422 +1426,2422 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" ht="12.75" customHeight="1">
+    <row r="2" spans="1:8" ht="12.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C2" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D2" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F2" s="1">
-        <v>800.0</v>
+        <v>800</v>
       </c>
       <c r="G2" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H2" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="3" ht="12.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="12.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C3" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D3" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F3" s="1">
-        <v>3000.0</v>
+        <v>3000</v>
       </c>
       <c r="G3" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H3" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="4" ht="12.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="12.75" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C4" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D4" s="1">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F4" s="1">
-        <v>8000.0</v>
+        <v>8000</v>
       </c>
       <c r="G4" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H4" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="5" ht="12.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="12.75" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C5" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D5" s="1">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F5" s="1">
-        <v>20000.0</v>
+        <v>20000</v>
       </c>
       <c r="G5" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H5" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="6" ht="12.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="12.75" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B6" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C6" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D6" s="1">
-        <v>35.0</v>
+        <v>35</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F6" s="1">
-        <v>38000.0</v>
+        <v>38000</v>
       </c>
       <c r="G6" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H6" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="7" ht="12.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="12.75" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B7" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="C7" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D7" s="1">
-        <v>45.0</v>
+        <v>45</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F7" s="1">
-        <v>55000.0</v>
+        <v>55000</v>
       </c>
       <c r="G7" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H7" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="8" ht="12.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="12.75" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B8" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="C8" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D8" s="1">
-        <v>60.0</v>
+        <v>60</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F8" s="1">
-        <v>90000.0</v>
+        <v>90000</v>
       </c>
       <c r="G8" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H8" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="9" ht="12.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="12.75" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B9" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="C9" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D9" s="1">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F9" s="1">
-        <v>150000.0</v>
+        <v>150000</v>
       </c>
       <c r="G9" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H9" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="10" ht="12.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="12.75" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B10" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="C10" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D10" s="1">
-        <v>90.0</v>
+        <v>90</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>25</v>
       </c>
       <c r="F10" s="1">
-        <v>240000.0</v>
+        <v>240000</v>
       </c>
       <c r="G10" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H10" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="11" ht="12.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="12.75" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B11" s="1">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="C11" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D11" s="1">
-        <v>110.0</v>
+        <v>110</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>27</v>
       </c>
       <c r="F11" s="1">
-        <v>440000.0</v>
+        <v>440000</v>
       </c>
       <c r="G11" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H11" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="12" ht="12.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="12.75" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B12" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="C12" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D12" s="1">
-        <v>40.0</v>
+        <v>40</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>29</v>
       </c>
       <c r="F12" s="1">
-        <v>500.0</v>
+        <v>500</v>
       </c>
       <c r="G12" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H12" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="13" ht="12.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="12.75" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B13" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="C13" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D13" s="1">
-        <v>80.0</v>
+        <v>80</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>31</v>
       </c>
       <c r="F13" s="1">
-        <v>2000.0</v>
+        <v>2000</v>
       </c>
       <c r="G13" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H13" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="14" ht="12.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="12.75" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B14" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="C14" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D14" s="1">
-        <v>120.0</v>
+        <v>120</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>33</v>
       </c>
       <c r="F14" s="1">
-        <v>5000.0</v>
+        <v>5000</v>
       </c>
       <c r="G14" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="15" ht="12.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="12.75" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B15" s="1">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="C15" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D15" s="1">
-        <v>170.0</v>
+        <v>170</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F15" s="1">
-        <v>13000.0</v>
+        <v>13000</v>
       </c>
       <c r="G15" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H15" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="16" ht="12.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="12.75" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B16" s="1">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="C16" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D16" s="1">
-        <v>220.0</v>
+        <v>220</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>37</v>
       </c>
       <c r="F16" s="1">
-        <v>22000.0</v>
+        <v>22000</v>
       </c>
       <c r="G16" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H16" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="17" ht="12.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="12.75" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B17" s="1">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="C17" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D17" s="1">
-        <v>280.0</v>
+        <v>280</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>39</v>
       </c>
       <c r="F17" s="1">
-        <v>35000.0</v>
+        <v>35000</v>
       </c>
       <c r="G17" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H17" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="18" ht="12.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="12.75" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B18" s="1">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="C18" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D18" s="1">
-        <v>340.0</v>
+        <v>340</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>41</v>
       </c>
       <c r="F18" s="1">
-        <v>55000.0</v>
+        <v>55000</v>
       </c>
       <c r="G18" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H18" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="19" ht="12.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="12.75" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B19" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="C19" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D19" s="1">
-        <v>420.0</v>
+        <v>420</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>43</v>
       </c>
       <c r="F19" s="1">
-        <v>90000.0</v>
+        <v>90000</v>
       </c>
       <c r="G19" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H19" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="20" ht="12.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="12.75" customHeight="1">
       <c r="A20" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B20" s="1">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="C20" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D20" s="1">
-        <v>500.0</v>
+        <v>500</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>45</v>
       </c>
       <c r="F20" s="1">
-        <v>150000.0</v>
+        <v>150000</v>
       </c>
       <c r="G20" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H20" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="21" ht="12.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="12.75" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B21" s="1">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="C21" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D21" s="1">
-        <v>600.0</v>
+        <v>600</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>47</v>
       </c>
       <c r="F21" s="1">
-        <v>270000.0</v>
+        <v>270000</v>
       </c>
       <c r="G21" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H21" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="22" ht="12.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="12.75" customHeight="1">
       <c r="A22" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B22" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="C22" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D22" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>49</v>
       </c>
       <c r="F22" s="1">
-        <v>500.0</v>
+        <v>500</v>
       </c>
       <c r="G22" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H22" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="23" ht="12.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="12.75" customHeight="1">
       <c r="A23" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B23" s="1">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="C23" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D23" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>51</v>
       </c>
       <c r="F23" s="1">
-        <v>2000.0</v>
+        <v>2000</v>
       </c>
       <c r="G23" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H23" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="24" ht="12.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="12.75" customHeight="1">
       <c r="A24" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B24" s="1">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="C24" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D24" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>53</v>
       </c>
       <c r="F24" s="1">
-        <v>5000.0</v>
+        <v>5000</v>
       </c>
       <c r="G24" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H24" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="25" ht="12.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="12.75" customHeight="1">
       <c r="A25" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B25" s="1">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="C25" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D25" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>55</v>
       </c>
       <c r="F25" s="1">
-        <v>13000.0</v>
+        <v>13000</v>
       </c>
       <c r="G25" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H25" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="26" ht="12.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="12.75" customHeight="1">
       <c r="A26" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B26" s="1">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="C26" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D26" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>57</v>
       </c>
       <c r="F26" s="1">
-        <v>22000.0</v>
+        <v>22000</v>
       </c>
       <c r="G26" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H26" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="27" ht="12.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="12.75" customHeight="1">
       <c r="A27" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B27" s="1">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="C27" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D27" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>59</v>
       </c>
       <c r="F27" s="1">
-        <v>35000.0</v>
+        <v>35000</v>
       </c>
       <c r="G27" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H27" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="28" ht="12.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="12.75" customHeight="1">
       <c r="A28" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B28" s="1">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="C28" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D28" s="1">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>61</v>
       </c>
       <c r="F28" s="1">
-        <v>55000.0</v>
+        <v>55000</v>
       </c>
       <c r="G28" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H28" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="29" ht="12.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="12.75" customHeight="1">
       <c r="A29" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B29" s="1">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="C29" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D29" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>63</v>
       </c>
       <c r="F29" s="1">
-        <v>90000.0</v>
+        <v>90000</v>
       </c>
       <c r="G29" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H29" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="30" ht="12.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="12.75" customHeight="1">
       <c r="A30" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B30" s="1">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="C30" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D30" s="1">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>65</v>
       </c>
       <c r="F30" s="1">
-        <v>150000.0</v>
+        <v>150000</v>
       </c>
       <c r="G30" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H30" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="31" ht="12.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="12.75" customHeight="1">
       <c r="A31" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B31" s="1">
-        <v>29.0</v>
+        <v>29</v>
       </c>
       <c r="C31" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D31" s="1">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>67</v>
       </c>
       <c r="F31" s="1">
-        <v>270000.0</v>
+        <v>270000</v>
       </c>
       <c r="G31" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H31" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="32" ht="12.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="12.75" customHeight="1">
       <c r="A32" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B32" s="1">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="C32" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D32" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>69</v>
       </c>
       <c r="F32" s="1">
-        <v>500.0</v>
+        <v>500</v>
       </c>
       <c r="G32" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H32" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="33" ht="12.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="12.75" customHeight="1">
       <c r="A33" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B33" s="1">
-        <v>31.0</v>
+        <v>31</v>
       </c>
       <c r="C33" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D33" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>71</v>
       </c>
       <c r="F33" s="1">
-        <v>2000.0</v>
+        <v>2000</v>
       </c>
       <c r="G33" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H33" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="34" ht="12.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="12.75" customHeight="1">
       <c r="A34" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B34" s="1">
-        <v>32.0</v>
+        <v>32</v>
       </c>
       <c r="C34" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D34" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>73</v>
       </c>
       <c r="F34" s="1">
-        <v>5000.0</v>
+        <v>5000</v>
       </c>
       <c r="G34" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H34" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="35" ht="12.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="12.75" customHeight="1">
       <c r="A35" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B35" s="1">
-        <v>33.0</v>
+        <v>33</v>
       </c>
       <c r="C35" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D35" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>75</v>
       </c>
       <c r="F35" s="1">
-        <v>13000.0</v>
+        <v>13000</v>
       </c>
       <c r="G35" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H35" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="36" ht="12.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="12.75" customHeight="1">
       <c r="A36" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B36" s="1">
-        <v>34.0</v>
+        <v>34</v>
       </c>
       <c r="C36" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D36" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>77</v>
       </c>
       <c r="F36" s="1">
-        <v>22000.0</v>
+        <v>22000</v>
       </c>
       <c r="G36" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H36" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="37" ht="12.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="12.75" customHeight="1">
       <c r="A37" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B37" s="1">
-        <v>35.0</v>
+        <v>35</v>
       </c>
       <c r="C37" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D37" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>79</v>
       </c>
       <c r="F37" s="1">
-        <v>35000.0</v>
+        <v>35000</v>
       </c>
       <c r="G37" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H37" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="38" ht="12.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="12.75" customHeight="1">
       <c r="A38" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B38" s="1">
-        <v>36.0</v>
+        <v>36</v>
       </c>
       <c r="C38" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D38" s="1">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>81</v>
       </c>
       <c r="F38" s="1">
-        <v>55000.0</v>
+        <v>55000</v>
       </c>
       <c r="G38" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H38" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="39" ht="12.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="12.75" customHeight="1">
       <c r="A39" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B39" s="1">
-        <v>37.0</v>
+        <v>37</v>
       </c>
       <c r="C39" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D39" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>83</v>
       </c>
       <c r="F39" s="1">
-        <v>90000.0</v>
+        <v>90000</v>
       </c>
       <c r="G39" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H39" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="40" ht="12.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="12.75" customHeight="1">
       <c r="A40" s="1" t="s">
         <v>84</v>
       </c>
       <c r="B40" s="1">
-        <v>38.0</v>
+        <v>38</v>
       </c>
       <c r="C40" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D40" s="1">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>85</v>
       </c>
       <c r="F40" s="1">
-        <v>150000.0</v>
+        <v>150000</v>
       </c>
       <c r="G40" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H40" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="41" ht="12.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="12.75" customHeight="1">
       <c r="A41" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B41" s="1">
-        <v>39.0</v>
+        <v>39</v>
       </c>
       <c r="C41" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D41" s="1">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>87</v>
       </c>
       <c r="F41" s="1">
-        <v>270000.0</v>
+        <v>270000</v>
       </c>
       <c r="G41" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H41" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="42" ht="12.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="12.75" customHeight="1">
       <c r="A42" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B42" s="1">
-        <v>40.0</v>
+        <v>40</v>
       </c>
       <c r="C42" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D42" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>89</v>
       </c>
       <c r="F42" s="1">
-        <v>500.0</v>
+        <v>500</v>
       </c>
       <c r="G42" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H42" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="43" ht="12.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="12.75" customHeight="1">
       <c r="A43" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B43" s="1">
-        <v>41.0</v>
+        <v>41</v>
       </c>
       <c r="C43" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D43" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>91</v>
       </c>
       <c r="F43" s="1">
-        <v>2000.0</v>
+        <v>2000</v>
       </c>
       <c r="G43" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H43" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="44" ht="12.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="12.75" customHeight="1">
       <c r="A44" s="1" t="s">
         <v>92</v>
       </c>
       <c r="B44" s="1">
-        <v>42.0</v>
+        <v>42</v>
       </c>
       <c r="C44" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D44" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>93</v>
       </c>
       <c r="F44" s="1">
-        <v>5000.0</v>
+        <v>5000</v>
       </c>
       <c r="G44" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H44" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="45" ht="12.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="12.75" customHeight="1">
       <c r="A45" s="1" t="s">
         <v>94</v>
       </c>
       <c r="B45" s="1">
-        <v>43.0</v>
+        <v>43</v>
       </c>
       <c r="C45" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D45" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>95</v>
       </c>
       <c r="F45" s="1">
-        <v>13000.0</v>
+        <v>13000</v>
       </c>
       <c r="G45" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H45" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="46" ht="12.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="12.75" customHeight="1">
       <c r="A46" s="1" t="s">
         <v>96</v>
       </c>
       <c r="B46" s="1">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="C46" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D46" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>97</v>
       </c>
       <c r="F46" s="1">
-        <v>22000.0</v>
+        <v>22000</v>
       </c>
       <c r="G46" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H46" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="47" ht="12.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="12.75" customHeight="1">
       <c r="A47" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B47" s="1">
-        <v>45.0</v>
+        <v>45</v>
       </c>
       <c r="C47" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D47" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>99</v>
       </c>
       <c r="F47" s="1">
-        <v>35000.0</v>
+        <v>35000</v>
       </c>
       <c r="G47" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H47" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="48" ht="12.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="12.75" customHeight="1">
       <c r="A48" s="1" t="s">
         <v>100</v>
       </c>
       <c r="B48" s="1">
-        <v>46.0</v>
+        <v>46</v>
       </c>
       <c r="C48" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D48" s="1">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>101</v>
       </c>
       <c r="F48" s="1">
-        <v>55000.0</v>
+        <v>55000</v>
       </c>
       <c r="G48" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H48" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="49" ht="12.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="12.75" customHeight="1">
       <c r="A49" s="1" t="s">
         <v>102</v>
       </c>
       <c r="B49" s="1">
-        <v>47.0</v>
+        <v>47</v>
       </c>
       <c r="C49" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D49" s="1">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>103</v>
       </c>
       <c r="F49" s="1">
-        <v>90000.0</v>
+        <v>90000</v>
       </c>
       <c r="G49" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H49" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="50" ht="12.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="12.75" customHeight="1">
       <c r="A50" s="1" t="s">
         <v>104</v>
       </c>
       <c r="B50" s="1">
-        <v>48.0</v>
+        <v>48</v>
       </c>
       <c r="C50" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D50" s="1">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>105</v>
       </c>
       <c r="F50" s="1">
-        <v>150000.0</v>
+        <v>150000</v>
       </c>
       <c r="G50" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H50" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="51" ht="12.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="12.75" customHeight="1">
       <c r="A51" s="1" t="s">
         <v>106</v>
       </c>
       <c r="B51" s="1">
-        <v>49.0</v>
+        <v>49</v>
       </c>
       <c r="C51" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D51" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>107</v>
       </c>
       <c r="F51" s="1">
-        <v>270000.0</v>
+        <v>270000</v>
       </c>
       <c r="G51" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H51" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="52" ht="12.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="12.75" customHeight="1">
       <c r="A52" s="1" t="s">
         <v>108</v>
       </c>
       <c r="B52" s="1">
-        <v>50.0</v>
+        <v>50</v>
       </c>
       <c r="C52" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D52" s="1">
-        <v>50.0</v>
+        <v>50</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>109</v>
       </c>
       <c r="F52" s="1">
-        <v>700.0</v>
+        <v>700</v>
       </c>
       <c r="G52" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H52" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="53" ht="12.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="12.75" customHeight="1">
       <c r="A53" s="1" t="s">
         <v>110</v>
       </c>
       <c r="B53" s="1">
-        <v>51.0</v>
+        <v>51</v>
       </c>
       <c r="C53" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D53" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>111</v>
       </c>
       <c r="F53" s="1">
-        <v>1500.0</v>
+        <v>1500</v>
       </c>
       <c r="G53" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H53" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="54" ht="12.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="12.75" customHeight="1">
       <c r="A54" s="1" t="s">
         <v>112</v>
       </c>
       <c r="B54" s="1">
-        <v>52.0</v>
+        <v>52</v>
       </c>
       <c r="C54" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D54" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>113</v>
       </c>
       <c r="F54" s="1">
-        <v>1500.0</v>
+        <v>1500</v>
       </c>
       <c r="G54" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H54" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="55" ht="12.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="12.75" customHeight="1">
       <c r="A55" s="1" t="s">
         <v>114</v>
       </c>
       <c r="B55" s="1">
-        <v>53.0</v>
+        <v>53</v>
       </c>
       <c r="C55" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D55" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>115</v>
       </c>
       <c r="F55" s="1">
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="G55" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H55" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="56" ht="12.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="12.75" customHeight="1">
       <c r="A56" s="1" t="s">
         <v>116</v>
       </c>
       <c r="B56" s="1">
-        <v>54.0</v>
+        <v>54</v>
       </c>
       <c r="C56" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D56" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>117</v>
       </c>
       <c r="F56" s="1">
-        <v>5000.0</v>
+        <v>5000</v>
       </c>
       <c r="G56" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H56" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="57" ht="12.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="12.75" customHeight="1">
       <c r="A57" s="1" t="s">
         <v>118</v>
       </c>
       <c r="B57" s="1">
-        <v>55.0</v>
+        <v>55</v>
       </c>
       <c r="C57" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D57" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>119</v>
       </c>
       <c r="F57" s="1">
-        <v>3500.0</v>
+        <v>3500</v>
       </c>
       <c r="G57" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H57" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="58" ht="12.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="12.75" customHeight="1">
       <c r="A58" s="1" t="s">
         <v>120</v>
       </c>
       <c r="B58" s="1">
-        <v>56.0</v>
+        <v>56</v>
       </c>
       <c r="C58" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D58" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>121</v>
       </c>
       <c r="F58" s="1">
-        <v>3500.0</v>
+        <v>3500</v>
       </c>
       <c r="G58" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H58" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="59" ht="12.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="12.75" customHeight="1">
       <c r="A59" s="1" t="s">
         <v>122</v>
       </c>
       <c r="B59" s="1">
-        <v>57.0</v>
+        <v>57</v>
       </c>
       <c r="C59" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D59" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>123</v>
       </c>
       <c r="F59" s="1">
-        <v>9000.0</v>
+        <v>9000</v>
       </c>
       <c r="G59" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H59" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="60" ht="12.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="12.75" customHeight="1">
       <c r="A60" s="1" t="s">
         <v>124</v>
       </c>
       <c r="B60" s="1">
-        <v>58.0</v>
+        <v>58</v>
       </c>
       <c r="C60" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D60" s="1">
-        <v>130.0</v>
+        <v>130</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>125</v>
       </c>
       <c r="F60" s="1">
-        <v>9000.0</v>
+        <v>9000</v>
       </c>
       <c r="G60" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H60" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="61" ht="12.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="12.75" customHeight="1">
       <c r="A61" s="1" t="s">
         <v>126</v>
       </c>
       <c r="B61" s="1">
-        <v>59.0</v>
+        <v>59</v>
       </c>
       <c r="C61" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D61" s="1">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>127</v>
       </c>
       <c r="F61" s="1">
-        <v>30000.0</v>
+        <v>30000</v>
       </c>
       <c r="G61" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H61" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="62" ht="12.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="12.75" customHeight="1">
       <c r="A62" s="1" t="s">
         <v>128</v>
       </c>
       <c r="B62" s="1">
-        <v>60.0</v>
+        <v>60</v>
       </c>
       <c r="C62" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D62" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>129</v>
       </c>
       <c r="F62" s="1">
-        <v>17000.0</v>
+        <v>17000</v>
       </c>
       <c r="G62" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H62" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="63" ht="12.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="12.75" customHeight="1">
       <c r="A63" s="1" t="s">
         <v>130</v>
       </c>
       <c r="B63" s="1">
-        <v>61.0</v>
+        <v>61</v>
       </c>
       <c r="C63" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D63" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>131</v>
       </c>
       <c r="F63" s="1">
-        <v>30000.0</v>
+        <v>30000</v>
       </c>
       <c r="G63" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H63" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="64" ht="12.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="12.75" customHeight="1">
       <c r="A64" s="1" t="s">
         <v>132</v>
       </c>
       <c r="B64" s="1">
-        <v>62.0</v>
+        <v>62</v>
       </c>
       <c r="C64" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D64" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>133</v>
       </c>
       <c r="F64" s="1">
-        <v>30000.0</v>
+        <v>30000</v>
       </c>
       <c r="G64" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H64" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="65" ht="12.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="12.75" customHeight="1">
       <c r="A65" s="1" t="s">
         <v>134</v>
       </c>
       <c r="B65" s="1">
-        <v>63.0</v>
+        <v>63</v>
       </c>
       <c r="C65" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D65" s="1">
-        <v>53.0</v>
+        <v>53</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>135</v>
       </c>
       <c r="F65" s="1">
-        <v>75000.0</v>
+        <v>75000</v>
       </c>
       <c r="G65" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H65" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="66" ht="12.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="12.75" customHeight="1">
       <c r="A66" s="1" t="s">
         <v>136</v>
       </c>
       <c r="B66" s="1">
-        <v>64.0</v>
+        <v>64</v>
       </c>
       <c r="C66" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D66" s="1">
-        <v>310.0</v>
+        <v>310</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>137</v>
       </c>
       <c r="F66" s="1">
-        <v>40000.0</v>
+        <v>40000</v>
       </c>
       <c r="G66" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H66" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="67" ht="12.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="12.75" customHeight="1">
       <c r="A67" s="1" t="s">
         <v>138</v>
       </c>
       <c r="B67" s="1">
-        <v>65.0</v>
+        <v>65</v>
       </c>
       <c r="C67" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D67" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>139</v>
       </c>
       <c r="F67" s="1">
-        <v>75000.0</v>
+        <v>75000</v>
       </c>
       <c r="G67" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H67" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="68" ht="12.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="12.75" customHeight="1">
       <c r="A68" s="1" t="s">
         <v>140</v>
       </c>
       <c r="B68" s="1">
-        <v>66.0</v>
+        <v>66</v>
       </c>
       <c r="C68" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D68" s="1">
-        <v>370.0</v>
+        <v>370</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>141</v>
       </c>
       <c r="F68" s="1">
-        <v>75000.0</v>
+        <v>75000</v>
       </c>
       <c r="G68" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H68" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="69" ht="12.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="12.75" customHeight="1">
       <c r="A69" s="1" t="s">
         <v>142</v>
       </c>
       <c r="B69" s="1">
-        <v>67.0</v>
+        <v>67</v>
       </c>
       <c r="C69" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D69" s="1">
-        <v>83.0</v>
+        <v>83</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>143</v>
       </c>
       <c r="F69" s="1">
-        <v>200000.0</v>
+        <v>200000</v>
       </c>
       <c r="G69" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H69" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="70" ht="12.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="12.75" customHeight="1">
       <c r="A70" s="1" t="s">
         <v>144</v>
       </c>
       <c r="B70" s="1">
-        <v>68.0</v>
+        <v>68</v>
       </c>
       <c r="C70" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D70" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>145</v>
       </c>
       <c r="F70" s="1">
-        <v>120000.0</v>
+        <v>120000</v>
       </c>
       <c r="G70" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H70" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="71" ht="12.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="12.75" customHeight="1">
       <c r="A71" s="1" t="s">
         <v>146</v>
       </c>
       <c r="B71" s="1">
-        <v>69.0</v>
+        <v>69</v>
       </c>
       <c r="C71" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D71" s="1">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>147</v>
       </c>
       <c r="F71" s="1">
-        <v>220000.0</v>
+        <v>220000</v>
       </c>
       <c r="G71" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H71" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="72" ht="12.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="12.75" customHeight="1">
       <c r="A72" s="2" t="s">
         <v>148</v>
       </c>
       <c r="B72" s="1">
-        <v>70.0</v>
+        <v>70</v>
       </c>
       <c r="C72" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D72" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>149</v>
       </c>
       <c r="F72" s="1">
-        <v>3000.0</v>
+        <v>3000</v>
       </c>
       <c r="G72" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H72" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="73" ht="12.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="12.75" customHeight="1">
       <c r="A73" s="3" t="s">
         <v>150</v>
       </c>
       <c r="B73" s="1">
-        <v>71.0</v>
+        <v>71</v>
       </c>
       <c r="C73" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D73" s="1">
-        <v>80.0</v>
+        <v>80</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>151</v>
       </c>
       <c r="F73" s="1">
-        <v>2000.0</v>
+        <v>2000</v>
       </c>
       <c r="G73" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H73" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="74" ht="12.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="12.75" customHeight="1">
       <c r="A74" s="3" t="s">
         <v>152</v>
       </c>
       <c r="B74" s="1">
-        <v>72.0</v>
+        <v>72</v>
       </c>
       <c r="C74" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D74" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E74" s="4" t="s">
         <v>153</v>
       </c>
       <c r="F74" s="1">
-        <v>2000.0</v>
+        <v>2000</v>
       </c>
       <c r="G74" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H74" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="75" ht="12.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="12.75" customHeight="1">
       <c r="A75" s="3" t="s">
         <v>154</v>
       </c>
       <c r="B75" s="1">
-        <v>73.0</v>
+        <v>73</v>
       </c>
       <c r="C75" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D75" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E75" s="5" t="s">
         <v>155</v>
       </c>
       <c r="F75" s="1">
-        <v>2000.0</v>
+        <v>2000</v>
       </c>
       <c r="G75" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H75" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="76" ht="12.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="12.75" customHeight="1">
       <c r="A76" s="3" t="s">
         <v>156</v>
       </c>
       <c r="B76" s="1">
-        <v>74.0</v>
+        <v>74</v>
       </c>
       <c r="C76" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D76" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E76" s="4" t="s">
         <v>157</v>
       </c>
       <c r="F76" s="1">
-        <v>2000.0</v>
+        <v>2000</v>
       </c>
       <c r="G76" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H76" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="77" ht="12.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="12.75" customHeight="1">
       <c r="A77" s="3" t="s">
         <v>158</v>
       </c>
       <c r="B77" s="1">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="C77" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D77" s="1">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="E77" s="4" t="s">
         <v>159</v>
       </c>
       <c r="F77" s="1">
-        <v>20000.0</v>
+        <v>20000</v>
       </c>
       <c r="G77" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H77" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="78" ht="12.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="12.75" customHeight="1">
       <c r="A78" s="3" t="s">
         <v>160</v>
       </c>
       <c r="B78" s="1">
-        <v>76.0</v>
+        <v>76</v>
       </c>
       <c r="C78" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D78" s="1">
-        <v>170.0</v>
+        <v>170</v>
       </c>
       <c r="E78" s="4" t="s">
         <v>161</v>
       </c>
       <c r="F78" s="1">
-        <v>13000.0</v>
+        <v>13000</v>
       </c>
       <c r="G78" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H78" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="79" ht="12.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="12.75" customHeight="1">
       <c r="A79" s="3" t="s">
         <v>162</v>
       </c>
       <c r="B79" s="1">
-        <v>77.0</v>
+        <v>77</v>
       </c>
       <c r="C79" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D79" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E79" s="4" t="s">
         <v>163</v>
       </c>
       <c r="F79" s="1">
-        <v>13000.0</v>
+        <v>13000</v>
       </c>
       <c r="G79" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H79" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="80" ht="12.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="12.75" customHeight="1">
       <c r="A80" s="3" t="s">
         <v>164</v>
       </c>
       <c r="B80" s="1">
-        <v>78.0</v>
+        <v>78</v>
       </c>
       <c r="C80" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D80" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E80" s="4" t="s">
         <v>165</v>
       </c>
       <c r="F80" s="1">
-        <v>13000.0</v>
+        <v>13000</v>
       </c>
       <c r="G80" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H80" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="81" ht="12.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="12.75" customHeight="1">
       <c r="A81" s="3" t="s">
         <v>166</v>
       </c>
       <c r="B81" s="1">
-        <v>79.0</v>
+        <v>79</v>
       </c>
       <c r="C81" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D81" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="E81" s="4" t="s">
         <v>167</v>
       </c>
       <c r="F81" s="1">
-        <v>13000.0</v>
+        <v>13000</v>
       </c>
       <c r="G81" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H81" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="82" ht="12.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="12.75" customHeight="1">
       <c r="A82" s="2" t="s">
         <v>168</v>
       </c>
       <c r="B82" s="1">
-        <v>80.0</v>
+        <v>80</v>
       </c>
       <c r="C82" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D82" s="1">
-        <v>45.0</v>
+        <v>45</v>
       </c>
       <c r="E82" s="4" t="s">
         <v>169</v>
       </c>
       <c r="F82" s="1">
-        <v>55000.0</v>
+        <v>55000</v>
       </c>
       <c r="G82" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H82" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="83" ht="12.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="12.75" customHeight="1">
       <c r="A83" s="2" t="s">
         <v>170</v>
       </c>
       <c r="B83" s="1">
-        <v>81.0</v>
+        <v>81</v>
       </c>
       <c r="C83" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D83" s="1">
-        <v>280.0</v>
+        <v>280</v>
       </c>
       <c r="E83" s="4" t="s">
         <v>171</v>
       </c>
       <c r="F83" s="1">
-        <v>35000.0</v>
+        <v>35000</v>
       </c>
       <c r="G83" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H83" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="84" ht="12.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="12.75" customHeight="1">
       <c r="A84" s="3" t="s">
         <v>172</v>
       </c>
       <c r="B84" s="1">
-        <v>82.0</v>
+        <v>82</v>
       </c>
       <c r="C84" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D84" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="E84" s="4" t="s">
         <v>173</v>
       </c>
       <c r="F84" s="1">
-        <v>35000.0</v>
+        <v>35000</v>
       </c>
       <c r="G84" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H84" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="85" ht="12.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="12.75" customHeight="1">
       <c r="A85" s="3" t="s">
         <v>174</v>
       </c>
       <c r="B85" s="1">
-        <v>83.0</v>
+        <v>83</v>
       </c>
       <c r="C85" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D85" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="E85" s="4" t="s">
         <v>175</v>
       </c>
       <c r="F85" s="1">
-        <v>35000.0</v>
+        <v>35000</v>
       </c>
       <c r="G85" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H85" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="86" ht="12.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="12.75" customHeight="1">
       <c r="A86" s="3" t="s">
         <v>176</v>
       </c>
       <c r="B86" s="1">
-        <v>84.0</v>
+        <v>84</v>
       </c>
       <c r="C86" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D86" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="E86" s="4" t="s">
         <v>177</v>
       </c>
       <c r="F86" s="1">
-        <v>35000.0</v>
+        <v>35000</v>
       </c>
       <c r="G86" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H86" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="87" ht="12.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="12.75" customHeight="1">
       <c r="A87" s="3" t="s">
         <v>178</v>
       </c>
       <c r="B87" s="1">
-        <v>85.0</v>
+        <v>85</v>
       </c>
       <c r="C87" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D87" s="1">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>179</v>
       </c>
       <c r="F87" s="1">
-        <v>150000.0</v>
+        <v>150000</v>
       </c>
       <c r="G87" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H87" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="88" ht="12.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="12.75" customHeight="1">
       <c r="A88" s="3" t="s">
         <v>180</v>
       </c>
       <c r="B88" s="1">
-        <v>86.0</v>
+        <v>86</v>
       </c>
       <c r="C88" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D88" s="1">
-        <v>420.0</v>
+        <v>420</v>
       </c>
       <c r="E88" s="4" t="s">
         <v>181</v>
       </c>
       <c r="F88" s="1">
-        <v>90000.0</v>
+        <v>90000</v>
       </c>
       <c r="G88" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H88" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="89" ht="12.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="12.75" customHeight="1">
       <c r="A89" s="3" t="s">
         <v>182</v>
       </c>
       <c r="B89" s="1">
-        <v>87.0</v>
+        <v>87</v>
       </c>
       <c r="C89" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D89" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="E89" s="4" t="s">
         <v>183</v>
       </c>
       <c r="F89" s="1">
-        <v>90000.0</v>
+        <v>90000</v>
       </c>
       <c r="G89" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H89" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="90" ht="12.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="12.75" customHeight="1">
       <c r="A90" s="3" t="s">
         <v>184</v>
       </c>
       <c r="B90" s="1">
-        <v>88.0</v>
+        <v>88</v>
       </c>
       <c r="C90" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D90" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="E90" s="4" t="s">
         <v>185</v>
       </c>
       <c r="F90" s="1">
-        <v>90000.0</v>
+        <v>90000</v>
       </c>
       <c r="G90" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H90" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="91" ht="12.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="12.75" customHeight="1">
       <c r="A91" s="3" t="s">
         <v>186</v>
       </c>
       <c r="B91" s="1">
-        <v>89.0</v>
+        <v>89</v>
       </c>
       <c r="C91" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D91" s="1">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="E91" s="4" t="s">
         <v>187</v>
       </c>
       <c r="F91" s="1">
-        <v>90000.0</v>
+        <v>90000</v>
       </c>
       <c r="G91" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H91" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="92" ht="12.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="12.75" customHeight="1">
       <c r="A92" s="6" t="s">
         <v>188</v>
       </c>
       <c r="B92" s="6">
-        <v>90.0</v>
+        <v>90</v>
       </c>
       <c r="C92" s="6">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D92" s="6">
-        <v>10.0</v>
+        <v>30</v>
       </c>
       <c r="E92" s="6" t="s">
         <v>189</v>
       </c>
       <c r="F92" s="6">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="G92" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H92" s="6">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="93" ht="12.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="12.75" customHeight="1">
       <c r="A93" s="6" t="s">
         <v>190</v>
       </c>
       <c r="B93" s="6">
-        <v>91.0</v>
+        <v>91</v>
       </c>
       <c r="C93" s="6">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D93" s="6">
-        <v>30.0</v>
+        <v>50</v>
       </c>
       <c r="E93" s="6" t="s">
         <v>191</v>
       </c>
       <c r="F93" s="6">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="G93" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H93" s="6">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="94" ht="12.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="12.75" customHeight="1">
       <c r="A94" s="6" t="s">
         <v>192</v>
       </c>
       <c r="B94" s="6">
-        <v>92.0</v>
+        <v>92</v>
       </c>
       <c r="C94" s="6">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D94" s="6">
-        <v>50.0</v>
+        <v>10</v>
       </c>
       <c r="E94" s="6" t="s">
         <v>193</v>
       </c>
       <c r="F94" s="6">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G94" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H94" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" ht="12.75" customHeight="1"/>
@@ -4597,14 +4751,12 @@
     <row r="999" ht="12.75" customHeight="1"/>
     <row r="1000" ht="12.75" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="$A$1:$H$1">
+  <autoFilter ref="A1:H1">
     <sortState ref="A1:H1">
-      <sortCondition ref="B1"/>
+      <sortCondition sortBy="value" ref="B1"/>
     </sortState>
   </autoFilter>
-  <printOptions/>
-  <pageMargins bottom="1.0" footer="0.0" header="0.0" left="0.75" right="0.75" top="1.0"/>
-  <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
+  <pageSetup orientation="landscape" paperSize="1"/>
 </worksheet>
 </file>
--- a/TeamTextRPG/Data/Excel/Items.xlsx
+++ b/TeamTextRPG/Data/Excel/Items.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="198">
   <si>
     <t>Name</t>
   </si>
@@ -597,16 +597,34 @@
   </si>
   <si>
     <t>공격력을 10 추가합니다.</t>
+  </si>
+  <si>
+    <t>돈 주머니</t>
+  </si>
+  <si>
+    <t>열어보기 전까지는 아무것도 모릅니다...</t>
+  </si>
+  <si>
+    <t>수상한 스크롤</t>
+  </si>
+  <si>
+    <t>레벨이 1 증가합니다.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -653,8 +671,16 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1040,9 +1066,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{d1602fa2-b573-4915-9957-f09308629db8}">
-  <dimension ref="A1:H94"/>
+  <dimension ref="A1:H96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1">
+      <selection pane="topLeft" activeCell="D94" sqref="D94"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -3473,29 +3501,81 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="12.75">
-      <c r="A94" t="s">
+    <row r="94" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A94" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="B94">
+      <c r="B94" s="2">
         <v>92</v>
       </c>
-      <c r="C94">
+      <c r="C94" s="2">
         <v>5</v>
       </c>
-      <c r="D94">
+      <c r="D94" s="2">
         <v>10</v>
       </c>
-      <c r="E94" t="s">
+      <c r="E94" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="F94">
+      <c r="F94" s="2">
         <v>3</v>
       </c>
-      <c r="G94">
-        <v>0</v>
-      </c>
-      <c r="H94">
+      <c r="G94" s="2">
+        <v>0</v>
+      </c>
+      <c r="H94" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="12.75">
+      <c r="A95" t="s">
+        <v>194</v>
+      </c>
+      <c r="B95">
+        <v>93</v>
+      </c>
+      <c r="C95">
+        <v>5</v>
+      </c>
+      <c r="D95">
+        <v>10</v>
+      </c>
+      <c r="E95" t="s">
+        <v>195</v>
+      </c>
+      <c r="F95">
+        <v>100</v>
+      </c>
+      <c r="G95">
+        <v>0</v>
+      </c>
+      <c r="H95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="12.75">
+      <c r="A96" t="s">
+        <v>196</v>
+      </c>
+      <c r="B96">
+        <v>94</v>
+      </c>
+      <c r="C96">
+        <v>5</v>
+      </c>
+      <c r="D96">
+        <v>10</v>
+      </c>
+      <c r="E96" t="s">
+        <v>197</v>
+      </c>
+      <c r="F96">
+        <v>100</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
         <v>0</v>
       </c>
     </row>

--- a/TeamTextRPG/Data/Excel/Items.xlsx
+++ b/TeamTextRPG/Data/Excel/Items.xlsx
@@ -1,21 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26626"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\js022\바탕 화면\WorkSpace\TeamTextRPG\TeamTextRPG\Data\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DA2C7CE-7D8D-47DE-B0E4-5ACC5B8A0BA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr fullCalcOnLoad="1"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$1</definedName>
+  </definedNames>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="200">
   <si>
     <t>Name</t>
   </si>
@@ -581,34 +589,427 @@
     <t>대장장이 장인이 빚어낸 부츠입니다.</t>
   </si>
   <si>
-    <t>체력 회복 물약</t>
-  </si>
-  <si>
-    <t>체력을 30 회복시켜줍니다</t>
-  </si>
-  <si>
-    <t>마력 회복 물약</t>
-  </si>
-  <si>
-    <t>마력을 50 회복시켜줍니다</t>
-  </si>
-  <si>
-    <t>스테로이드</t>
-  </si>
-  <si>
-    <t>공격력을 10 추가합니다.</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>체력을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 50 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>회복시켜줍니다</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>마력을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 40 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>회복시켜줍니다</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>체력</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>물약(소)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>마력</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>물약(소)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>체력을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 200 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>회복시켜줍니다</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>마력을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 80 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>회복시켜줍니다</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>체력을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 400 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>회복시켜줍니다</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>마력을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 160 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>회복시켜줍니다</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>체력</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>물약(중)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>마력</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>물약(중)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>체력</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>물약(대)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>마력</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>물약(대)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="2">
@@ -628,110 +1029,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="15" builtinId="5"/>
-    <cellStyle name="Currency" xfId="16" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="17" builtinId="7"/>
-    <cellStyle name="Comma" xfId="18" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="19" builtinId="6"/>
+  <cellStyles count="1">
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1039,23 +1348,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{d1602fa2-b573-4915-9957-f09308629db8}">
-  <dimension ref="A1:H94"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1602FA2-B573-4915-9957-F09308629DB8}">
+  <dimension ref="A1:H97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="19.142857142857142" customWidth="1"/>
-    <col min="2" max="2" width="3.2857142857142856" customWidth="1"/>
-    <col min="3" max="4" width="4.714285714285714" customWidth="1"/>
-    <col min="5" max="5" width="44.857142857142854" customWidth="1"/>
-    <col min="6" max="6" width="7.285714285714286" customWidth="1"/>
-    <col min="7" max="7" width="5.428571428571429" customWidth="1"/>
-    <col min="8" max="8" width="10" customWidth="1"/>
+    <col min="1" max="1" width="19.140625" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
+    <col min="5" max="5" width="44.85546875" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" customWidth="1"/>
+    <col min="8" max="8" width="31.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="12.75">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1081,7 +1393,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="12.75">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1107,7 +1419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="12.75">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -1118,7 +1430,7 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
         <v>11</v>
@@ -1133,7 +1445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="12.75">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -1144,7 +1456,7 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
@@ -1159,7 +1471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="12.75">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -1170,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E5" t="s">
         <v>15</v>
@@ -1185,7 +1497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="12.75">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -1211,7 +1523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="12.75">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -1237,7 +1549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="12.75">
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -1248,7 +1560,7 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E8" t="s">
         <v>21</v>
@@ -1263,7 +1575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="12.75">
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -1274,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E9" t="s">
         <v>23</v>
@@ -1289,7 +1601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="12.75">
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -1300,7 +1612,7 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E10" t="s">
         <v>25</v>
@@ -1315,7 +1627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="12.75">
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -1326,7 +1638,7 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="E11" t="s">
         <v>27</v>
@@ -1341,7 +1653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="12.75">
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -1367,7 +1679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="12.75">
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>30</v>
       </c>
@@ -1393,7 +1705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="12.75">
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -1404,7 +1716,7 @@
         <v>1</v>
       </c>
       <c r="D14">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="E14" t="s">
         <v>33</v>
@@ -1419,7 +1731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="12.75">
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>34</v>
       </c>
@@ -1430,7 +1742,7 @@
         <v>1</v>
       </c>
       <c r="D15">
-        <v>170</v>
+        <v>250</v>
       </c>
       <c r="E15" t="s">
         <v>35</v>
@@ -1445,7 +1757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="12.75">
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>36</v>
       </c>
@@ -1456,7 +1768,7 @@
         <v>1</v>
       </c>
       <c r="D16">
-        <v>220</v>
+        <v>350</v>
       </c>
       <c r="E16" t="s">
         <v>37</v>
@@ -1471,7 +1783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="12.75">
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
         <v>38</v>
       </c>
@@ -1482,7 +1794,7 @@
         <v>1</v>
       </c>
       <c r="D17">
-        <v>280</v>
+        <v>500</v>
       </c>
       <c r="E17" t="s">
         <v>39</v>
@@ -1497,7 +1809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="12.75">
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
         <v>40</v>
       </c>
@@ -1508,7 +1820,7 @@
         <v>1</v>
       </c>
       <c r="D18">
-        <v>340</v>
+        <v>700</v>
       </c>
       <c r="E18" t="s">
         <v>41</v>
@@ -1523,7 +1835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="12.75">
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
         <v>42</v>
       </c>
@@ -1534,7 +1846,7 @@
         <v>1</v>
       </c>
       <c r="D19">
-        <v>420</v>
+        <v>950</v>
       </c>
       <c r="E19" t="s">
         <v>43</v>
@@ -1549,7 +1861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="12.75">
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
         <v>44</v>
       </c>
@@ -1560,7 +1872,7 @@
         <v>1</v>
       </c>
       <c r="D20">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="E20" t="s">
         <v>45</v>
@@ -1575,7 +1887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="12.75">
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
         <v>46</v>
       </c>
@@ -1586,7 +1898,7 @@
         <v>1</v>
       </c>
       <c r="D21">
-        <v>600</v>
+        <v>1500</v>
       </c>
       <c r="E21" t="s">
         <v>47</v>
@@ -1601,7 +1913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="12.75">
+    <row r="22" spans="1:8">
       <c r="A22" t="s">
         <v>48</v>
       </c>
@@ -1612,7 +1924,7 @@
         <v>2</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E22" t="s">
         <v>49</v>
@@ -1627,7 +1939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="12.75">
+    <row r="23" spans="1:8">
       <c r="A23" t="s">
         <v>50</v>
       </c>
@@ -1638,7 +1950,7 @@
         <v>2</v>
       </c>
       <c r="D23">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
         <v>51</v>
@@ -1653,7 +1965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="12.75">
+    <row r="24" spans="1:8">
       <c r="A24" t="s">
         <v>52</v>
       </c>
@@ -1664,7 +1976,7 @@
         <v>2</v>
       </c>
       <c r="D24">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="E24" t="s">
         <v>53</v>
@@ -1679,7 +1991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="12.75">
+    <row r="25" spans="1:8">
       <c r="A25" t="s">
         <v>54</v>
       </c>
@@ -1690,7 +2002,7 @@
         <v>2</v>
       </c>
       <c r="D25">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="E25" t="s">
         <v>55</v>
@@ -1705,7 +2017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="12.75">
+    <row r="26" spans="1:8">
       <c r="A26" t="s">
         <v>56</v>
       </c>
@@ -1716,7 +2028,7 @@
         <v>2</v>
       </c>
       <c r="D26">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="E26" t="s">
         <v>57</v>
@@ -1731,7 +2043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="12.75">
+    <row r="27" spans="1:8">
       <c r="A27" t="s">
         <v>58</v>
       </c>
@@ -1742,7 +2054,7 @@
         <v>2</v>
       </c>
       <c r="D27">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="E27" t="s">
         <v>59</v>
@@ -1757,7 +2069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="12.75">
+    <row r="28" spans="1:8">
       <c r="A28" t="s">
         <v>60</v>
       </c>
@@ -1768,7 +2080,7 @@
         <v>2</v>
       </c>
       <c r="D28">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="E28" t="s">
         <v>61</v>
@@ -1783,7 +2095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="12.75">
+    <row r="29" spans="1:8">
       <c r="A29" t="s">
         <v>62</v>
       </c>
@@ -1794,7 +2106,7 @@
         <v>2</v>
       </c>
       <c r="D29">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="E29" t="s">
         <v>63</v>
@@ -1809,7 +2121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="12.75">
+    <row r="30" spans="1:8">
       <c r="A30" t="s">
         <v>64</v>
       </c>
@@ -1820,7 +2132,7 @@
         <v>2</v>
       </c>
       <c r="D30">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="E30" t="s">
         <v>65</v>
@@ -1835,7 +2147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="12.75">
+    <row r="31" spans="1:8">
       <c r="A31" t="s">
         <v>66</v>
       </c>
@@ -1846,7 +2158,7 @@
         <v>2</v>
       </c>
       <c r="D31">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="E31" t="s">
         <v>67</v>
@@ -1861,7 +2173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="12.75">
+    <row r="32" spans="1:8">
       <c r="A32" t="s">
         <v>68</v>
       </c>
@@ -1872,7 +2184,7 @@
         <v>3</v>
       </c>
       <c r="D32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E32" t="s">
         <v>69</v>
@@ -1887,7 +2199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="12.75">
+    <row r="33" spans="1:8">
       <c r="A33" t="s">
         <v>70</v>
       </c>
@@ -1898,7 +2210,7 @@
         <v>3</v>
       </c>
       <c r="D33">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E33" t="s">
         <v>71</v>
@@ -1913,7 +2225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="12.75">
+    <row r="34" spans="1:8">
       <c r="A34" t="s">
         <v>72</v>
       </c>
@@ -1924,7 +2236,7 @@
         <v>3</v>
       </c>
       <c r="D34">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E34" t="s">
         <v>73</v>
@@ -1939,7 +2251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="12.75">
+    <row r="35" spans="1:8">
       <c r="A35" t="s">
         <v>74</v>
       </c>
@@ -1950,7 +2262,7 @@
         <v>3</v>
       </c>
       <c r="D35">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E35" t="s">
         <v>75</v>
@@ -1965,7 +2277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="12.75">
+    <row r="36" spans="1:8">
       <c r="A36" t="s">
         <v>76</v>
       </c>
@@ -1976,7 +2288,7 @@
         <v>3</v>
       </c>
       <c r="D36">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
         <v>77</v>
@@ -1991,7 +2303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="12.75">
+    <row r="37" spans="1:8">
       <c r="A37" t="s">
         <v>78</v>
       </c>
@@ -2002,7 +2314,7 @@
         <v>3</v>
       </c>
       <c r="D37">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E37" t="s">
         <v>79</v>
@@ -2017,7 +2329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="12.75">
+    <row r="38" spans="1:8">
       <c r="A38" t="s">
         <v>80</v>
       </c>
@@ -2028,7 +2340,7 @@
         <v>3</v>
       </c>
       <c r="D38">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E38" t="s">
         <v>81</v>
@@ -2043,7 +2355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="12.75">
+    <row r="39" spans="1:8">
       <c r="A39" t="s">
         <v>82</v>
       </c>
@@ -2054,7 +2366,7 @@
         <v>3</v>
       </c>
       <c r="D39">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E39" t="s">
         <v>83</v>
@@ -2069,7 +2381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="12.75">
+    <row r="40" spans="1:8">
       <c r="A40" t="s">
         <v>84</v>
       </c>
@@ -2080,7 +2392,7 @@
         <v>3</v>
       </c>
       <c r="D40">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E40" t="s">
         <v>85</v>
@@ -2095,7 +2407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="12.75">
+    <row r="41" spans="1:8">
       <c r="A41" t="s">
         <v>86</v>
       </c>
@@ -2106,7 +2418,7 @@
         <v>3</v>
       </c>
       <c r="D41">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E41" t="s">
         <v>87</v>
@@ -2121,7 +2433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="12.75">
+    <row r="42" spans="1:8">
       <c r="A42" t="s">
         <v>88</v>
       </c>
@@ -2147,7 +2459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="12.75">
+    <row r="43" spans="1:8">
       <c r="A43" t="s">
         <v>90</v>
       </c>
@@ -2173,7 +2485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="12.75">
+    <row r="44" spans="1:8">
       <c r="A44" t="s">
         <v>92</v>
       </c>
@@ -2199,7 +2511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="12.75">
+    <row r="45" spans="1:8">
       <c r="A45" t="s">
         <v>94</v>
       </c>
@@ -2225,7 +2537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="12.75">
+    <row r="46" spans="1:8">
       <c r="A46" t="s">
         <v>96</v>
       </c>
@@ -2251,7 +2563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="12.75">
+    <row r="47" spans="1:8">
       <c r="A47" t="s">
         <v>98</v>
       </c>
@@ -2277,7 +2589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="12.75">
+    <row r="48" spans="1:8">
       <c r="A48" t="s">
         <v>100</v>
       </c>
@@ -2303,7 +2615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="12.75">
+    <row r="49" spans="1:8">
       <c r="A49" t="s">
         <v>102</v>
       </c>
@@ -2329,7 +2641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="12.75">
+    <row r="50" spans="1:8">
       <c r="A50" t="s">
         <v>104</v>
       </c>
@@ -2355,7 +2667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="12.75">
+    <row r="51" spans="1:8">
       <c r="A51" t="s">
         <v>106</v>
       </c>
@@ -2381,7 +2693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="12.75">
+    <row r="52" spans="1:8">
       <c r="A52" t="s">
         <v>108</v>
       </c>
@@ -2392,7 +2704,7 @@
         <v>1</v>
       </c>
       <c r="D52">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="E52" t="s">
         <v>109</v>
@@ -2407,7 +2719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="12.75">
+    <row r="53" spans="1:8">
       <c r="A53" t="s">
         <v>110</v>
       </c>
@@ -2418,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="D53">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E53" t="s">
         <v>111</v>
@@ -2433,7 +2745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="12.75">
+    <row r="54" spans="1:8">
       <c r="A54" t="s">
         <v>112</v>
       </c>
@@ -2444,7 +2756,7 @@
         <v>2</v>
       </c>
       <c r="D54">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E54" t="s">
         <v>113</v>
@@ -2459,7 +2771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="12.75">
+    <row r="55" spans="1:8">
       <c r="A55" t="s">
         <v>114</v>
       </c>
@@ -2485,7 +2797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="12.75">
+    <row r="56" spans="1:8">
       <c r="A56" t="s">
         <v>116</v>
       </c>
@@ -2496,7 +2808,7 @@
         <v>0</v>
       </c>
       <c r="D56">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E56" t="s">
         <v>117</v>
@@ -2511,7 +2823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="12.75">
+    <row r="57" spans="1:8">
       <c r="A57" t="s">
         <v>118</v>
       </c>
@@ -2537,7 +2849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="12.75">
+    <row r="58" spans="1:8">
       <c r="A58" t="s">
         <v>120</v>
       </c>
@@ -2548,7 +2860,7 @@
         <v>3</v>
       </c>
       <c r="D58">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E58" t="s">
         <v>121</v>
@@ -2563,7 +2875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="12.75">
+    <row r="59" spans="1:8">
       <c r="A59" t="s">
         <v>122</v>
       </c>
@@ -2574,7 +2886,7 @@
         <v>2</v>
       </c>
       <c r="D59">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="E59" t="s">
         <v>123</v>
@@ -2589,7 +2901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="12.75">
+    <row r="60" spans="1:8">
       <c r="A60" t="s">
         <v>124</v>
       </c>
@@ -2600,7 +2912,7 @@
         <v>1</v>
       </c>
       <c r="D60">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="E60" t="s">
         <v>125</v>
@@ -2615,7 +2927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="12.75">
+    <row r="61" spans="1:8">
       <c r="A61" t="s">
         <v>126</v>
       </c>
@@ -2641,7 +2953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="12.75">
+    <row r="62" spans="1:8">
       <c r="A62" t="s">
         <v>128</v>
       </c>
@@ -2652,7 +2964,7 @@
         <v>3</v>
       </c>
       <c r="D62">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E62" t="s">
         <v>129</v>
@@ -2667,7 +2979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="12.75">
+    <row r="63" spans="1:8">
       <c r="A63" t="s">
         <v>130</v>
       </c>
@@ -2678,7 +2990,7 @@
         <v>2</v>
       </c>
       <c r="D63">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="E63" t="s">
         <v>131</v>
@@ -2693,7 +3005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="12.75">
+    <row r="64" spans="1:8">
       <c r="A64" t="s">
         <v>132</v>
       </c>
@@ -2719,7 +3031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="12.75">
+    <row r="65" spans="1:8">
       <c r="A65" t="s">
         <v>134</v>
       </c>
@@ -2730,7 +3042,7 @@
         <v>0</v>
       </c>
       <c r="D65">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E65" t="s">
         <v>135</v>
@@ -2745,7 +3057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="12.75">
+    <row r="66" spans="1:8">
       <c r="A66" t="s">
         <v>136</v>
       </c>
@@ -2756,7 +3068,7 @@
         <v>1</v>
       </c>
       <c r="D66">
-        <v>310</v>
+        <v>600</v>
       </c>
       <c r="E66" t="s">
         <v>137</v>
@@ -2771,7 +3083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="12.75">
+    <row r="67" spans="1:8">
       <c r="A67" t="s">
         <v>138</v>
       </c>
@@ -2782,7 +3094,7 @@
         <v>3</v>
       </c>
       <c r="D67">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E67" t="s">
         <v>139</v>
@@ -2797,7 +3109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="12.75">
+    <row r="68" spans="1:8">
       <c r="A68" t="s">
         <v>140</v>
       </c>
@@ -2808,7 +3120,7 @@
         <v>1</v>
       </c>
       <c r="D68">
-        <v>370</v>
+        <v>830</v>
       </c>
       <c r="E68" t="s">
         <v>141</v>
@@ -2823,7 +3135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="12.75">
+    <row r="69" spans="1:8">
       <c r="A69" t="s">
         <v>142</v>
       </c>
@@ -2834,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="D69">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E69" t="s">
         <v>143</v>
@@ -2849,7 +3161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="12.75">
+    <row r="70" spans="1:8">
       <c r="A70" t="s">
         <v>144</v>
       </c>
@@ -2860,7 +3172,7 @@
         <v>2</v>
       </c>
       <c r="D70">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="E70" t="s">
         <v>145</v>
@@ -2875,7 +3187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="12.75">
+    <row r="71" spans="1:8">
       <c r="A71" t="s">
         <v>146</v>
       </c>
@@ -2901,7 +3213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="12.75">
+    <row r="72" spans="1:8">
       <c r="A72" t="s">
         <v>148</v>
       </c>
@@ -2912,7 +3224,7 @@
         <v>0</v>
       </c>
       <c r="D72">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
         <v>149</v>
@@ -2927,7 +3239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="12.75">
+    <row r="73" spans="1:8">
       <c r="A73" t="s">
         <v>150</v>
       </c>
@@ -2953,7 +3265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="12.75">
+    <row r="74" spans="1:8">
       <c r="A74" t="s">
         <v>152</v>
       </c>
@@ -2964,7 +3276,7 @@
         <v>2</v>
       </c>
       <c r="D74">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
         <v>153</v>
@@ -2979,7 +3291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="12.75">
+    <row r="75" spans="1:8">
       <c r="A75" t="s">
         <v>154</v>
       </c>
@@ -2990,7 +3302,7 @@
         <v>3</v>
       </c>
       <c r="D75">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E75" t="s">
         <v>155</v>
@@ -3005,7 +3317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="12.75">
+    <row r="76" spans="1:8">
       <c r="A76" t="s">
         <v>156</v>
       </c>
@@ -3031,7 +3343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="12.75">
+    <row r="77" spans="1:8">
       <c r="A77" t="s">
         <v>158</v>
       </c>
@@ -3042,7 +3354,7 @@
         <v>0</v>
       </c>
       <c r="D77">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E77" t="s">
         <v>159</v>
@@ -3057,7 +3369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="12.75">
+    <row r="78" spans="1:8">
       <c r="A78" t="s">
         <v>160</v>
       </c>
@@ -3068,7 +3380,7 @@
         <v>1</v>
       </c>
       <c r="D78">
-        <v>170</v>
+        <v>250</v>
       </c>
       <c r="E78" t="s">
         <v>161</v>
@@ -3083,7 +3395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="12.75">
+    <row r="79" spans="1:8">
       <c r="A79" t="s">
         <v>162</v>
       </c>
@@ -3094,7 +3406,7 @@
         <v>2</v>
       </c>
       <c r="D79">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="E79" t="s">
         <v>163</v>
@@ -3109,7 +3421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="12.75">
+    <row r="80" spans="1:8">
       <c r="A80" t="s">
         <v>164</v>
       </c>
@@ -3120,7 +3432,7 @@
         <v>3</v>
       </c>
       <c r="D80">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E80" t="s">
         <v>165</v>
@@ -3135,7 +3447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="12.75">
+    <row r="81" spans="1:8">
       <c r="A81" t="s">
         <v>166</v>
       </c>
@@ -3161,7 +3473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="12.75">
+    <row r="82" spans="1:8">
       <c r="A82" t="s">
         <v>168</v>
       </c>
@@ -3187,7 +3499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="12.75">
+    <row r="83" spans="1:8">
       <c r="A83" t="s">
         <v>170</v>
       </c>
@@ -3198,7 +3510,7 @@
         <v>1</v>
       </c>
       <c r="D83">
-        <v>280</v>
+        <v>500</v>
       </c>
       <c r="E83" t="s">
         <v>171</v>
@@ -3213,7 +3525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="12.75">
+    <row r="84" spans="1:8">
       <c r="A84" t="s">
         <v>172</v>
       </c>
@@ -3224,7 +3536,7 @@
         <v>2</v>
       </c>
       <c r="D84">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="E84" t="s">
         <v>173</v>
@@ -3239,7 +3551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="12.75">
+    <row r="85" spans="1:8">
       <c r="A85" t="s">
         <v>174</v>
       </c>
@@ -3250,7 +3562,7 @@
         <v>3</v>
       </c>
       <c r="D85">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E85" t="s">
         <v>175</v>
@@ -3265,7 +3577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="12.75">
+    <row r="86" spans="1:8">
       <c r="A86" t="s">
         <v>176</v>
       </c>
@@ -3291,7 +3603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="12.75">
+    <row r="87" spans="1:8">
       <c r="A87" t="s">
         <v>178</v>
       </c>
@@ -3302,7 +3614,7 @@
         <v>0</v>
       </c>
       <c r="D87">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E87" t="s">
         <v>179</v>
@@ -3317,7 +3629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="12.75">
+    <row r="88" spans="1:8">
       <c r="A88" t="s">
         <v>180</v>
       </c>
@@ -3328,7 +3640,7 @@
         <v>1</v>
       </c>
       <c r="D88">
-        <v>420</v>
+        <v>950</v>
       </c>
       <c r="E88" t="s">
         <v>181</v>
@@ -3343,7 +3655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="12.75">
+    <row r="89" spans="1:8">
       <c r="A89" t="s">
         <v>182</v>
       </c>
@@ -3354,7 +3666,7 @@
         <v>2</v>
       </c>
       <c r="D89">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="E89" t="s">
         <v>183</v>
@@ -3369,7 +3681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="12.75">
+    <row r="90" spans="1:8">
       <c r="A90" t="s">
         <v>184</v>
       </c>
@@ -3380,7 +3692,7 @@
         <v>3</v>
       </c>
       <c r="D90">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E90" t="s">
         <v>185</v>
@@ -3395,7 +3707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="12.75">
+    <row r="91" spans="1:8">
       <c r="A91" t="s">
         <v>186</v>
       </c>
@@ -3421,9 +3733,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="12.75">
-      <c r="A92" t="s">
-        <v>188</v>
+    <row r="92" spans="1:8" ht="13.5">
+      <c r="A92" s="1" t="s">
+        <v>190</v>
       </c>
       <c r="B92">
         <v>90</v>
@@ -3432,13 +3744,13 @@
         <v>5</v>
       </c>
       <c r="D92">
-        <v>30</v>
-      </c>
-      <c r="E92" t="s">
-        <v>189</v>
+        <v>50</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>188</v>
       </c>
       <c r="F92">
-        <v>10</v>
+        <v>400</v>
       </c>
       <c r="G92">
         <v>0</v>
@@ -3447,9 +3759,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="12.75">
-      <c r="A93" t="s">
-        <v>190</v>
+    <row r="93" spans="1:8" ht="13.5">
+      <c r="A93" s="1" t="s">
+        <v>191</v>
       </c>
       <c r="B93">
         <v>91</v>
@@ -3458,13 +3770,13 @@
         <v>5</v>
       </c>
       <c r="D93">
-        <v>50</v>
-      </c>
-      <c r="E93" t="s">
-        <v>191</v>
+        <v>40</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>189</v>
       </c>
       <c r="F93">
-        <v>30</v>
+        <v>600</v>
       </c>
       <c r="G93">
         <v>0</v>
@@ -3473,9 +3785,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="12.75">
-      <c r="A94" t="s">
-        <v>192</v>
+    <row r="94" spans="1:8" ht="13.5">
+      <c r="A94" s="1" t="s">
+        <v>196</v>
       </c>
       <c r="B94">
         <v>92</v>
@@ -3484,22 +3796,98 @@
         <v>5</v>
       </c>
       <c r="D94">
-        <v>10</v>
-      </c>
-      <c r="E94" t="s">
+        <v>200</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="F94">
+        <v>1600</v>
+      </c>
+      <c r="G94">
+        <v>0</v>
+      </c>
+      <c r="H94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="13.5">
+      <c r="A95" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B95">
+        <v>93</v>
+      </c>
+      <c r="C95">
+        <v>5</v>
+      </c>
+      <c r="D95">
+        <v>80</v>
+      </c>
+      <c r="E95" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="F94">
-        <v>3</v>
-      </c>
-      <c r="G94">
-        <v>0</v>
-      </c>
-      <c r="H94">
+      <c r="F95">
+        <v>2400</v>
+      </c>
+      <c r="G95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="13.5">
+      <c r="A96" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B96">
+        <v>94</v>
+      </c>
+      <c r="C96">
+        <v>5</v>
+      </c>
+      <c r="D96">
+        <v>400</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F96">
+        <v>3200</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="13.5">
+      <c r="A97" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B97">
+        <v>95</v>
+      </c>
+      <c r="C97">
+        <v>5</v>
+      </c>
+      <c r="D97">
+        <v>160</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F97">
+        <v>4800</v>
+      </c>
+      <c r="G97">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H1" xr:uid="{D1602FA2-B573-4915-9957-F09308629DB8}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H97">
+      <sortCondition ref="B1"/>
+    </sortState>
+  </autoFilter>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/TeamTextRPG/Data/Excel/Items.xlsx
+++ b/TeamTextRPG/Data/Excel/Items.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="201">
   <si>
     <t>Name</t>
   </si>
@@ -584,29 +584,56 @@
     <t>체력 회복 물약</t>
   </si>
   <si>
-    <t>체력을 30 회복시켜줍니다</t>
-  </si>
-  <si>
-    <t>마력 회복 물약</t>
-  </si>
-  <si>
-    <t>마력을 50 회복시켜줍니다</t>
+    <t>체력을 50 회복시켜줍니다</t>
+  </si>
+  <si>
+    <t>마나 회복 물약</t>
+  </si>
+  <si>
+    <t>마나을 50 회복시켜줍니다</t>
   </si>
   <si>
     <t>스테로이드</t>
   </si>
   <si>
     <t>공격력을 10 추가합니다.</t>
+  </si>
+  <si>
+    <t>일시적으로 공격력이 5 증가합니다</t>
+  </si>
+  <si>
+    <t>철분제</t>
+  </si>
+  <si>
+    <t>일시적으로 방어력이 5 증가합니다</t>
+  </si>
+  <si>
+    <t>수류탄  </t>
+  </si>
+  <si>
+    <t>모든 적에게 100의 데미지를 줍니다.</t>
+  </si>
+  <si>
+    <t>연막탄</t>
+  </si>
+  <si>
+    <t>이번 전투에서 도망칩니다.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -653,8 +680,16 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1040,9 +1075,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{d1602fa2-b573-4915-9957-f09308629db8}">
-  <dimension ref="A1:H94"/>
+  <dimension ref="A1:H98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1">
+      <selection pane="topLeft" activeCell="A98" sqref="A98"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -3432,7 +3469,7 @@
         <v>5</v>
       </c>
       <c r="D92">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E92" t="s">
         <v>189</v>
@@ -3473,29 +3510,133 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="12.75">
-      <c r="A94" t="s">
+    <row r="94" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A94" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="B94">
+      <c r="B94" s="2">
         <v>92</v>
       </c>
-      <c r="C94">
+      <c r="C94" s="2">
         <v>5</v>
       </c>
-      <c r="D94">
+      <c r="D94" s="2">
+        <v>5</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F94" s="2">
+        <v>100</v>
+      </c>
+      <c r="G94" s="2">
+        <v>0</v>
+      </c>
+      <c r="H94" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="12.75">
+      <c r="A95" t="s">
+        <v>195</v>
+      </c>
+      <c r="B95">
+        <v>93</v>
+      </c>
+      <c r="C95">
+        <v>5</v>
+      </c>
+      <c r="D95">
+        <v>5</v>
+      </c>
+      <c r="E95" t="s">
+        <v>196</v>
+      </c>
+      <c r="F95">
+        <v>100</v>
+      </c>
+      <c r="G95">
+        <v>0</v>
+      </c>
+      <c r="H95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="12.75">
+      <c r="A96" t="s">
+        <v>197</v>
+      </c>
+      <c r="B96">
+        <v>94</v>
+      </c>
+      <c r="C96">
+        <v>5</v>
+      </c>
+      <c r="D96">
+        <v>100</v>
+      </c>
+      <c r="E96" t="s">
+        <v>198</v>
+      </c>
+      <c r="F96">
+        <v>30</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="12.75">
+      <c r="A97" t="s">
+        <v>199</v>
+      </c>
+      <c r="B97">
+        <v>95</v>
+      </c>
+      <c r="C97">
+        <v>5</v>
+      </c>
+      <c r="D97">
         <v>10</v>
       </c>
-      <c r="E94" t="s">
+      <c r="E97" t="s">
+        <v>200</v>
+      </c>
+      <c r="F97">
+        <v>100</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="12.75">
+      <c r="A98" t="s">
+        <v>192</v>
+      </c>
+      <c r="B98">
+        <v>96</v>
+      </c>
+      <c r="C98">
+        <v>5</v>
+      </c>
+      <c r="D98">
+        <v>10</v>
+      </c>
+      <c r="E98" t="s">
         <v>193</v>
       </c>
-      <c r="F94">
-        <v>3</v>
-      </c>
-      <c r="G94">
-        <v>0</v>
-      </c>
-      <c r="H94">
+      <c r="F98">
+        <v>30</v>
+      </c>
+      <c r="G98">
+        <v>0</v>
+      </c>
+      <c r="H98">
         <v>0</v>
       </c>
     </row>

--- a/TeamTextRPG/Data/Excel/Items.xlsx
+++ b/TeamTextRPG/Data/Excel/Items.xlsx
@@ -8,22 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\js022\바탕 화면\WorkSpace\TeamTextRPG\TeamTextRPG\Data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DA2C7CE-7D8D-47DE-B0E4-5ACC5B8A0BA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC61E4B6-CF32-4DD0-9DF8-8B33EE83709A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$1</definedName>
-  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="203">
   <si>
     <t>Name</t>
   </si>
@@ -34,6 +31,9 @@
     <t>Part</t>
   </si>
   <si>
+    <t>UsableItemType</t>
+  </si>
+  <si>
     <t>Stat</t>
   </si>
   <si>
@@ -46,9 +46,15 @@
     <t>Level</t>
   </si>
   <si>
+    <t>Stack</t>
+  </si>
+  <si>
     <t>BonusStat</t>
   </si>
   <si>
+    <t>IsEquipped</t>
+  </si>
+  <si>
     <t>목검</t>
   </si>
   <si>
@@ -589,395 +595,47 @@
     <t>대장장이 장인이 빚어낸 부츠입니다.</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>체력을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 50 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>회복시켜줍니다</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>마력을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 40 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>회복시켜줍니다</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>체력</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>물약(소)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>마력</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>물약(소)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>체력을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 200 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>회복시켜줍니다</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>마력을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 80 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>회복시켜줍니다</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>체력을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 400 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>회복시켜줍니다</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>마력을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 160 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>회복시켜줍니다</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>체력</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>물약(중)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>마력</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>물약(중)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>체력</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>물약(대)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>마력</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>물약(대)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>체력 물약(소)</t>
+  </si>
+  <si>
+    <t>체력을 50 회복시켜줍니다</t>
+  </si>
+  <si>
+    <t>마력 물약(소)</t>
+  </si>
+  <si>
+    <t>마력을 40 회복시켜줍니다</t>
+  </si>
+  <si>
+    <t>체력 물약(중)</t>
+  </si>
+  <si>
+    <t>체력을 200 회복시켜줍니다</t>
+  </si>
+  <si>
+    <t>마력 물약(중)</t>
+  </si>
+  <si>
+    <t>마력을 80 회복시켜줍니다</t>
+  </si>
+  <si>
+    <t>체력 물약(대)</t>
+  </si>
+  <si>
+    <t>체력을 400 회복시켜줍니다</t>
+  </si>
+  <si>
+    <t>마력 물약(대)</t>
+  </si>
+  <si>
+    <t>마력을 160 회복시켜줍니다</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -988,27 +646,6 @@
       <sz val="8"/>
       <name val="돋움"/>
       <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial Unicode MS"/>
-      <family val="2"/>
       <charset val="129"/>
     </font>
   </fonts>
@@ -1032,9 +669,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1348,26 +984,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1602FA2-B573-4915-9957-F09308629DB8}">
-  <dimension ref="A1:H97"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A12FD699-AB75-45C9-A7EB-32F3C83EE638}">
+  <dimension ref="A1:K97"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D98" sqref="D98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.140625" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" customWidth="1"/>
-    <col min="5" max="5" width="44.85546875" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" customWidth="1"/>
-    <col min="8" max="8" width="31.85546875" customWidth="1"/>
+    <col min="2" max="2" width="3.28515625" customWidth="1"/>
+    <col min="3" max="3" width="4.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" customWidth="1"/>
+    <col min="5" max="5" width="5.28515625" customWidth="1"/>
+    <col min="6" max="6" width="44.85546875" customWidth="1"/>
+    <col min="7" max="7" width="7.28515625" customWidth="1"/>
+    <col min="8" max="8" width="5.42578125" customWidth="1"/>
+    <col min="9" max="9" width="6.140625" customWidth="1"/>
+    <col min="10" max="10" width="10" customWidth="1"/>
+    <col min="11" max="11" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1392,10 +1031,19 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1403,25 +1051,31 @@
       <c r="C2">
         <v>0</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>5</v>
       </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2">
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2">
         <v>800</v>
       </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
       <c r="H2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -1429,25 +1083,31 @@
       <c r="C3">
         <v>0</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>11</v>
       </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3">
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3">
         <v>3000</v>
       </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
       <c r="H3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -1455,25 +1115,31 @@
       <c r="C4">
         <v>0</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>18</v>
       </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4">
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4">
         <v>8000</v>
       </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
       <c r="H4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -1481,25 +1147,31 @@
       <c r="C5">
         <v>0</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>26</v>
       </c>
-      <c r="E5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5">
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5">
         <v>20000</v>
       </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
       <c r="H5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B6">
         <v>4</v>
@@ -1507,25 +1179,31 @@
       <c r="C6">
         <v>0</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>35</v>
       </c>
-      <c r="E6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6">
+      <c r="F6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6">
         <v>38000</v>
       </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
       <c r="H6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B7">
         <v>5</v>
@@ -1533,25 +1211,31 @@
       <c r="C7">
         <v>0</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>45</v>
       </c>
-      <c r="E7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7">
+      <c r="F7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7">
         <v>55000</v>
       </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
       <c r="H7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B8">
         <v>6</v>
@@ -1559,25 +1243,31 @@
       <c r="C8">
         <v>0</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>55</v>
       </c>
-      <c r="E8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8">
+      <c r="F8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8">
         <v>90000</v>
       </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
       <c r="H8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B9">
         <v>7</v>
@@ -1585,25 +1275,31 @@
       <c r="C9">
         <v>0</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>70</v>
       </c>
-      <c r="E9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9">
+      <c r="F9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9">
         <v>150000</v>
       </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
       <c r="H9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B10">
         <v>8</v>
@@ -1611,25 +1307,31 @@
       <c r="C10">
         <v>0</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>85</v>
       </c>
-      <c r="E10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10">
+      <c r="F10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10">
         <v>240000</v>
       </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
       <c r="H10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B11">
         <v>9</v>
@@ -1637,25 +1339,31 @@
       <c r="C11">
         <v>0</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>100</v>
       </c>
-      <c r="E11" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11">
+      <c r="F11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11">
         <v>440000</v>
       </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
       <c r="H11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B12">
         <v>10</v>
@@ -1663,25 +1371,31 @@
       <c r="C12">
         <v>1</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>40</v>
       </c>
-      <c r="E12" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12">
+      <c r="F12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12">
         <v>500</v>
       </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
       <c r="H12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B13">
         <v>11</v>
@@ -1689,25 +1403,31 @@
       <c r="C13">
         <v>1</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>80</v>
       </c>
-      <c r="E13" t="s">
-        <v>31</v>
-      </c>
-      <c r="F13">
+      <c r="F13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13">
         <v>2000</v>
       </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
       <c r="H13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B14">
         <v>12</v>
@@ -1715,25 +1435,31 @@
       <c r="C14">
         <v>1</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>150</v>
       </c>
-      <c r="E14" t="s">
-        <v>33</v>
-      </c>
-      <c r="F14">
+      <c r="F14" t="s">
+        <v>36</v>
+      </c>
+      <c r="G14">
         <v>5000</v>
       </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
       <c r="H14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B15">
         <v>13</v>
@@ -1741,25 +1467,31 @@
       <c r="C15">
         <v>1</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>250</v>
       </c>
-      <c r="E15" t="s">
-        <v>35</v>
-      </c>
-      <c r="F15">
+      <c r="F15" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15">
         <v>13000</v>
       </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
       <c r="H15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B16">
         <v>14</v>
@@ -1767,25 +1499,31 @@
       <c r="C16">
         <v>1</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>350</v>
       </c>
-      <c r="E16" t="s">
-        <v>37</v>
-      </c>
-      <c r="F16">
+      <c r="F16" t="s">
+        <v>40</v>
+      </c>
+      <c r="G16">
         <v>22000</v>
       </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
       <c r="H16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B17">
         <v>15</v>
@@ -1793,25 +1531,31 @@
       <c r="C17">
         <v>1</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>500</v>
       </c>
-      <c r="E17" t="s">
-        <v>39</v>
-      </c>
-      <c r="F17">
+      <c r="F17" t="s">
+        <v>42</v>
+      </c>
+      <c r="G17">
         <v>35000</v>
       </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
       <c r="H17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B18">
         <v>16</v>
@@ -1819,25 +1563,31 @@
       <c r="C18">
         <v>1</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>700</v>
       </c>
-      <c r="E18" t="s">
-        <v>41</v>
-      </c>
-      <c r="F18">
+      <c r="F18" t="s">
+        <v>44</v>
+      </c>
+      <c r="G18">
         <v>55000</v>
       </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
       <c r="H18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B19">
         <v>17</v>
@@ -1845,25 +1595,31 @@
       <c r="C19">
         <v>1</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>950</v>
       </c>
-      <c r="E19" t="s">
-        <v>43</v>
-      </c>
-      <c r="F19">
+      <c r="F19" t="s">
+        <v>46</v>
+      </c>
+      <c r="G19">
         <v>90000</v>
       </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
       <c r="H19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B20">
         <v>18</v>
@@ -1871,25 +1627,31 @@
       <c r="C20">
         <v>1</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>1200</v>
       </c>
-      <c r="E20" t="s">
-        <v>45</v>
-      </c>
-      <c r="F20">
+      <c r="F20" t="s">
+        <v>48</v>
+      </c>
+      <c r="G20">
         <v>150000</v>
       </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
       <c r="H20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:8">
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B21">
         <v>19</v>
@@ -1897,25 +1659,31 @@
       <c r="C21">
         <v>1</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>1500</v>
       </c>
-      <c r="E21" t="s">
-        <v>47</v>
-      </c>
-      <c r="F21">
+      <c r="F21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G21">
         <v>270000</v>
       </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
       <c r="H21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:8">
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B22">
         <v>20</v>
@@ -1923,25 +1691,31 @@
       <c r="C22">
         <v>2</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>5</v>
       </c>
-      <c r="E22" t="s">
-        <v>49</v>
-      </c>
-      <c r="F22">
+      <c r="F22" t="s">
+        <v>52</v>
+      </c>
+      <c r="G22">
         <v>500</v>
       </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
       <c r="H22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:8">
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B23">
         <v>21</v>
@@ -1949,25 +1723,31 @@
       <c r="C23">
         <v>2</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>11</v>
       </c>
-      <c r="E23" t="s">
-        <v>51</v>
-      </c>
-      <c r="F23">
+      <c r="F23" t="s">
+        <v>54</v>
+      </c>
+      <c r="G23">
         <v>2000</v>
       </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
       <c r="H23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:8">
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B24">
         <v>22</v>
@@ -1975,25 +1755,31 @@
       <c r="C24">
         <v>2</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>18</v>
       </c>
-      <c r="E24" t="s">
-        <v>53</v>
-      </c>
-      <c r="F24">
+      <c r="F24" t="s">
+        <v>56</v>
+      </c>
+      <c r="G24">
         <v>5000</v>
       </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
       <c r="H24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:8">
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B25">
         <v>23</v>
@@ -2001,25 +1787,31 @@
       <c r="C25">
         <v>2</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>26</v>
       </c>
-      <c r="E25" t="s">
-        <v>55</v>
-      </c>
-      <c r="F25">
+      <c r="F25" t="s">
+        <v>58</v>
+      </c>
+      <c r="G25">
         <v>13000</v>
       </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
       <c r="H25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:8">
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B26">
         <v>24</v>
@@ -2027,25 +1819,31 @@
       <c r="C26">
         <v>2</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>35</v>
       </c>
-      <c r="E26" t="s">
-        <v>57</v>
-      </c>
-      <c r="F26">
+      <c r="F26" t="s">
+        <v>60</v>
+      </c>
+      <c r="G26">
         <v>22000</v>
       </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
       <c r="H26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:8">
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B27">
         <v>25</v>
@@ -2053,25 +1851,31 @@
       <c r="C27">
         <v>2</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>45</v>
       </c>
-      <c r="E27" t="s">
-        <v>59</v>
-      </c>
-      <c r="F27">
+      <c r="F27" t="s">
+        <v>62</v>
+      </c>
+      <c r="G27">
         <v>35000</v>
       </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
       <c r="H27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B28">
         <v>26</v>
@@ -2079,25 +1883,31 @@
       <c r="C28">
         <v>2</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>55</v>
       </c>
-      <c r="E28" t="s">
-        <v>61</v>
-      </c>
-      <c r="F28">
+      <c r="F28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G28">
         <v>55000</v>
       </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
       <c r="H28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:8">
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B29">
         <v>27</v>
@@ -2105,25 +1915,31 @@
       <c r="C29">
         <v>2</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>70</v>
       </c>
-      <c r="E29" t="s">
-        <v>63</v>
-      </c>
-      <c r="F29">
+      <c r="F29" t="s">
+        <v>66</v>
+      </c>
+      <c r="G29">
         <v>90000</v>
       </c>
-      <c r="G29">
-        <v>0</v>
-      </c>
       <c r="H29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:8">
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B30">
         <v>28</v>
@@ -2131,25 +1947,31 @@
       <c r="C30">
         <v>2</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>85</v>
       </c>
-      <c r="E30" t="s">
-        <v>65</v>
-      </c>
-      <c r="F30">
+      <c r="F30" t="s">
+        <v>68</v>
+      </c>
+      <c r="G30">
         <v>150000</v>
       </c>
-      <c r="G30">
-        <v>0</v>
-      </c>
       <c r="H30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:8">
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B31">
         <v>29</v>
@@ -2157,25 +1979,31 @@
       <c r="C31">
         <v>2</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>100</v>
       </c>
-      <c r="E31" t="s">
-        <v>67</v>
-      </c>
-      <c r="F31">
+      <c r="F31" t="s">
+        <v>70</v>
+      </c>
+      <c r="G31">
         <v>270000</v>
       </c>
-      <c r="G31">
-        <v>0</v>
-      </c>
       <c r="H31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:8">
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B32">
         <v>30</v>
@@ -2183,25 +2011,31 @@
       <c r="C32">
         <v>3</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>2</v>
       </c>
-      <c r="E32" t="s">
-        <v>69</v>
-      </c>
-      <c r="F32">
+      <c r="F32" t="s">
+        <v>72</v>
+      </c>
+      <c r="G32">
         <v>500</v>
       </c>
-      <c r="G32">
-        <v>0</v>
-      </c>
       <c r="H32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:8">
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B33">
         <v>31</v>
@@ -2209,25 +2043,31 @@
       <c r="C33">
         <v>3</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>4</v>
       </c>
-      <c r="E33" t="s">
-        <v>71</v>
-      </c>
-      <c r="F33">
+      <c r="F33" t="s">
+        <v>74</v>
+      </c>
+      <c r="G33">
         <v>2000</v>
       </c>
-      <c r="G33">
-        <v>0</v>
-      </c>
       <c r="H33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:8">
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B34">
         <v>32</v>
@@ -2235,25 +2075,31 @@
       <c r="C34">
         <v>3</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>6</v>
       </c>
-      <c r="E34" t="s">
-        <v>73</v>
-      </c>
-      <c r="F34">
+      <c r="F34" t="s">
+        <v>76</v>
+      </c>
+      <c r="G34">
         <v>5000</v>
       </c>
-      <c r="G34">
-        <v>0</v>
-      </c>
       <c r="H34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:8">
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B35">
         <v>33</v>
@@ -2261,25 +2107,31 @@
       <c r="C35">
         <v>3</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <v>8</v>
       </c>
-      <c r="E35" t="s">
-        <v>75</v>
-      </c>
-      <c r="F35">
+      <c r="F35" t="s">
+        <v>78</v>
+      </c>
+      <c r="G35">
         <v>13000</v>
       </c>
-      <c r="G35">
-        <v>0</v>
-      </c>
       <c r="H35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:8">
+      <c r="I35">
+        <v>1</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B36">
         <v>34</v>
@@ -2287,25 +2139,31 @@
       <c r="C36">
         <v>3</v>
       </c>
-      <c r="D36">
+      <c r="E36">
         <v>10</v>
       </c>
-      <c r="E36" t="s">
-        <v>77</v>
-      </c>
-      <c r="F36">
+      <c r="F36" t="s">
+        <v>80</v>
+      </c>
+      <c r="G36">
         <v>22000</v>
       </c>
-      <c r="G36">
-        <v>0</v>
-      </c>
       <c r="H36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:8">
+      <c r="I36">
+        <v>1</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B37">
         <v>35</v>
@@ -2313,25 +2171,31 @@
       <c r="C37">
         <v>3</v>
       </c>
-      <c r="D37">
+      <c r="E37">
         <v>12</v>
       </c>
-      <c r="E37" t="s">
-        <v>79</v>
-      </c>
-      <c r="F37">
+      <c r="F37" t="s">
+        <v>82</v>
+      </c>
+      <c r="G37">
         <v>35000</v>
       </c>
-      <c r="G37">
-        <v>0</v>
-      </c>
       <c r="H37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="I37">
+        <v>1</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B38">
         <v>36</v>
@@ -2339,25 +2203,31 @@
       <c r="C38">
         <v>3</v>
       </c>
-      <c r="D38">
+      <c r="E38">
         <v>14</v>
       </c>
-      <c r="E38" t="s">
-        <v>81</v>
-      </c>
-      <c r="F38">
+      <c r="F38" t="s">
+        <v>84</v>
+      </c>
+      <c r="G38">
         <v>55000</v>
       </c>
-      <c r="G38">
-        <v>0</v>
-      </c>
       <c r="H38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:8">
+      <c r="I38">
+        <v>1</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B39">
         <v>37</v>
@@ -2365,25 +2235,31 @@
       <c r="C39">
         <v>3</v>
       </c>
-      <c r="D39">
+      <c r="E39">
         <v>16</v>
       </c>
-      <c r="E39" t="s">
-        <v>83</v>
-      </c>
-      <c r="F39">
+      <c r="F39" t="s">
+        <v>86</v>
+      </c>
+      <c r="G39">
         <v>90000</v>
       </c>
-      <c r="G39">
-        <v>0</v>
-      </c>
       <c r="H39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:8">
+      <c r="I39">
+        <v>1</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B40">
         <v>38</v>
@@ -2391,25 +2267,31 @@
       <c r="C40">
         <v>3</v>
       </c>
-      <c r="D40">
+      <c r="E40">
         <v>18</v>
       </c>
-      <c r="E40" t="s">
-        <v>85</v>
-      </c>
-      <c r="F40">
+      <c r="F40" t="s">
+        <v>88</v>
+      </c>
+      <c r="G40">
         <v>150000</v>
       </c>
-      <c r="G40">
-        <v>0</v>
-      </c>
       <c r="H40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:8">
+      <c r="I40">
+        <v>1</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B41">
         <v>39</v>
@@ -2417,25 +2299,31 @@
       <c r="C41">
         <v>3</v>
       </c>
-      <c r="D41">
+      <c r="E41">
         <v>20</v>
       </c>
-      <c r="E41" t="s">
-        <v>87</v>
-      </c>
-      <c r="F41">
+      <c r="F41" t="s">
+        <v>90</v>
+      </c>
+      <c r="G41">
         <v>270000</v>
       </c>
-      <c r="G41">
-        <v>0</v>
-      </c>
       <c r="H41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:8">
+      <c r="I41">
+        <v>1</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B42">
         <v>40</v>
@@ -2443,25 +2331,31 @@
       <c r="C42">
         <v>4</v>
       </c>
-      <c r="D42">
+      <c r="E42">
         <v>2</v>
       </c>
-      <c r="E42" t="s">
-        <v>89</v>
-      </c>
-      <c r="F42">
+      <c r="F42" t="s">
+        <v>92</v>
+      </c>
+      <c r="G42">
         <v>500</v>
       </c>
-      <c r="G42">
-        <v>0</v>
-      </c>
       <c r="H42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:8">
+      <c r="I42">
+        <v>1</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B43">
         <v>41</v>
@@ -2469,25 +2363,31 @@
       <c r="C43">
         <v>4</v>
       </c>
-      <c r="D43">
+      <c r="E43">
         <v>4</v>
       </c>
-      <c r="E43" t="s">
-        <v>91</v>
-      </c>
-      <c r="F43">
+      <c r="F43" t="s">
+        <v>94</v>
+      </c>
+      <c r="G43">
         <v>2000</v>
       </c>
-      <c r="G43">
-        <v>0</v>
-      </c>
       <c r="H43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:8">
+      <c r="I43">
+        <v>1</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B44">
         <v>42</v>
@@ -2495,25 +2395,31 @@
       <c r="C44">
         <v>4</v>
       </c>
-      <c r="D44">
+      <c r="E44">
         <v>6</v>
       </c>
-      <c r="E44" t="s">
-        <v>93</v>
-      </c>
-      <c r="F44">
+      <c r="F44" t="s">
+        <v>96</v>
+      </c>
+      <c r="G44">
         <v>5000</v>
       </c>
-      <c r="G44">
-        <v>0</v>
-      </c>
       <c r="H44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:8">
+      <c r="I44">
+        <v>1</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B45">
         <v>43</v>
@@ -2521,25 +2427,31 @@
       <c r="C45">
         <v>4</v>
       </c>
-      <c r="D45">
+      <c r="E45">
         <v>8</v>
       </c>
-      <c r="E45" t="s">
-        <v>95</v>
-      </c>
-      <c r="F45">
+      <c r="F45" t="s">
+        <v>98</v>
+      </c>
+      <c r="G45">
         <v>13000</v>
       </c>
-      <c r="G45">
-        <v>0</v>
-      </c>
       <c r="H45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:8">
+      <c r="I45">
+        <v>1</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B46">
         <v>44</v>
@@ -2547,25 +2459,31 @@
       <c r="C46">
         <v>4</v>
       </c>
-      <c r="D46">
+      <c r="E46">
         <v>10</v>
       </c>
-      <c r="E46" t="s">
-        <v>97</v>
-      </c>
-      <c r="F46">
+      <c r="F46" t="s">
+        <v>100</v>
+      </c>
+      <c r="G46">
         <v>22000</v>
       </c>
-      <c r="G46">
-        <v>0</v>
-      </c>
       <c r="H46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:8">
+      <c r="I46">
+        <v>1</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B47">
         <v>45</v>
@@ -2573,25 +2491,31 @@
       <c r="C47">
         <v>4</v>
       </c>
-      <c r="D47">
+      <c r="E47">
         <v>12</v>
       </c>
-      <c r="E47" t="s">
-        <v>99</v>
-      </c>
-      <c r="F47">
+      <c r="F47" t="s">
+        <v>102</v>
+      </c>
+      <c r="G47">
         <v>35000</v>
       </c>
-      <c r="G47">
-        <v>0</v>
-      </c>
       <c r="H47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:8">
+      <c r="I47">
+        <v>1</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B48">
         <v>46</v>
@@ -2599,25 +2523,31 @@
       <c r="C48">
         <v>4</v>
       </c>
-      <c r="D48">
+      <c r="E48">
         <v>14</v>
       </c>
-      <c r="E48" t="s">
-        <v>101</v>
-      </c>
-      <c r="F48">
+      <c r="F48" t="s">
+        <v>104</v>
+      </c>
+      <c r="G48">
         <v>55000</v>
       </c>
-      <c r="G48">
-        <v>0</v>
-      </c>
       <c r="H48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:8">
+      <c r="I48">
+        <v>1</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B49">
         <v>47</v>
@@ -2625,25 +2555,31 @@
       <c r="C49">
         <v>4</v>
       </c>
-      <c r="D49">
+      <c r="E49">
         <v>16</v>
       </c>
-      <c r="E49" t="s">
-        <v>103</v>
-      </c>
-      <c r="F49">
+      <c r="F49" t="s">
+        <v>106</v>
+      </c>
+      <c r="G49">
         <v>90000</v>
       </c>
-      <c r="G49">
-        <v>0</v>
-      </c>
       <c r="H49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:8">
+      <c r="I49">
+        <v>1</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B50">
         <v>48</v>
@@ -2651,25 +2587,31 @@
       <c r="C50">
         <v>4</v>
       </c>
-      <c r="D50">
+      <c r="E50">
         <v>18</v>
       </c>
-      <c r="E50" t="s">
-        <v>105</v>
-      </c>
-      <c r="F50">
+      <c r="F50" t="s">
+        <v>108</v>
+      </c>
+      <c r="G50">
         <v>150000</v>
       </c>
-      <c r="G50">
-        <v>0</v>
-      </c>
       <c r="H50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:8">
+      <c r="I50">
+        <v>1</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B51">
         <v>49</v>
@@ -2677,25 +2619,31 @@
       <c r="C51">
         <v>4</v>
       </c>
-      <c r="D51">
+      <c r="E51">
         <v>20</v>
       </c>
-      <c r="E51" t="s">
-        <v>107</v>
-      </c>
-      <c r="F51">
+      <c r="F51" t="s">
+        <v>110</v>
+      </c>
+      <c r="G51">
         <v>270000</v>
       </c>
-      <c r="G51">
-        <v>0</v>
-      </c>
       <c r="H51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:8">
+      <c r="I51">
+        <v>1</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B52">
         <v>50</v>
@@ -2703,25 +2651,31 @@
       <c r="C52">
         <v>1</v>
       </c>
-      <c r="D52">
+      <c r="E52">
         <v>60</v>
       </c>
-      <c r="E52" t="s">
-        <v>109</v>
-      </c>
-      <c r="F52">
+      <c r="F52" t="s">
+        <v>112</v>
+      </c>
+      <c r="G52">
         <v>700</v>
       </c>
-      <c r="G52">
-        <v>0</v>
-      </c>
       <c r="H52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:8">
+      <c r="I52">
+        <v>1</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B53">
         <v>51</v>
@@ -2729,25 +2683,31 @@
       <c r="C53">
         <v>0</v>
       </c>
-      <c r="D53">
+      <c r="E53">
         <v>8</v>
       </c>
-      <c r="E53" t="s">
-        <v>111</v>
-      </c>
-      <c r="F53">
+      <c r="F53" t="s">
+        <v>114</v>
+      </c>
+      <c r="G53">
         <v>1500</v>
       </c>
-      <c r="G53">
-        <v>0</v>
-      </c>
       <c r="H53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:8">
+      <c r="I53">
+        <v>1</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B54">
         <v>52</v>
@@ -2755,25 +2715,31 @@
       <c r="C54">
         <v>2</v>
       </c>
-      <c r="D54">
+      <c r="E54">
         <v>8</v>
       </c>
-      <c r="E54" t="s">
-        <v>113</v>
-      </c>
-      <c r="F54">
+      <c r="F54" t="s">
+        <v>116</v>
+      </c>
+      <c r="G54">
         <v>1500</v>
       </c>
-      <c r="G54">
-        <v>0</v>
-      </c>
       <c r="H54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:8">
+      <c r="I54">
+        <v>1</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B55">
         <v>53</v>
@@ -2781,25 +2747,31 @@
       <c r="C55">
         <v>4</v>
       </c>
-      <c r="D55">
+      <c r="E55">
         <v>3</v>
       </c>
-      <c r="E55" t="s">
-        <v>115</v>
-      </c>
-      <c r="F55">
+      <c r="F55" t="s">
+        <v>118</v>
+      </c>
+      <c r="G55">
         <v>1000</v>
       </c>
-      <c r="G55">
-        <v>0</v>
-      </c>
       <c r="H55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:8">
+      <c r="I55">
+        <v>1</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B56">
         <v>54</v>
@@ -2807,25 +2779,31 @@
       <c r="C56">
         <v>0</v>
       </c>
-      <c r="D56">
+      <c r="E56">
         <v>15</v>
       </c>
-      <c r="E56" t="s">
-        <v>117</v>
-      </c>
-      <c r="F56">
+      <c r="F56" t="s">
+        <v>120</v>
+      </c>
+      <c r="G56">
         <v>5000</v>
       </c>
-      <c r="G56">
-        <v>0</v>
-      </c>
       <c r="H56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:8">
+      <c r="I56">
+        <v>1</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B57">
         <v>55</v>
@@ -2833,25 +2811,31 @@
       <c r="C57">
         <v>4</v>
       </c>
-      <c r="D57">
+      <c r="E57">
         <v>5</v>
       </c>
-      <c r="E57" t="s">
-        <v>119</v>
-      </c>
-      <c r="F57">
+      <c r="F57" t="s">
+        <v>122</v>
+      </c>
+      <c r="G57">
         <v>3500</v>
       </c>
-      <c r="G57">
-        <v>0</v>
-      </c>
       <c r="H57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:8">
+      <c r="I57">
+        <v>1</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B58">
         <v>56</v>
@@ -2859,25 +2843,31 @@
       <c r="C58">
         <v>3</v>
       </c>
-      <c r="D58">
+      <c r="E58">
         <v>5</v>
       </c>
-      <c r="E58" t="s">
-        <v>121</v>
-      </c>
-      <c r="F58">
+      <c r="F58" t="s">
+        <v>124</v>
+      </c>
+      <c r="G58">
         <v>3500</v>
       </c>
-      <c r="G58">
-        <v>0</v>
-      </c>
       <c r="H58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:8">
+      <c r="I58">
+        <v>1</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B59">
         <v>57</v>
@@ -2885,25 +2875,31 @@
       <c r="C59">
         <v>2</v>
       </c>
-      <c r="D59">
+      <c r="E59">
         <v>22</v>
       </c>
-      <c r="E59" t="s">
-        <v>123</v>
-      </c>
-      <c r="F59">
+      <c r="F59" t="s">
+        <v>126</v>
+      </c>
+      <c r="G59">
         <v>9000</v>
       </c>
-      <c r="G59">
-        <v>0</v>
-      </c>
       <c r="H59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:8">
+      <c r="I59">
+        <v>1</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B60">
         <v>58</v>
@@ -2911,25 +2907,31 @@
       <c r="C60">
         <v>1</v>
       </c>
-      <c r="D60">
+      <c r="E60">
         <v>200</v>
       </c>
-      <c r="E60" t="s">
-        <v>125</v>
-      </c>
-      <c r="F60">
+      <c r="F60" t="s">
+        <v>128</v>
+      </c>
+      <c r="G60">
         <v>9000</v>
       </c>
-      <c r="G60">
-        <v>0</v>
-      </c>
       <c r="H60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:8">
+      <c r="I60">
+        <v>1</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B61">
         <v>59</v>
@@ -2937,25 +2939,31 @@
       <c r="C61">
         <v>0</v>
       </c>
-      <c r="D61">
+      <c r="E61">
         <v>30</v>
       </c>
-      <c r="E61" t="s">
-        <v>127</v>
-      </c>
-      <c r="F61">
+      <c r="F61" t="s">
+        <v>130</v>
+      </c>
+      <c r="G61">
         <v>30000</v>
       </c>
-      <c r="G61">
-        <v>0</v>
-      </c>
       <c r="H61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:8">
+      <c r="I61">
+        <v>1</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B62">
         <v>60</v>
@@ -2963,25 +2971,31 @@
       <c r="C62">
         <v>3</v>
       </c>
-      <c r="D62">
+      <c r="E62">
         <v>9</v>
       </c>
-      <c r="E62" t="s">
-        <v>129</v>
-      </c>
-      <c r="F62">
+      <c r="F62" t="s">
+        <v>132</v>
+      </c>
+      <c r="G62">
         <v>17000</v>
       </c>
-      <c r="G62">
-        <v>0</v>
-      </c>
       <c r="H62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:8">
+      <c r="I62">
+        <v>1</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B63">
         <v>61</v>
@@ -2989,25 +3003,31 @@
       <c r="C63">
         <v>2</v>
       </c>
-      <c r="D63">
+      <c r="E63">
         <v>39</v>
       </c>
-      <c r="E63" t="s">
-        <v>131</v>
-      </c>
-      <c r="F63">
+      <c r="F63" t="s">
+        <v>134</v>
+      </c>
+      <c r="G63">
         <v>30000</v>
       </c>
-      <c r="G63">
-        <v>0</v>
-      </c>
       <c r="H63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:8">
+      <c r="I63">
+        <v>1</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B64">
         <v>62</v>
@@ -3015,25 +3035,31 @@
       <c r="C64">
         <v>4</v>
       </c>
-      <c r="D64">
+      <c r="E64">
         <v>11</v>
       </c>
-      <c r="E64" t="s">
-        <v>133</v>
-      </c>
-      <c r="F64">
+      <c r="F64" t="s">
+        <v>136</v>
+      </c>
+      <c r="G64">
         <v>30000</v>
       </c>
-      <c r="G64">
-        <v>0</v>
-      </c>
       <c r="H64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:8">
+      <c r="I64">
+        <v>1</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B65">
         <v>63</v>
@@ -3041,25 +3067,31 @@
       <c r="C65">
         <v>0</v>
       </c>
-      <c r="D65">
+      <c r="E65">
         <v>50</v>
       </c>
-      <c r="E65" t="s">
-        <v>135</v>
-      </c>
-      <c r="F65">
+      <c r="F65" t="s">
+        <v>138</v>
+      </c>
+      <c r="G65">
         <v>75000</v>
       </c>
-      <c r="G65">
-        <v>0</v>
-      </c>
       <c r="H65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:8">
+      <c r="I65">
+        <v>1</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B66">
         <v>64</v>
@@ -3067,25 +3099,31 @@
       <c r="C66">
         <v>1</v>
       </c>
-      <c r="D66">
+      <c r="E66">
         <v>600</v>
       </c>
-      <c r="E66" t="s">
-        <v>137</v>
-      </c>
-      <c r="F66">
+      <c r="F66" t="s">
+        <v>140</v>
+      </c>
+      <c r="G66">
         <v>40000</v>
       </c>
-      <c r="G66">
-        <v>0</v>
-      </c>
       <c r="H66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:8">
+      <c r="I66">
+        <v>1</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B67">
         <v>65</v>
@@ -3093,25 +3131,31 @@
       <c r="C67">
         <v>3</v>
       </c>
-      <c r="D67">
+      <c r="E67">
         <v>15</v>
       </c>
-      <c r="E67" t="s">
-        <v>139</v>
-      </c>
-      <c r="F67">
+      <c r="F67" t="s">
+        <v>142</v>
+      </c>
+      <c r="G67">
         <v>75000</v>
       </c>
-      <c r="G67">
-        <v>0</v>
-      </c>
       <c r="H67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:8">
+      <c r="I67">
+        <v>1</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B68">
         <v>66</v>
@@ -3119,25 +3163,31 @@
       <c r="C68">
         <v>1</v>
       </c>
-      <c r="D68">
+      <c r="E68">
         <v>830</v>
       </c>
-      <c r="E68" t="s">
-        <v>141</v>
-      </c>
-      <c r="F68">
+      <c r="F68" t="s">
+        <v>144</v>
+      </c>
+      <c r="G68">
         <v>75000</v>
       </c>
-      <c r="G68">
-        <v>0</v>
-      </c>
       <c r="H68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:8">
+      <c r="I68">
+        <v>1</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B69">
         <v>67</v>
@@ -3145,25 +3195,31 @@
       <c r="C69">
         <v>0</v>
       </c>
-      <c r="D69">
+      <c r="E69">
         <v>77</v>
       </c>
-      <c r="E69" t="s">
-        <v>143</v>
-      </c>
-      <c r="F69">
+      <c r="F69" t="s">
+        <v>146</v>
+      </c>
+      <c r="G69">
         <v>200000</v>
       </c>
-      <c r="G69">
-        <v>0</v>
-      </c>
       <c r="H69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:8">
+      <c r="I69">
+        <v>1</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B70">
         <v>68</v>
@@ -3171,25 +3227,31 @@
       <c r="C70">
         <v>2</v>
       </c>
-      <c r="D70">
+      <c r="E70">
         <v>77</v>
       </c>
-      <c r="E70" t="s">
-        <v>145</v>
-      </c>
-      <c r="F70">
+      <c r="F70" t="s">
+        <v>148</v>
+      </c>
+      <c r="G70">
         <v>120000</v>
       </c>
-      <c r="G70">
-        <v>0</v>
-      </c>
       <c r="H70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:8">
+      <c r="I70">
+        <v>1</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B71">
         <v>69</v>
@@ -3197,25 +3259,31 @@
       <c r="C71">
         <v>4</v>
       </c>
-      <c r="D71">
+      <c r="E71">
         <v>19</v>
       </c>
-      <c r="E71" t="s">
-        <v>147</v>
-      </c>
-      <c r="F71">
+      <c r="F71" t="s">
+        <v>150</v>
+      </c>
+      <c r="G71">
         <v>220000</v>
       </c>
-      <c r="G71">
-        <v>0</v>
-      </c>
       <c r="H71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:8">
+      <c r="I71">
+        <v>1</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B72">
         <v>70</v>
@@ -3223,25 +3291,31 @@
       <c r="C72">
         <v>0</v>
       </c>
-      <c r="D72">
+      <c r="E72">
         <v>11</v>
       </c>
-      <c r="E72" t="s">
-        <v>149</v>
-      </c>
-      <c r="F72">
+      <c r="F72" t="s">
+        <v>152</v>
+      </c>
+      <c r="G72">
         <v>3000</v>
       </c>
-      <c r="G72">
-        <v>0</v>
-      </c>
       <c r="H72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:8">
+      <c r="I72">
+        <v>1</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B73">
         <v>71</v>
@@ -3249,25 +3323,31 @@
       <c r="C73">
         <v>1</v>
       </c>
-      <c r="D73">
+      <c r="E73">
         <v>80</v>
       </c>
-      <c r="E73" t="s">
-        <v>151</v>
-      </c>
-      <c r="F73">
+      <c r="F73" t="s">
+        <v>154</v>
+      </c>
+      <c r="G73">
         <v>2000</v>
       </c>
-      <c r="G73">
-        <v>0</v>
-      </c>
       <c r="H73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:8">
+      <c r="I73">
+        <v>1</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B74">
         <v>72</v>
@@ -3275,25 +3355,31 @@
       <c r="C74">
         <v>2</v>
       </c>
-      <c r="D74">
+      <c r="E74">
         <v>11</v>
       </c>
-      <c r="E74" t="s">
-        <v>153</v>
-      </c>
-      <c r="F74">
+      <c r="F74" t="s">
+        <v>156</v>
+      </c>
+      <c r="G74">
         <v>2000</v>
       </c>
-      <c r="G74">
-        <v>0</v>
-      </c>
       <c r="H74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:8">
+      <c r="I74">
+        <v>1</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B75">
         <v>73</v>
@@ -3301,25 +3387,31 @@
       <c r="C75">
         <v>3</v>
       </c>
-      <c r="D75">
+      <c r="E75">
         <v>4</v>
       </c>
-      <c r="E75" t="s">
-        <v>155</v>
-      </c>
-      <c r="F75">
+      <c r="F75" t="s">
+        <v>158</v>
+      </c>
+      <c r="G75">
         <v>2000</v>
       </c>
-      <c r="G75">
-        <v>0</v>
-      </c>
       <c r="H75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:8">
+      <c r="I75">
+        <v>1</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B76">
         <v>74</v>
@@ -3327,25 +3419,31 @@
       <c r="C76">
         <v>4</v>
       </c>
-      <c r="D76">
+      <c r="E76">
         <v>4</v>
       </c>
-      <c r="E76" t="s">
-        <v>157</v>
-      </c>
-      <c r="F76">
+      <c r="F76" t="s">
+        <v>160</v>
+      </c>
+      <c r="G76">
         <v>2000</v>
       </c>
-      <c r="G76">
-        <v>0</v>
-      </c>
       <c r="H76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:8">
+      <c r="I76">
+        <v>1</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B77">
         <v>75</v>
@@ -3353,25 +3451,31 @@
       <c r="C77">
         <v>0</v>
       </c>
-      <c r="D77">
+      <c r="E77">
         <v>26</v>
       </c>
-      <c r="E77" t="s">
-        <v>159</v>
-      </c>
-      <c r="F77">
+      <c r="F77" t="s">
+        <v>162</v>
+      </c>
+      <c r="G77">
         <v>20000</v>
       </c>
-      <c r="G77">
-        <v>0</v>
-      </c>
       <c r="H77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:8">
+      <c r="I77">
+        <v>1</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B78">
         <v>76</v>
@@ -3379,25 +3483,31 @@
       <c r="C78">
         <v>1</v>
       </c>
-      <c r="D78">
+      <c r="E78">
         <v>250</v>
       </c>
-      <c r="E78" t="s">
-        <v>161</v>
-      </c>
-      <c r="F78">
+      <c r="F78" t="s">
+        <v>164</v>
+      </c>
+      <c r="G78">
         <v>13000</v>
       </c>
-      <c r="G78">
-        <v>0</v>
-      </c>
       <c r="H78">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:8">
+      <c r="I78">
+        <v>1</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B79">
         <v>77</v>
@@ -3405,25 +3515,31 @@
       <c r="C79">
         <v>2</v>
       </c>
-      <c r="D79">
+      <c r="E79">
         <v>26</v>
       </c>
-      <c r="E79" t="s">
-        <v>163</v>
-      </c>
-      <c r="F79">
+      <c r="F79" t="s">
+        <v>166</v>
+      </c>
+      <c r="G79">
         <v>13000</v>
       </c>
-      <c r="G79">
-        <v>0</v>
-      </c>
       <c r="H79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:8">
+      <c r="I79">
+        <v>1</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B80">
         <v>78</v>
@@ -3431,25 +3547,31 @@
       <c r="C80">
         <v>3</v>
       </c>
-      <c r="D80">
+      <c r="E80">
         <v>8</v>
       </c>
-      <c r="E80" t="s">
-        <v>165</v>
-      </c>
-      <c r="F80">
+      <c r="F80" t="s">
+        <v>168</v>
+      </c>
+      <c r="G80">
         <v>13000</v>
       </c>
-      <c r="G80">
-        <v>0</v>
-      </c>
       <c r="H80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:8">
+      <c r="I80">
+        <v>1</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B81">
         <v>79</v>
@@ -3457,25 +3579,31 @@
       <c r="C81">
         <v>4</v>
       </c>
-      <c r="D81">
+      <c r="E81">
         <v>8</v>
       </c>
-      <c r="E81" t="s">
-        <v>167</v>
-      </c>
-      <c r="F81">
+      <c r="F81" t="s">
+        <v>170</v>
+      </c>
+      <c r="G81">
         <v>13000</v>
       </c>
-      <c r="G81">
-        <v>0</v>
-      </c>
       <c r="H81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:8">
+      <c r="I81">
+        <v>1</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B82">
         <v>80</v>
@@ -3483,25 +3611,31 @@
       <c r="C82">
         <v>0</v>
       </c>
-      <c r="D82">
+      <c r="E82">
         <v>45</v>
       </c>
-      <c r="E82" t="s">
-        <v>169</v>
-      </c>
-      <c r="F82">
+      <c r="F82" t="s">
+        <v>172</v>
+      </c>
+      <c r="G82">
         <v>55000</v>
       </c>
-      <c r="G82">
-        <v>0</v>
-      </c>
       <c r="H82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:8">
+      <c r="I82">
+        <v>1</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B83">
         <v>81</v>
@@ -3509,25 +3643,31 @@
       <c r="C83">
         <v>1</v>
       </c>
-      <c r="D83">
+      <c r="E83">
         <v>500</v>
       </c>
-      <c r="E83" t="s">
-        <v>171</v>
-      </c>
-      <c r="F83">
+      <c r="F83" t="s">
+        <v>174</v>
+      </c>
+      <c r="G83">
         <v>35000</v>
       </c>
-      <c r="G83">
-        <v>0</v>
-      </c>
       <c r="H83">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:8">
+      <c r="I83">
+        <v>1</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B84">
         <v>82</v>
@@ -3535,25 +3675,31 @@
       <c r="C84">
         <v>2</v>
       </c>
-      <c r="D84">
+      <c r="E84">
         <v>45</v>
       </c>
-      <c r="E84" t="s">
-        <v>173</v>
-      </c>
-      <c r="F84">
+      <c r="F84" t="s">
+        <v>176</v>
+      </c>
+      <c r="G84">
         <v>35000</v>
       </c>
-      <c r="G84">
-        <v>0</v>
-      </c>
       <c r="H84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:8">
+      <c r="I84">
+        <v>1</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B85">
         <v>83</v>
@@ -3561,25 +3707,31 @@
       <c r="C85">
         <v>3</v>
       </c>
-      <c r="D85">
+      <c r="E85">
         <v>12</v>
       </c>
-      <c r="E85" t="s">
-        <v>175</v>
-      </c>
-      <c r="F85">
+      <c r="F85" t="s">
+        <v>178</v>
+      </c>
+      <c r="G85">
         <v>35000</v>
       </c>
-      <c r="G85">
-        <v>0</v>
-      </c>
       <c r="H85">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:8">
+      <c r="I85">
+        <v>1</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+      <c r="K85" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B86">
         <v>84</v>
@@ -3587,25 +3739,31 @@
       <c r="C86">
         <v>4</v>
       </c>
-      <c r="D86">
+      <c r="E86">
         <v>12</v>
       </c>
-      <c r="E86" t="s">
-        <v>177</v>
-      </c>
-      <c r="F86">
+      <c r="F86" t="s">
+        <v>180</v>
+      </c>
+      <c r="G86">
         <v>35000</v>
       </c>
-      <c r="G86">
-        <v>0</v>
-      </c>
       <c r="H86">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:8">
+      <c r="I86">
+        <v>1</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+      <c r="K86" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B87">
         <v>85</v>
@@ -3613,25 +3771,31 @@
       <c r="C87">
         <v>0</v>
       </c>
-      <c r="D87">
+      <c r="E87">
         <v>70</v>
       </c>
-      <c r="E87" t="s">
-        <v>179</v>
-      </c>
-      <c r="F87">
+      <c r="F87" t="s">
+        <v>182</v>
+      </c>
+      <c r="G87">
         <v>150000</v>
       </c>
-      <c r="G87">
-        <v>0</v>
-      </c>
       <c r="H87">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:8">
+      <c r="I87">
+        <v>1</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="K87" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B88">
         <v>86</v>
@@ -3639,25 +3803,31 @@
       <c r="C88">
         <v>1</v>
       </c>
-      <c r="D88">
+      <c r="E88">
         <v>950</v>
       </c>
-      <c r="E88" t="s">
-        <v>181</v>
-      </c>
-      <c r="F88">
+      <c r="F88" t="s">
+        <v>184</v>
+      </c>
+      <c r="G88">
         <v>90000</v>
       </c>
-      <c r="G88">
-        <v>0</v>
-      </c>
       <c r="H88">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:8">
+      <c r="I88">
+        <v>1</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="K88" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B89">
         <v>87</v>
@@ -3665,25 +3835,31 @@
       <c r="C89">
         <v>2</v>
       </c>
-      <c r="D89">
+      <c r="E89">
         <v>70</v>
       </c>
-      <c r="E89" t="s">
-        <v>183</v>
-      </c>
-      <c r="F89">
+      <c r="F89" t="s">
+        <v>186</v>
+      </c>
+      <c r="G89">
         <v>90000</v>
       </c>
-      <c r="G89">
-        <v>0</v>
-      </c>
       <c r="H89">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:8">
+      <c r="I89">
+        <v>1</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
+      <c r="K89" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B90">
         <v>88</v>
@@ -3691,25 +3867,31 @@
       <c r="C90">
         <v>3</v>
       </c>
-      <c r="D90">
+      <c r="E90">
         <v>16</v>
       </c>
-      <c r="E90" t="s">
-        <v>185</v>
-      </c>
-      <c r="F90">
+      <c r="F90" t="s">
+        <v>188</v>
+      </c>
+      <c r="G90">
         <v>90000</v>
       </c>
-      <c r="G90">
-        <v>0</v>
-      </c>
       <c r="H90">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:8">
+      <c r="I90">
+        <v>1</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+      <c r="K90" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B91">
         <v>89</v>
@@ -3717,25 +3899,31 @@
       <c r="C91">
         <v>4</v>
       </c>
-      <c r="D91">
+      <c r="E91">
         <v>16</v>
       </c>
-      <c r="E91" t="s">
-        <v>187</v>
-      </c>
-      <c r="F91">
+      <c r="F91" t="s">
+        <v>190</v>
+      </c>
+      <c r="G91">
         <v>90000</v>
       </c>
-      <c r="G91">
-        <v>0</v>
-      </c>
       <c r="H91">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:8" ht="13.5">
-      <c r="A92" s="1" t="s">
-        <v>190</v>
+      <c r="I91">
+        <v>1</v>
+      </c>
+      <c r="J91">
+        <v>0</v>
+      </c>
+      <c r="K91" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>191</v>
       </c>
       <c r="B92">
         <v>90</v>
@@ -3744,24 +3932,33 @@
         <v>5</v>
       </c>
       <c r="D92">
+        <v>0</v>
+      </c>
+      <c r="E92">
         <v>50</v>
       </c>
-      <c r="E92" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="F92">
+      <c r="F92" t="s">
+        <v>192</v>
+      </c>
+      <c r="G92">
         <v>400</v>
       </c>
-      <c r="G92">
-        <v>0</v>
-      </c>
       <c r="H92">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:8" ht="13.5">
-      <c r="A93" s="1" t="s">
-        <v>191</v>
+      <c r="I92">
+        <v>1</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+      <c r="K92" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>193</v>
       </c>
       <c r="B93">
         <v>91</v>
@@ -3770,24 +3967,33 @@
         <v>5</v>
       </c>
       <c r="D93">
+        <v>1</v>
+      </c>
+      <c r="E93">
         <v>40</v>
       </c>
-      <c r="E93" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="F93">
+      <c r="F93" t="s">
+        <v>194</v>
+      </c>
+      <c r="G93">
         <v>600</v>
       </c>
-      <c r="G93">
-        <v>0</v>
-      </c>
       <c r="H93">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:8" ht="13.5">
-      <c r="A94" s="1" t="s">
-        <v>196</v>
+      <c r="I93">
+        <v>1</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+      <c r="K93" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>195</v>
       </c>
       <c r="B94">
         <v>92</v>
@@ -3796,23 +4002,32 @@
         <v>5</v>
       </c>
       <c r="D94">
+        <v>0</v>
+      </c>
+      <c r="E94">
         <v>200</v>
       </c>
-      <c r="E94" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="F94">
+      <c r="F94" t="s">
+        <v>196</v>
+      </c>
+      <c r="G94">
         <v>1600</v>
       </c>
-      <c r="G94">
-        <v>0</v>
-      </c>
       <c r="H94">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:8" ht="13.5">
-      <c r="A95" s="1" t="s">
+      <c r="I94">
+        <v>1</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+      <c r="K94" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
         <v>197</v>
       </c>
       <c r="B95">
@@ -3822,21 +4037,33 @@
         <v>5</v>
       </c>
       <c r="D95">
+        <v>1</v>
+      </c>
+      <c r="E95">
         <v>80</v>
       </c>
-      <c r="E95" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="F95">
+      <c r="F95" t="s">
+        <v>198</v>
+      </c>
+      <c r="G95">
         <v>2400</v>
       </c>
-      <c r="G95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" ht="13.5">
-      <c r="A96" s="1" t="s">
-        <v>198</v>
+      <c r="H95">
+        <v>0</v>
+      </c>
+      <c r="I95">
+        <v>1</v>
+      </c>
+      <c r="J95">
+        <v>0</v>
+      </c>
+      <c r="K95" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>199</v>
       </c>
       <c r="B96">
         <v>94</v>
@@ -3845,21 +4072,33 @@
         <v>5</v>
       </c>
       <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
         <v>400</v>
       </c>
-      <c r="E96" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="F96">
+      <c r="F96" t="s">
+        <v>200</v>
+      </c>
+      <c r="G96">
         <v>3200</v>
       </c>
-      <c r="G96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" ht="13.5">
-      <c r="A97" s="1" t="s">
-        <v>199</v>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>1</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>201</v>
       </c>
       <c r="B97">
         <v>95</v>
@@ -3868,26 +4107,32 @@
         <v>5</v>
       </c>
       <c r="D97">
+        <v>1</v>
+      </c>
+      <c r="E97">
         <v>160</v>
       </c>
-      <c r="E97" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="F97">
+      <c r="F97" t="s">
+        <v>202</v>
+      </c>
+      <c r="G97">
         <v>4800</v>
       </c>
-      <c r="G97">
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>1</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+      <c r="K97" t="b">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H1" xr:uid="{D1602FA2-B573-4915-9957-F09308629DB8}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H97">
-      <sortCondition ref="B1"/>
-    </sortState>
-  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/TeamTextRPG/Data/Excel/Items.xlsx
+++ b/TeamTextRPG/Data/Excel/Items.xlsx
@@ -1,26 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26626"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\js022\바탕 화면\WorkSpace\TeamTextRPG\TeamTextRPG\Data\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC61E4B6-CF32-4DD0-9DF8-8B33EE83709A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="214">
   <si>
     <t>Name</t>
   </si>
@@ -31,30 +26,30 @@
     <t>Part</t>
   </si>
   <si>
+    <t>Stat</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>Stack</t>
+  </si>
+  <si>
+    <t>BonusStat</t>
+  </si>
+  <si>
+    <t>IsEquipped</t>
+  </si>
+  <si>
     <t>UsableItemType</t>
   </si>
   <si>
-    <t>Stat</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Price</t>
-  </si>
-  <si>
-    <t>Level</t>
-  </si>
-  <si>
-    <t>Stack</t>
-  </si>
-  <si>
-    <t>BonusStat</t>
-  </si>
-  <si>
-    <t>IsEquipped</t>
-  </si>
-  <si>
     <t>목검</t>
   </si>
   <si>
@@ -629,13 +624,46 @@
   </si>
   <si>
     <t>마력을 160 회복시켜줍니다</t>
+  </si>
+  <si>
+    <t>스테로이드</t>
+  </si>
+  <si>
+    <t>일시적으로 공격력이 상승합니다</t>
+  </si>
+  <si>
+    <t>FALSE</t>
+  </si>
+  <si>
+    <t>철분제</t>
+  </si>
+  <si>
+    <t>일시적으로 방어력이 상승합니다</t>
+  </si>
+  <si>
+    <t>면도칼</t>
+  </si>
+  <si>
+    <t>일시적으로 치명률이 올라갑니다</t>
+  </si>
+  <si>
+    <t>연막탄</t>
+  </si>
+  <si>
+    <t>일시적으로 회피률이 올라갑니다</t>
+  </si>
+  <si>
+    <t>수류탄</t>
+  </si>
+  <si>
+    <t>모든 적을 공격합니다</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -643,10 +671,15 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="8"/>
-      <name val="돋움"/>
-      <family val="3"/>
-      <charset val="129"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -666,17 +699,126 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="15" builtinId="5"/>
+    <cellStyle name="Currency" xfId="16" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="17" builtinId="7"/>
+    <cellStyle name="Comma" xfId="18" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="19" builtinId="6"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -984,29 +1126,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A12FD699-AB75-45C9-A7EB-32F3C83EE638}">
-  <dimension ref="A1:K97"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{cb85b3b1-a707-4727-ae4e-3fe393a76e08}">
+  <dimension ref="A1:K102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="D98" sqref="D98"/>
+    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1">
+      <selection pane="topLeft" activeCell="K101" sqref="K101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="19.140625" customWidth="1"/>
-    <col min="2" max="2" width="3.28515625" customWidth="1"/>
-    <col min="3" max="3" width="4.7109375" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" customWidth="1"/>
-    <col min="5" max="5" width="5.28515625" customWidth="1"/>
-    <col min="6" max="6" width="44.85546875" customWidth="1"/>
-    <col min="7" max="7" width="7.28515625" customWidth="1"/>
-    <col min="8" max="8" width="5.42578125" customWidth="1"/>
-    <col min="9" max="9" width="6.140625" customWidth="1"/>
-    <col min="10" max="10" width="10" customWidth="1"/>
-    <col min="11" max="11" width="10.42578125" customWidth="1"/>
+    <col min="1" max="1" width="18.285714285714285" customWidth="1"/>
+    <col min="2" max="2" width="8.571428571428571" customWidth="1"/>
+    <col min="3" max="3" width="4.714285714285714" customWidth="1"/>
+    <col min="4" max="4" width="5.285714285714286" customWidth="1"/>
+    <col min="5" max="5" width="44.857142857142854" customWidth="1"/>
+    <col min="6" max="6" width="7.285714285714286" customWidth="1"/>
+    <col min="7" max="7" width="5.428571428571429" customWidth="1"/>
+    <col min="8" max="8" width="6.142857142857143" customWidth="1"/>
+    <col min="9" max="9" width="10" customWidth="1"/>
+    <col min="10" max="10" width="10.428571428571429" customWidth="1"/>
+    <col min="11" max="11" width="14.571428571428571" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="12.75">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1041,7 +1183,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="12.75">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -1051,29 +1193,29 @@
       <c r="C2">
         <v>0</v>
       </c>
-      <c r="E2">
+      <c r="D2">
         <v>5</v>
       </c>
-      <c r="F2" t="s">
+      <c r="E2" t="s">
         <v>12</v>
       </c>
+      <c r="F2">
+        <v>800</v>
+      </c>
       <c r="G2">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="J2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="12.75">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -1083,29 +1225,29 @@
       <c r="C3">
         <v>0</v>
       </c>
-      <c r="E3">
+      <c r="D3">
         <v>11</v>
       </c>
-      <c r="F3" t="s">
+      <c r="E3" t="s">
         <v>14</v>
       </c>
+      <c r="F3">
+        <v>3000</v>
+      </c>
       <c r="G3">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="J3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="12.75">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -1115,29 +1257,29 @@
       <c r="C4">
         <v>0</v>
       </c>
-      <c r="E4">
+      <c r="D4">
         <v>18</v>
       </c>
-      <c r="F4" t="s">
+      <c r="E4" t="s">
         <v>16</v>
       </c>
+      <c r="F4">
+        <v>8000</v>
+      </c>
       <c r="G4">
-        <v>8000</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="J4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="12.75">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -1147,29 +1289,29 @@
       <c r="C5">
         <v>0</v>
       </c>
-      <c r="E5">
+      <c r="D5">
         <v>26</v>
       </c>
-      <c r="F5" t="s">
+      <c r="E5" t="s">
         <v>18</v>
       </c>
+      <c r="F5">
+        <v>20000</v>
+      </c>
       <c r="G5">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="J5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="12.75">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -1179,29 +1321,29 @@
       <c r="C6">
         <v>0</v>
       </c>
-      <c r="E6">
+      <c r="D6">
         <v>35</v>
       </c>
-      <c r="F6" t="s">
+      <c r="E6" t="s">
         <v>20</v>
       </c>
+      <c r="F6">
+        <v>38000</v>
+      </c>
       <c r="G6">
-        <v>38000</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="J6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="12.75">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -1211,29 +1353,29 @@
       <c r="C7">
         <v>0</v>
       </c>
-      <c r="E7">
+      <c r="D7">
         <v>45</v>
       </c>
-      <c r="F7" t="s">
+      <c r="E7" t="s">
         <v>22</v>
       </c>
+      <c r="F7">
+        <v>55000</v>
+      </c>
       <c r="G7">
-        <v>55000</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="J7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="12.75">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -1243,29 +1385,29 @@
       <c r="C8">
         <v>0</v>
       </c>
-      <c r="E8">
+      <c r="D8">
         <v>55</v>
       </c>
-      <c r="F8" t="s">
+      <c r="E8" t="s">
         <v>24</v>
       </c>
+      <c r="F8">
+        <v>90000</v>
+      </c>
       <c r="G8">
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8">
-        <v>1</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="J8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="12.75">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -1275,29 +1417,29 @@
       <c r="C9">
         <v>0</v>
       </c>
-      <c r="E9">
+      <c r="D9">
         <v>70</v>
       </c>
-      <c r="F9" t="s">
+      <c r="E9" t="s">
         <v>26</v>
       </c>
+      <c r="F9">
+        <v>150000</v>
+      </c>
       <c r="G9">
-        <v>150000</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9">
-        <v>1</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="J9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="12.75">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -1307,29 +1449,29 @@
       <c r="C10">
         <v>0</v>
       </c>
-      <c r="E10">
+      <c r="D10">
         <v>85</v>
       </c>
-      <c r="F10" t="s">
+      <c r="E10" t="s">
         <v>28</v>
       </c>
+      <c r="F10">
+        <v>240000</v>
+      </c>
       <c r="G10">
-        <v>240000</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10">
-        <v>1</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="J10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="12.75">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -1339,29 +1481,29 @@
       <c r="C11">
         <v>0</v>
       </c>
-      <c r="E11">
+      <c r="D11">
         <v>100</v>
       </c>
-      <c r="F11" t="s">
+      <c r="E11" t="s">
         <v>30</v>
       </c>
+      <c r="F11">
+        <v>440000</v>
+      </c>
       <c r="G11">
-        <v>440000</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11">
-        <v>1</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="J11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="12.75">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -1371,29 +1513,29 @@
       <c r="C12">
         <v>1</v>
       </c>
-      <c r="E12">
+      <c r="D12">
         <v>40</v>
       </c>
-      <c r="F12" t="s">
+      <c r="E12" t="s">
         <v>32</v>
       </c>
+      <c r="F12">
+        <v>500</v>
+      </c>
       <c r="G12">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12">
-        <v>1</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="J12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="12.75">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -1403,29 +1545,29 @@
       <c r="C13">
         <v>1</v>
       </c>
-      <c r="E13">
+      <c r="D13">
         <v>80</v>
       </c>
-      <c r="F13" t="s">
+      <c r="E13" t="s">
         <v>34</v>
       </c>
+      <c r="F13">
+        <v>2000</v>
+      </c>
       <c r="G13">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13">
-        <v>1</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="J13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="12.75">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -1435,29 +1577,29 @@
       <c r="C14">
         <v>1</v>
       </c>
-      <c r="E14">
+      <c r="D14">
         <v>150</v>
       </c>
-      <c r="F14" t="s">
+      <c r="E14" t="s">
         <v>36</v>
       </c>
+      <c r="F14">
+        <v>5000</v>
+      </c>
       <c r="G14">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14">
-        <v>1</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="J14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="12.75">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -1467,29 +1609,29 @@
       <c r="C15">
         <v>1</v>
       </c>
-      <c r="E15">
+      <c r="D15">
         <v>250</v>
       </c>
-      <c r="F15" t="s">
+      <c r="E15" t="s">
         <v>38</v>
       </c>
+      <c r="F15">
+        <v>13000</v>
+      </c>
       <c r="G15">
-        <v>13000</v>
+        <v>0</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15">
-        <v>1</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="J15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="12.75">
       <c r="A16" t="s">
         <v>39</v>
       </c>
@@ -1499,29 +1641,29 @@
       <c r="C16">
         <v>1</v>
       </c>
-      <c r="E16">
+      <c r="D16">
         <v>350</v>
       </c>
-      <c r="F16" t="s">
+      <c r="E16" t="s">
         <v>40</v>
       </c>
+      <c r="F16">
+        <v>22000</v>
+      </c>
       <c r="G16">
-        <v>22000</v>
+        <v>0</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16">
-        <v>1</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="J16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="12.75">
       <c r="A17" t="s">
         <v>41</v>
       </c>
@@ -1531,29 +1673,29 @@
       <c r="C17">
         <v>1</v>
       </c>
-      <c r="E17">
+      <c r="D17">
         <v>500</v>
       </c>
-      <c r="F17" t="s">
+      <c r="E17" t="s">
         <v>42</v>
       </c>
+      <c r="F17">
+        <v>35000</v>
+      </c>
       <c r="G17">
-        <v>35000</v>
+        <v>0</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17">
-        <v>1</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="J17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="12.75">
       <c r="A18" t="s">
         <v>43</v>
       </c>
@@ -1563,29 +1705,29 @@
       <c r="C18">
         <v>1</v>
       </c>
-      <c r="E18">
+      <c r="D18">
         <v>700</v>
       </c>
-      <c r="F18" t="s">
+      <c r="E18" t="s">
         <v>44</v>
       </c>
+      <c r="F18">
+        <v>55000</v>
+      </c>
       <c r="G18">
-        <v>55000</v>
+        <v>0</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18">
-        <v>1</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="J18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="12.75">
       <c r="A19" t="s">
         <v>45</v>
       </c>
@@ -1595,29 +1737,29 @@
       <c r="C19">
         <v>1</v>
       </c>
-      <c r="E19">
+      <c r="D19">
         <v>950</v>
       </c>
-      <c r="F19" t="s">
+      <c r="E19" t="s">
         <v>46</v>
       </c>
+      <c r="F19">
+        <v>90000</v>
+      </c>
       <c r="G19">
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19">
-        <v>1</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="J19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="12.75">
       <c r="A20" t="s">
         <v>47</v>
       </c>
@@ -1627,29 +1769,29 @@
       <c r="C20">
         <v>1</v>
       </c>
-      <c r="E20">
+      <c r="D20">
         <v>1200</v>
       </c>
-      <c r="F20" t="s">
+      <c r="E20" t="s">
         <v>48</v>
       </c>
+      <c r="F20">
+        <v>150000</v>
+      </c>
       <c r="G20">
-        <v>150000</v>
+        <v>0</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20">
-        <v>1</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="J20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="12.75">
       <c r="A21" t="s">
         <v>49</v>
       </c>
@@ -1659,29 +1801,29 @@
       <c r="C21">
         <v>1</v>
       </c>
-      <c r="E21">
+      <c r="D21">
         <v>1500</v>
       </c>
-      <c r="F21" t="s">
+      <c r="E21" t="s">
         <v>50</v>
       </c>
+      <c r="F21">
+        <v>270000</v>
+      </c>
       <c r="G21">
-        <v>270000</v>
+        <v>0</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21">
-        <v>1</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="J21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="12.75">
       <c r="A22" t="s">
         <v>51</v>
       </c>
@@ -1691,29 +1833,29 @@
       <c r="C22">
         <v>2</v>
       </c>
-      <c r="E22">
+      <c r="D22">
         <v>5</v>
       </c>
-      <c r="F22" t="s">
+      <c r="E22" t="s">
         <v>52</v>
       </c>
+      <c r="F22">
+        <v>500</v>
+      </c>
       <c r="G22">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22">
-        <v>1</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="K22" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="J22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="12.75">
       <c r="A23" t="s">
         <v>53</v>
       </c>
@@ -1723,29 +1865,29 @@
       <c r="C23">
         <v>2</v>
       </c>
-      <c r="E23">
+      <c r="D23">
         <v>11</v>
       </c>
-      <c r="F23" t="s">
+      <c r="E23" t="s">
         <v>54</v>
       </c>
+      <c r="F23">
+        <v>2000</v>
+      </c>
       <c r="G23">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23">
-        <v>1</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="J23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="12.75">
       <c r="A24" t="s">
         <v>55</v>
       </c>
@@ -1755,29 +1897,29 @@
       <c r="C24">
         <v>2</v>
       </c>
-      <c r="E24">
+      <c r="D24">
         <v>18</v>
       </c>
-      <c r="F24" t="s">
+      <c r="E24" t="s">
         <v>56</v>
       </c>
+      <c r="F24">
+        <v>5000</v>
+      </c>
       <c r="G24">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24">
-        <v>1</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-      <c r="K24" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="J24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="12.75">
       <c r="A25" t="s">
         <v>57</v>
       </c>
@@ -1787,29 +1929,29 @@
       <c r="C25">
         <v>2</v>
       </c>
-      <c r="E25">
+      <c r="D25">
         <v>26</v>
       </c>
-      <c r="F25" t="s">
+      <c r="E25" t="s">
         <v>58</v>
       </c>
+      <c r="F25">
+        <v>13000</v>
+      </c>
       <c r="G25">
-        <v>13000</v>
+        <v>0</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25">
-        <v>1</v>
-      </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
-      <c r="K25" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="J25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="12.75">
       <c r="A26" t="s">
         <v>59</v>
       </c>
@@ -1819,29 +1961,29 @@
       <c r="C26">
         <v>2</v>
       </c>
-      <c r="E26">
+      <c r="D26">
         <v>35</v>
       </c>
-      <c r="F26" t="s">
+      <c r="E26" t="s">
         <v>60</v>
       </c>
+      <c r="F26">
+        <v>22000</v>
+      </c>
       <c r="G26">
-        <v>22000</v>
+        <v>0</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26">
-        <v>1</v>
-      </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
-      <c r="K26" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="J26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="12.75">
       <c r="A27" t="s">
         <v>61</v>
       </c>
@@ -1851,29 +1993,29 @@
       <c r="C27">
         <v>2</v>
       </c>
-      <c r="E27">
+      <c r="D27">
         <v>45</v>
       </c>
-      <c r="F27" t="s">
+      <c r="E27" t="s">
         <v>62</v>
       </c>
+      <c r="F27">
+        <v>35000</v>
+      </c>
       <c r="G27">
-        <v>35000</v>
+        <v>0</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27">
-        <v>1</v>
-      </c>
-      <c r="J27">
-        <v>0</v>
-      </c>
-      <c r="K27" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="J27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="12.75">
       <c r="A28" t="s">
         <v>63</v>
       </c>
@@ -1883,29 +2025,29 @@
       <c r="C28">
         <v>2</v>
       </c>
-      <c r="E28">
+      <c r="D28">
         <v>55</v>
       </c>
-      <c r="F28" t="s">
+      <c r="E28" t="s">
         <v>64</v>
       </c>
+      <c r="F28">
+        <v>55000</v>
+      </c>
       <c r="G28">
-        <v>55000</v>
+        <v>0</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28">
-        <v>1</v>
-      </c>
-      <c r="J28">
-        <v>0</v>
-      </c>
-      <c r="K28" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="J28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="12.75">
       <c r="A29" t="s">
         <v>65</v>
       </c>
@@ -1915,29 +2057,29 @@
       <c r="C29">
         <v>2</v>
       </c>
-      <c r="E29">
+      <c r="D29">
         <v>70</v>
       </c>
-      <c r="F29" t="s">
+      <c r="E29" t="s">
         <v>66</v>
       </c>
+      <c r="F29">
+        <v>90000</v>
+      </c>
       <c r="G29">
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29">
-        <v>1</v>
-      </c>
-      <c r="J29">
-        <v>0</v>
-      </c>
-      <c r="K29" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="J29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="12.75">
       <c r="A30" t="s">
         <v>67</v>
       </c>
@@ -1947,29 +2089,29 @@
       <c r="C30">
         <v>2</v>
       </c>
-      <c r="E30">
+      <c r="D30">
         <v>85</v>
       </c>
-      <c r="F30" t="s">
+      <c r="E30" t="s">
         <v>68</v>
       </c>
+      <c r="F30">
+        <v>150000</v>
+      </c>
       <c r="G30">
-        <v>150000</v>
+        <v>0</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30">
-        <v>1</v>
-      </c>
-      <c r="J30">
-        <v>0</v>
-      </c>
-      <c r="K30" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="J30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="12.75">
       <c r="A31" t="s">
         <v>69</v>
       </c>
@@ -1979,29 +2121,29 @@
       <c r="C31">
         <v>2</v>
       </c>
-      <c r="E31">
+      <c r="D31">
         <v>100</v>
       </c>
-      <c r="F31" t="s">
+      <c r="E31" t="s">
         <v>70</v>
       </c>
+      <c r="F31">
+        <v>270000</v>
+      </c>
       <c r="G31">
-        <v>270000</v>
+        <v>0</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31">
-        <v>1</v>
-      </c>
-      <c r="J31">
-        <v>0</v>
-      </c>
-      <c r="K31" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="J31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="12.75">
       <c r="A32" t="s">
         <v>71</v>
       </c>
@@ -2011,29 +2153,29 @@
       <c r="C32">
         <v>3</v>
       </c>
-      <c r="E32">
+      <c r="D32">
         <v>2</v>
       </c>
-      <c r="F32" t="s">
+      <c r="E32" t="s">
         <v>72</v>
       </c>
+      <c r="F32">
+        <v>500</v>
+      </c>
       <c r="G32">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32">
-        <v>1</v>
-      </c>
-      <c r="J32">
-        <v>0</v>
-      </c>
-      <c r="K32" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="J32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="12.75">
       <c r="A33" t="s">
         <v>73</v>
       </c>
@@ -2043,29 +2185,29 @@
       <c r="C33">
         <v>3</v>
       </c>
-      <c r="E33">
+      <c r="D33">
         <v>4</v>
       </c>
-      <c r="F33" t="s">
+      <c r="E33" t="s">
         <v>74</v>
       </c>
+      <c r="F33">
+        <v>2000</v>
+      </c>
       <c r="G33">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33">
-        <v>1</v>
-      </c>
-      <c r="J33">
-        <v>0</v>
-      </c>
-      <c r="K33" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="J33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="12.75">
       <c r="A34" t="s">
         <v>75</v>
       </c>
@@ -2075,29 +2217,29 @@
       <c r="C34">
         <v>3</v>
       </c>
-      <c r="E34">
+      <c r="D34">
         <v>6</v>
       </c>
-      <c r="F34" t="s">
+      <c r="E34" t="s">
         <v>76</v>
       </c>
+      <c r="F34">
+        <v>5000</v>
+      </c>
       <c r="G34">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34">
-        <v>1</v>
-      </c>
-      <c r="J34">
-        <v>0</v>
-      </c>
-      <c r="K34" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="J34" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="12.75">
       <c r="A35" t="s">
         <v>77</v>
       </c>
@@ -2107,29 +2249,29 @@
       <c r="C35">
         <v>3</v>
       </c>
-      <c r="E35">
+      <c r="D35">
         <v>8</v>
       </c>
-      <c r="F35" t="s">
+      <c r="E35" t="s">
         <v>78</v>
       </c>
+      <c r="F35">
+        <v>13000</v>
+      </c>
       <c r="G35">
-        <v>13000</v>
+        <v>0</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35">
-        <v>1</v>
-      </c>
-      <c r="J35">
-        <v>0</v>
-      </c>
-      <c r="K35" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="J35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="12.75">
       <c r="A36" t="s">
         <v>79</v>
       </c>
@@ -2139,29 +2281,29 @@
       <c r="C36">
         <v>3</v>
       </c>
-      <c r="E36">
+      <c r="D36">
         <v>10</v>
       </c>
-      <c r="F36" t="s">
+      <c r="E36" t="s">
         <v>80</v>
       </c>
+      <c r="F36">
+        <v>22000</v>
+      </c>
       <c r="G36">
-        <v>22000</v>
+        <v>0</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36">
-        <v>1</v>
-      </c>
-      <c r="J36">
-        <v>0</v>
-      </c>
-      <c r="K36" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="J36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="12.75">
       <c r="A37" t="s">
         <v>81</v>
       </c>
@@ -2171,29 +2313,29 @@
       <c r="C37">
         <v>3</v>
       </c>
-      <c r="E37">
+      <c r="D37">
         <v>12</v>
       </c>
-      <c r="F37" t="s">
+      <c r="E37" t="s">
         <v>82</v>
       </c>
+      <c r="F37">
+        <v>35000</v>
+      </c>
       <c r="G37">
-        <v>35000</v>
+        <v>0</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37">
-        <v>1</v>
-      </c>
-      <c r="J37">
-        <v>0</v>
-      </c>
-      <c r="K37" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="J37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="12.75">
       <c r="A38" t="s">
         <v>83</v>
       </c>
@@ -2203,29 +2345,29 @@
       <c r="C38">
         <v>3</v>
       </c>
-      <c r="E38">
+      <c r="D38">
         <v>14</v>
       </c>
-      <c r="F38" t="s">
+      <c r="E38" t="s">
         <v>84</v>
       </c>
+      <c r="F38">
+        <v>55000</v>
+      </c>
       <c r="G38">
-        <v>55000</v>
+        <v>0</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38">
-        <v>1</v>
-      </c>
-      <c r="J38">
-        <v>0</v>
-      </c>
-      <c r="K38" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="J38" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="12.75">
       <c r="A39" t="s">
         <v>85</v>
       </c>
@@ -2235,29 +2377,29 @@
       <c r="C39">
         <v>3</v>
       </c>
-      <c r="E39">
+      <c r="D39">
         <v>16</v>
       </c>
-      <c r="F39" t="s">
+      <c r="E39" t="s">
         <v>86</v>
       </c>
+      <c r="F39">
+        <v>90000</v>
+      </c>
       <c r="G39">
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39">
-        <v>1</v>
-      </c>
-      <c r="J39">
-        <v>0</v>
-      </c>
-      <c r="K39" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="J39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="12.75">
       <c r="A40" t="s">
         <v>87</v>
       </c>
@@ -2267,29 +2409,29 @@
       <c r="C40">
         <v>3</v>
       </c>
-      <c r="E40">
+      <c r="D40">
         <v>18</v>
       </c>
-      <c r="F40" t="s">
+      <c r="E40" t="s">
         <v>88</v>
       </c>
+      <c r="F40">
+        <v>150000</v>
+      </c>
       <c r="G40">
-        <v>150000</v>
+        <v>0</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40">
-        <v>1</v>
-      </c>
-      <c r="J40">
-        <v>0</v>
-      </c>
-      <c r="K40" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="J40" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="12.75">
       <c r="A41" t="s">
         <v>89</v>
       </c>
@@ -2299,29 +2441,29 @@
       <c r="C41">
         <v>3</v>
       </c>
-      <c r="E41">
+      <c r="D41">
         <v>20</v>
       </c>
-      <c r="F41" t="s">
+      <c r="E41" t="s">
         <v>90</v>
       </c>
+      <c r="F41">
+        <v>270000</v>
+      </c>
       <c r="G41">
-        <v>270000</v>
+        <v>0</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41">
-        <v>1</v>
-      </c>
-      <c r="J41">
-        <v>0</v>
-      </c>
-      <c r="K41" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="J41" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="12.75">
       <c r="A42" t="s">
         <v>91</v>
       </c>
@@ -2331,29 +2473,29 @@
       <c r="C42">
         <v>4</v>
       </c>
-      <c r="E42">
+      <c r="D42">
         <v>2</v>
       </c>
-      <c r="F42" t="s">
+      <c r="E42" t="s">
         <v>92</v>
       </c>
+      <c r="F42">
+        <v>500</v>
+      </c>
       <c r="G42">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42">
-        <v>1</v>
-      </c>
-      <c r="J42">
-        <v>0</v>
-      </c>
-      <c r="K42" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="J42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="12.75">
       <c r="A43" t="s">
         <v>93</v>
       </c>
@@ -2363,29 +2505,29 @@
       <c r="C43">
         <v>4</v>
       </c>
-      <c r="E43">
+      <c r="D43">
         <v>4</v>
       </c>
-      <c r="F43" t="s">
+      <c r="E43" t="s">
         <v>94</v>
       </c>
+      <c r="F43">
+        <v>2000</v>
+      </c>
       <c r="G43">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43">
-        <v>1</v>
-      </c>
-      <c r="J43">
-        <v>0</v>
-      </c>
-      <c r="K43" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="J43" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="12.75">
       <c r="A44" t="s">
         <v>95</v>
       </c>
@@ -2395,29 +2537,29 @@
       <c r="C44">
         <v>4</v>
       </c>
-      <c r="E44">
+      <c r="D44">
         <v>6</v>
       </c>
-      <c r="F44" t="s">
+      <c r="E44" t="s">
         <v>96</v>
       </c>
+      <c r="F44">
+        <v>5000</v>
+      </c>
       <c r="G44">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44">
-        <v>1</v>
-      </c>
-      <c r="J44">
-        <v>0</v>
-      </c>
-      <c r="K44" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="J44" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="12.75">
       <c r="A45" t="s">
         <v>97</v>
       </c>
@@ -2427,29 +2569,29 @@
       <c r="C45">
         <v>4</v>
       </c>
-      <c r="E45">
+      <c r="D45">
         <v>8</v>
       </c>
-      <c r="F45" t="s">
+      <c r="E45" t="s">
         <v>98</v>
       </c>
+      <c r="F45">
+        <v>13000</v>
+      </c>
       <c r="G45">
-        <v>13000</v>
+        <v>0</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45">
-        <v>1</v>
-      </c>
-      <c r="J45">
-        <v>0</v>
-      </c>
-      <c r="K45" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="J45" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="12.75">
       <c r="A46" t="s">
         <v>99</v>
       </c>
@@ -2459,29 +2601,29 @@
       <c r="C46">
         <v>4</v>
       </c>
-      <c r="E46">
+      <c r="D46">
         <v>10</v>
       </c>
-      <c r="F46" t="s">
+      <c r="E46" t="s">
         <v>100</v>
       </c>
+      <c r="F46">
+        <v>22000</v>
+      </c>
       <c r="G46">
-        <v>22000</v>
+        <v>0</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46">
-        <v>1</v>
-      </c>
-      <c r="J46">
-        <v>0</v>
-      </c>
-      <c r="K46" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="J46" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="12.75">
       <c r="A47" t="s">
         <v>101</v>
       </c>
@@ -2491,29 +2633,29 @@
       <c r="C47">
         <v>4</v>
       </c>
-      <c r="E47">
+      <c r="D47">
         <v>12</v>
       </c>
-      <c r="F47" t="s">
+      <c r="E47" t="s">
         <v>102</v>
       </c>
+      <c r="F47">
+        <v>35000</v>
+      </c>
       <c r="G47">
-        <v>35000</v>
+        <v>0</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I47">
-        <v>1</v>
-      </c>
-      <c r="J47">
-        <v>0</v>
-      </c>
-      <c r="K47" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="J47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="12.75">
       <c r="A48" t="s">
         <v>103</v>
       </c>
@@ -2523,29 +2665,29 @@
       <c r="C48">
         <v>4</v>
       </c>
-      <c r="E48">
+      <c r="D48">
         <v>14</v>
       </c>
-      <c r="F48" t="s">
+      <c r="E48" t="s">
         <v>104</v>
       </c>
+      <c r="F48">
+        <v>55000</v>
+      </c>
       <c r="G48">
-        <v>55000</v>
+        <v>0</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48">
-        <v>1</v>
-      </c>
-      <c r="J48">
-        <v>0</v>
-      </c>
-      <c r="K48" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="J48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="12.75">
       <c r="A49" t="s">
         <v>105</v>
       </c>
@@ -2555,29 +2697,29 @@
       <c r="C49">
         <v>4</v>
       </c>
-      <c r="E49">
+      <c r="D49">
         <v>16</v>
       </c>
-      <c r="F49" t="s">
+      <c r="E49" t="s">
         <v>106</v>
       </c>
+      <c r="F49">
+        <v>90000</v>
+      </c>
       <c r="G49">
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I49">
-        <v>1</v>
-      </c>
-      <c r="J49">
-        <v>0</v>
-      </c>
-      <c r="K49" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="J49" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="12.75">
       <c r="A50" t="s">
         <v>107</v>
       </c>
@@ -2587,29 +2729,29 @@
       <c r="C50">
         <v>4</v>
       </c>
-      <c r="E50">
+      <c r="D50">
         <v>18</v>
       </c>
-      <c r="F50" t="s">
+      <c r="E50" t="s">
         <v>108</v>
       </c>
+      <c r="F50">
+        <v>150000</v>
+      </c>
       <c r="G50">
-        <v>150000</v>
+        <v>0</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50">
-        <v>1</v>
-      </c>
-      <c r="J50">
-        <v>0</v>
-      </c>
-      <c r="K50" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="J50" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="12.75">
       <c r="A51" t="s">
         <v>109</v>
       </c>
@@ -2619,29 +2761,29 @@
       <c r="C51">
         <v>4</v>
       </c>
-      <c r="E51">
+      <c r="D51">
         <v>20</v>
       </c>
-      <c r="F51" t="s">
+      <c r="E51" t="s">
         <v>110</v>
       </c>
+      <c r="F51">
+        <v>270000</v>
+      </c>
       <c r="G51">
-        <v>270000</v>
+        <v>0</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51">
-        <v>1</v>
-      </c>
-      <c r="J51">
-        <v>0</v>
-      </c>
-      <c r="K51" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="J51" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="12.75">
       <c r="A52" t="s">
         <v>111</v>
       </c>
@@ -2651,29 +2793,29 @@
       <c r="C52">
         <v>1</v>
       </c>
-      <c r="E52">
+      <c r="D52">
         <v>60</v>
       </c>
-      <c r="F52" t="s">
+      <c r="E52" t="s">
         <v>112</v>
       </c>
+      <c r="F52">
+        <v>700</v>
+      </c>
       <c r="G52">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I52">
-        <v>1</v>
-      </c>
-      <c r="J52">
-        <v>0</v>
-      </c>
-      <c r="K52" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="J52" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="12.75">
       <c r="A53" t="s">
         <v>113</v>
       </c>
@@ -2683,29 +2825,29 @@
       <c r="C53">
         <v>0</v>
       </c>
-      <c r="E53">
+      <c r="D53">
         <v>8</v>
       </c>
-      <c r="F53" t="s">
+      <c r="E53" t="s">
         <v>114</v>
       </c>
+      <c r="F53">
+        <v>1500</v>
+      </c>
       <c r="G53">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I53">
-        <v>1</v>
-      </c>
-      <c r="J53">
-        <v>0</v>
-      </c>
-      <c r="K53" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="J53" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="12.75">
       <c r="A54" t="s">
         <v>115</v>
       </c>
@@ -2715,29 +2857,29 @@
       <c r="C54">
         <v>2</v>
       </c>
-      <c r="E54">
+      <c r="D54">
         <v>8</v>
       </c>
-      <c r="F54" t="s">
+      <c r="E54" t="s">
         <v>116</v>
       </c>
+      <c r="F54">
+        <v>1500</v>
+      </c>
       <c r="G54">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I54">
-        <v>1</v>
-      </c>
-      <c r="J54">
-        <v>0</v>
-      </c>
-      <c r="K54" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="J54" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="12.75">
       <c r="A55" t="s">
         <v>117</v>
       </c>
@@ -2747,29 +2889,29 @@
       <c r="C55">
         <v>4</v>
       </c>
-      <c r="E55">
+      <c r="D55">
         <v>3</v>
       </c>
-      <c r="F55" t="s">
+      <c r="E55" t="s">
         <v>118</v>
       </c>
+      <c r="F55">
+        <v>1000</v>
+      </c>
       <c r="G55">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I55">
-        <v>1</v>
-      </c>
-      <c r="J55">
-        <v>0</v>
-      </c>
-      <c r="K55" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="J55" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="12.75">
       <c r="A56" t="s">
         <v>119</v>
       </c>
@@ -2779,29 +2921,29 @@
       <c r="C56">
         <v>0</v>
       </c>
-      <c r="E56">
+      <c r="D56">
         <v>15</v>
       </c>
-      <c r="F56" t="s">
+      <c r="E56" t="s">
         <v>120</v>
       </c>
+      <c r="F56">
+        <v>5000</v>
+      </c>
       <c r="G56">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I56">
-        <v>1</v>
-      </c>
-      <c r="J56">
-        <v>0</v>
-      </c>
-      <c r="K56" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="J56" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="12.75">
       <c r="A57" t="s">
         <v>121</v>
       </c>
@@ -2811,29 +2953,29 @@
       <c r="C57">
         <v>4</v>
       </c>
-      <c r="E57">
+      <c r="D57">
         <v>5</v>
       </c>
-      <c r="F57" t="s">
+      <c r="E57" t="s">
         <v>122</v>
       </c>
+      <c r="F57">
+        <v>3500</v>
+      </c>
       <c r="G57">
-        <v>3500</v>
+        <v>0</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57">
-        <v>1</v>
-      </c>
-      <c r="J57">
-        <v>0</v>
-      </c>
-      <c r="K57" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="J57" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="12.75">
       <c r="A58" t="s">
         <v>123</v>
       </c>
@@ -2843,29 +2985,29 @@
       <c r="C58">
         <v>3</v>
       </c>
-      <c r="E58">
+      <c r="D58">
         <v>5</v>
       </c>
-      <c r="F58" t="s">
+      <c r="E58" t="s">
         <v>124</v>
       </c>
+      <c r="F58">
+        <v>3500</v>
+      </c>
       <c r="G58">
-        <v>3500</v>
+        <v>0</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I58">
-        <v>1</v>
-      </c>
-      <c r="J58">
-        <v>0</v>
-      </c>
-      <c r="K58" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="J58" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="12.75">
       <c r="A59" t="s">
         <v>125</v>
       </c>
@@ -2875,29 +3017,29 @@
       <c r="C59">
         <v>2</v>
       </c>
-      <c r="E59">
+      <c r="D59">
         <v>22</v>
       </c>
-      <c r="F59" t="s">
+      <c r="E59" t="s">
         <v>126</v>
       </c>
+      <c r="F59">
+        <v>9000</v>
+      </c>
       <c r="G59">
-        <v>9000</v>
+        <v>0</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I59">
-        <v>1</v>
-      </c>
-      <c r="J59">
-        <v>0</v>
-      </c>
-      <c r="K59" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="J59" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="12.75">
       <c r="A60" t="s">
         <v>127</v>
       </c>
@@ -2907,29 +3049,29 @@
       <c r="C60">
         <v>1</v>
       </c>
-      <c r="E60">
+      <c r="D60">
         <v>200</v>
       </c>
-      <c r="F60" t="s">
+      <c r="E60" t="s">
         <v>128</v>
       </c>
+      <c r="F60">
+        <v>9000</v>
+      </c>
       <c r="G60">
-        <v>9000</v>
+        <v>0</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I60">
-        <v>1</v>
-      </c>
-      <c r="J60">
-        <v>0</v>
-      </c>
-      <c r="K60" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="J60" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="12.75">
       <c r="A61" t="s">
         <v>129</v>
       </c>
@@ -2939,29 +3081,29 @@
       <c r="C61">
         <v>0</v>
       </c>
-      <c r="E61">
+      <c r="D61">
         <v>30</v>
       </c>
-      <c r="F61" t="s">
+      <c r="E61" t="s">
         <v>130</v>
       </c>
+      <c r="F61">
+        <v>30000</v>
+      </c>
       <c r="G61">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I61">
-        <v>1</v>
-      </c>
-      <c r="J61">
-        <v>0</v>
-      </c>
-      <c r="K61" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="J61" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="12.75">
       <c r="A62" t="s">
         <v>131</v>
       </c>
@@ -2971,29 +3113,29 @@
       <c r="C62">
         <v>3</v>
       </c>
-      <c r="E62">
+      <c r="D62">
         <v>9</v>
       </c>
-      <c r="F62" t="s">
+      <c r="E62" t="s">
         <v>132</v>
       </c>
+      <c r="F62">
+        <v>17000</v>
+      </c>
       <c r="G62">
-        <v>17000</v>
+        <v>0</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I62">
-        <v>1</v>
-      </c>
-      <c r="J62">
-        <v>0</v>
-      </c>
-      <c r="K62" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="J62" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="12.75">
       <c r="A63" t="s">
         <v>133</v>
       </c>
@@ -3003,29 +3145,29 @@
       <c r="C63">
         <v>2</v>
       </c>
-      <c r="E63">
+      <c r="D63">
         <v>39</v>
       </c>
-      <c r="F63" t="s">
+      <c r="E63" t="s">
         <v>134</v>
       </c>
+      <c r="F63">
+        <v>30000</v>
+      </c>
       <c r="G63">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63">
-        <v>1</v>
-      </c>
-      <c r="J63">
-        <v>0</v>
-      </c>
-      <c r="K63" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="J63" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="12.75">
       <c r="A64" t="s">
         <v>135</v>
       </c>
@@ -3035,29 +3177,29 @@
       <c r="C64">
         <v>4</v>
       </c>
-      <c r="E64">
+      <c r="D64">
         <v>11</v>
       </c>
-      <c r="F64" t="s">
+      <c r="E64" t="s">
         <v>136</v>
       </c>
+      <c r="F64">
+        <v>30000</v>
+      </c>
       <c r="G64">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I64">
-        <v>1</v>
-      </c>
-      <c r="J64">
-        <v>0</v>
-      </c>
-      <c r="K64" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="J64" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="12.75">
       <c r="A65" t="s">
         <v>137</v>
       </c>
@@ -3067,29 +3209,29 @@
       <c r="C65">
         <v>0</v>
       </c>
-      <c r="E65">
+      <c r="D65">
         <v>50</v>
       </c>
-      <c r="F65" t="s">
+      <c r="E65" t="s">
         <v>138</v>
       </c>
+      <c r="F65">
+        <v>75000</v>
+      </c>
       <c r="G65">
-        <v>75000</v>
+        <v>0</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I65">
-        <v>1</v>
-      </c>
-      <c r="J65">
-        <v>0</v>
-      </c>
-      <c r="K65" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="J65" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="12.75">
       <c r="A66" t="s">
         <v>139</v>
       </c>
@@ -3099,29 +3241,29 @@
       <c r="C66">
         <v>1</v>
       </c>
-      <c r="E66">
+      <c r="D66">
         <v>600</v>
       </c>
-      <c r="F66" t="s">
+      <c r="E66" t="s">
         <v>140</v>
       </c>
+      <c r="F66">
+        <v>40000</v>
+      </c>
       <c r="G66">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I66">
-        <v>1</v>
-      </c>
-      <c r="J66">
-        <v>0</v>
-      </c>
-      <c r="K66" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="J66" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="12.75">
       <c r="A67" t="s">
         <v>141</v>
       </c>
@@ -3131,29 +3273,29 @@
       <c r="C67">
         <v>3</v>
       </c>
-      <c r="E67">
+      <c r="D67">
         <v>15</v>
       </c>
-      <c r="F67" t="s">
+      <c r="E67" t="s">
         <v>142</v>
       </c>
+      <c r="F67">
+        <v>75000</v>
+      </c>
       <c r="G67">
-        <v>75000</v>
+        <v>0</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I67">
-        <v>1</v>
-      </c>
-      <c r="J67">
-        <v>0</v>
-      </c>
-      <c r="K67" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="J67" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" ht="12.75">
       <c r="A68" t="s">
         <v>143</v>
       </c>
@@ -3163,29 +3305,29 @@
       <c r="C68">
         <v>1</v>
       </c>
-      <c r="E68">
+      <c r="D68">
         <v>830</v>
       </c>
-      <c r="F68" t="s">
+      <c r="E68" t="s">
         <v>144</v>
       </c>
+      <c r="F68">
+        <v>75000</v>
+      </c>
       <c r="G68">
-        <v>75000</v>
+        <v>0</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I68">
-        <v>1</v>
-      </c>
-      <c r="J68">
-        <v>0</v>
-      </c>
-      <c r="K68" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="J68" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" ht="12.75">
       <c r="A69" t="s">
         <v>145</v>
       </c>
@@ -3195,29 +3337,29 @@
       <c r="C69">
         <v>0</v>
       </c>
-      <c r="E69">
+      <c r="D69">
         <v>77</v>
       </c>
-      <c r="F69" t="s">
+      <c r="E69" t="s">
         <v>146</v>
       </c>
+      <c r="F69">
+        <v>200000</v>
+      </c>
       <c r="G69">
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I69">
-        <v>1</v>
-      </c>
-      <c r="J69">
-        <v>0</v>
-      </c>
-      <c r="K69" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="J69" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" ht="12.75">
       <c r="A70" t="s">
         <v>147</v>
       </c>
@@ -3227,29 +3369,29 @@
       <c r="C70">
         <v>2</v>
       </c>
-      <c r="E70">
+      <c r="D70">
         <v>77</v>
       </c>
-      <c r="F70" t="s">
+      <c r="E70" t="s">
         <v>148</v>
       </c>
+      <c r="F70">
+        <v>120000</v>
+      </c>
       <c r="G70">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I70">
-        <v>1</v>
-      </c>
-      <c r="J70">
-        <v>0</v>
-      </c>
-      <c r="K70" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="J70" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" ht="12.75">
       <c r="A71" t="s">
         <v>149</v>
       </c>
@@ -3259,29 +3401,29 @@
       <c r="C71">
         <v>4</v>
       </c>
-      <c r="E71">
+      <c r="D71">
         <v>19</v>
       </c>
-      <c r="F71" t="s">
+      <c r="E71" t="s">
         <v>150</v>
       </c>
+      <c r="F71">
+        <v>220000</v>
+      </c>
       <c r="G71">
-        <v>220000</v>
+        <v>0</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I71">
-        <v>1</v>
-      </c>
-      <c r="J71">
-        <v>0</v>
-      </c>
-      <c r="K71" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="J71" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" ht="12.75">
       <c r="A72" t="s">
         <v>151</v>
       </c>
@@ -3291,29 +3433,29 @@
       <c r="C72">
         <v>0</v>
       </c>
-      <c r="E72">
+      <c r="D72">
         <v>11</v>
       </c>
-      <c r="F72" t="s">
+      <c r="E72" t="s">
         <v>152</v>
       </c>
+      <c r="F72">
+        <v>3000</v>
+      </c>
       <c r="G72">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I72">
-        <v>1</v>
-      </c>
-      <c r="J72">
-        <v>0</v>
-      </c>
-      <c r="K72" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="J72" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" ht="12.75">
       <c r="A73" t="s">
         <v>153</v>
       </c>
@@ -3323,29 +3465,29 @@
       <c r="C73">
         <v>1</v>
       </c>
-      <c r="E73">
+      <c r="D73">
         <v>80</v>
       </c>
-      <c r="F73" t="s">
+      <c r="E73" t="s">
         <v>154</v>
       </c>
+      <c r="F73">
+        <v>2000</v>
+      </c>
       <c r="G73">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I73">
-        <v>1</v>
-      </c>
-      <c r="J73">
-        <v>0</v>
-      </c>
-      <c r="K73" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="J73" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" ht="12.75">
       <c r="A74" t="s">
         <v>155</v>
       </c>
@@ -3355,29 +3497,29 @@
       <c r="C74">
         <v>2</v>
       </c>
-      <c r="E74">
+      <c r="D74">
         <v>11</v>
       </c>
-      <c r="F74" t="s">
+      <c r="E74" t="s">
         <v>156</v>
       </c>
+      <c r="F74">
+        <v>2000</v>
+      </c>
       <c r="G74">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I74">
-        <v>1</v>
-      </c>
-      <c r="J74">
-        <v>0</v>
-      </c>
-      <c r="K74" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="J74" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" ht="12.75">
       <c r="A75" t="s">
         <v>157</v>
       </c>
@@ -3387,29 +3529,29 @@
       <c r="C75">
         <v>3</v>
       </c>
-      <c r="E75">
+      <c r="D75">
         <v>4</v>
       </c>
-      <c r="F75" t="s">
+      <c r="E75" t="s">
         <v>158</v>
       </c>
+      <c r="F75">
+        <v>2000</v>
+      </c>
       <c r="G75">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75">
-        <v>1</v>
-      </c>
-      <c r="J75">
-        <v>0</v>
-      </c>
-      <c r="K75" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="J75" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" ht="12.75">
       <c r="A76" t="s">
         <v>159</v>
       </c>
@@ -3419,29 +3561,29 @@
       <c r="C76">
         <v>4</v>
       </c>
-      <c r="E76">
+      <c r="D76">
         <v>4</v>
       </c>
-      <c r="F76" t="s">
+      <c r="E76" t="s">
         <v>160</v>
       </c>
+      <c r="F76">
+        <v>2000</v>
+      </c>
       <c r="G76">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I76">
-        <v>1</v>
-      </c>
-      <c r="J76">
-        <v>0</v>
-      </c>
-      <c r="K76" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="J76" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" ht="12.75">
       <c r="A77" t="s">
         <v>161</v>
       </c>
@@ -3451,29 +3593,29 @@
       <c r="C77">
         <v>0</v>
       </c>
-      <c r="E77">
+      <c r="D77">
         <v>26</v>
       </c>
-      <c r="F77" t="s">
+      <c r="E77" t="s">
         <v>162</v>
       </c>
+      <c r="F77">
+        <v>20000</v>
+      </c>
       <c r="G77">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I77">
-        <v>1</v>
-      </c>
-      <c r="J77">
-        <v>0</v>
-      </c>
-      <c r="K77" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="J77" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" ht="12.75">
       <c r="A78" t="s">
         <v>163</v>
       </c>
@@ -3483,29 +3625,29 @@
       <c r="C78">
         <v>1</v>
       </c>
-      <c r="E78">
+      <c r="D78">
         <v>250</v>
       </c>
-      <c r="F78" t="s">
+      <c r="E78" t="s">
         <v>164</v>
       </c>
+      <c r="F78">
+        <v>13000</v>
+      </c>
       <c r="G78">
-        <v>13000</v>
+        <v>0</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I78">
-        <v>1</v>
-      </c>
-      <c r="J78">
-        <v>0</v>
-      </c>
-      <c r="K78" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="J78" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" ht="12.75">
       <c r="A79" t="s">
         <v>165</v>
       </c>
@@ -3515,29 +3657,29 @@
       <c r="C79">
         <v>2</v>
       </c>
-      <c r="E79">
+      <c r="D79">
         <v>26</v>
       </c>
-      <c r="F79" t="s">
+      <c r="E79" t="s">
         <v>166</v>
       </c>
+      <c r="F79">
+        <v>13000</v>
+      </c>
       <c r="G79">
-        <v>13000</v>
+        <v>0</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I79">
-        <v>1</v>
-      </c>
-      <c r="J79">
-        <v>0</v>
-      </c>
-      <c r="K79" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="J79" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" ht="12.75">
       <c r="A80" t="s">
         <v>167</v>
       </c>
@@ -3547,29 +3689,29 @@
       <c r="C80">
         <v>3</v>
       </c>
-      <c r="E80">
+      <c r="D80">
         <v>8</v>
       </c>
-      <c r="F80" t="s">
+      <c r="E80" t="s">
         <v>168</v>
       </c>
+      <c r="F80">
+        <v>13000</v>
+      </c>
       <c r="G80">
-        <v>13000</v>
+        <v>0</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I80">
-        <v>1</v>
-      </c>
-      <c r="J80">
-        <v>0</v>
-      </c>
-      <c r="K80" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="J80" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" ht="12.75">
       <c r="A81" t="s">
         <v>169</v>
       </c>
@@ -3579,29 +3721,29 @@
       <c r="C81">
         <v>4</v>
       </c>
-      <c r="E81">
+      <c r="D81">
         <v>8</v>
       </c>
-      <c r="F81" t="s">
+      <c r="E81" t="s">
         <v>170</v>
       </c>
+      <c r="F81">
+        <v>13000</v>
+      </c>
       <c r="G81">
-        <v>13000</v>
+        <v>0</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I81">
-        <v>1</v>
-      </c>
-      <c r="J81">
-        <v>0</v>
-      </c>
-      <c r="K81" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="J81" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" ht="12.75">
       <c r="A82" t="s">
         <v>171</v>
       </c>
@@ -3611,29 +3753,29 @@
       <c r="C82">
         <v>0</v>
       </c>
-      <c r="E82">
+      <c r="D82">
         <v>45</v>
       </c>
-      <c r="F82" t="s">
+      <c r="E82" t="s">
         <v>172</v>
       </c>
+      <c r="F82">
+        <v>55000</v>
+      </c>
       <c r="G82">
-        <v>55000</v>
+        <v>0</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I82">
-        <v>1</v>
-      </c>
-      <c r="J82">
-        <v>0</v>
-      </c>
-      <c r="K82" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="J82" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" ht="12.75">
       <c r="A83" t="s">
         <v>173</v>
       </c>
@@ -3643,29 +3785,29 @@
       <c r="C83">
         <v>1</v>
       </c>
-      <c r="E83">
+      <c r="D83">
         <v>500</v>
       </c>
-      <c r="F83" t="s">
+      <c r="E83" t="s">
         <v>174</v>
       </c>
+      <c r="F83">
+        <v>35000</v>
+      </c>
       <c r="G83">
-        <v>35000</v>
+        <v>0</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I83">
-        <v>1</v>
-      </c>
-      <c r="J83">
-        <v>0</v>
-      </c>
-      <c r="K83" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="J83" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" ht="12.75">
       <c r="A84" t="s">
         <v>175</v>
       </c>
@@ -3675,29 +3817,29 @@
       <c r="C84">
         <v>2</v>
       </c>
-      <c r="E84">
+      <c r="D84">
         <v>45</v>
       </c>
-      <c r="F84" t="s">
+      <c r="E84" t="s">
         <v>176</v>
       </c>
+      <c r="F84">
+        <v>35000</v>
+      </c>
       <c r="G84">
-        <v>35000</v>
+        <v>0</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I84">
-        <v>1</v>
-      </c>
-      <c r="J84">
-        <v>0</v>
-      </c>
-      <c r="K84" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="J84" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" ht="12.75">
       <c r="A85" t="s">
         <v>177</v>
       </c>
@@ -3707,29 +3849,29 @@
       <c r="C85">
         <v>3</v>
       </c>
-      <c r="E85">
+      <c r="D85">
         <v>12</v>
       </c>
-      <c r="F85" t="s">
+      <c r="E85" t="s">
         <v>178</v>
       </c>
+      <c r="F85">
+        <v>35000</v>
+      </c>
       <c r="G85">
-        <v>35000</v>
+        <v>0</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I85">
-        <v>1</v>
-      </c>
-      <c r="J85">
-        <v>0</v>
-      </c>
-      <c r="K85" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="J85" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" ht="12.75">
       <c r="A86" t="s">
         <v>179</v>
       </c>
@@ -3739,29 +3881,29 @@
       <c r="C86">
         <v>4</v>
       </c>
-      <c r="E86">
+      <c r="D86">
         <v>12</v>
       </c>
-      <c r="F86" t="s">
+      <c r="E86" t="s">
         <v>180</v>
       </c>
+      <c r="F86">
+        <v>35000</v>
+      </c>
       <c r="G86">
-        <v>35000</v>
+        <v>0</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I86">
-        <v>1</v>
-      </c>
-      <c r="J86">
-        <v>0</v>
-      </c>
-      <c r="K86" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="J86" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" ht="12.75">
       <c r="A87" t="s">
         <v>181</v>
       </c>
@@ -3771,29 +3913,29 @@
       <c r="C87">
         <v>0</v>
       </c>
-      <c r="E87">
+      <c r="D87">
         <v>70</v>
       </c>
-      <c r="F87" t="s">
+      <c r="E87" t="s">
         <v>182</v>
       </c>
+      <c r="F87">
+        <v>150000</v>
+      </c>
       <c r="G87">
-        <v>150000</v>
+        <v>0</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I87">
-        <v>1</v>
-      </c>
-      <c r="J87">
-        <v>0</v>
-      </c>
-      <c r="K87" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="J87" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" ht="12.75">
       <c r="A88" t="s">
         <v>183</v>
       </c>
@@ -3803,29 +3945,29 @@
       <c r="C88">
         <v>1</v>
       </c>
-      <c r="E88">
+      <c r="D88">
         <v>950</v>
       </c>
-      <c r="F88" t="s">
+      <c r="E88" t="s">
         <v>184</v>
       </c>
+      <c r="F88">
+        <v>90000</v>
+      </c>
       <c r="G88">
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I88">
-        <v>1</v>
-      </c>
-      <c r="J88">
-        <v>0</v>
-      </c>
-      <c r="K88" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="J88" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" ht="12.75">
       <c r="A89" t="s">
         <v>185</v>
       </c>
@@ -3835,29 +3977,29 @@
       <c r="C89">
         <v>2</v>
       </c>
-      <c r="E89">
+      <c r="D89">
         <v>70</v>
       </c>
-      <c r="F89" t="s">
+      <c r="E89" t="s">
         <v>186</v>
       </c>
+      <c r="F89">
+        <v>90000</v>
+      </c>
       <c r="G89">
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I89">
-        <v>1</v>
-      </c>
-      <c r="J89">
-        <v>0</v>
-      </c>
-      <c r="K89" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="J89" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" ht="12.75">
       <c r="A90" t="s">
         <v>187</v>
       </c>
@@ -3867,29 +4009,29 @@
       <c r="C90">
         <v>3</v>
       </c>
-      <c r="E90">
+      <c r="D90">
         <v>16</v>
       </c>
-      <c r="F90" t="s">
+      <c r="E90" t="s">
         <v>188</v>
       </c>
+      <c r="F90">
+        <v>90000</v>
+      </c>
       <c r="G90">
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I90">
-        <v>1</v>
-      </c>
-      <c r="J90">
-        <v>0</v>
-      </c>
-      <c r="K90" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="J90" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" ht="12.75">
       <c r="A91" t="s">
         <v>189</v>
       </c>
@@ -3899,29 +4041,29 @@
       <c r="C91">
         <v>4</v>
       </c>
-      <c r="E91">
+      <c r="D91">
         <v>16</v>
       </c>
-      <c r="F91" t="s">
+      <c r="E91" t="s">
         <v>190</v>
       </c>
+      <c r="F91">
+        <v>90000</v>
+      </c>
       <c r="G91">
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I91">
-        <v>1</v>
-      </c>
-      <c r="J91">
-        <v>0</v>
-      </c>
-      <c r="K91" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="J91" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" ht="12.75">
       <c r="A92" t="s">
         <v>191</v>
       </c>
@@ -3932,31 +4074,31 @@
         <v>5</v>
       </c>
       <c r="D92">
-        <v>0</v>
-      </c>
-      <c r="E92">
         <v>50</v>
       </c>
-      <c r="F92" t="s">
+      <c r="E92" t="s">
         <v>192</v>
       </c>
+      <c r="F92">
+        <v>400</v>
+      </c>
       <c r="G92">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I92">
-        <v>1</v>
-      </c>
-      <c r="J92">
-        <v>0</v>
-      </c>
-      <c r="K92" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="J92" t="b">
+        <v>0</v>
+      </c>
+      <c r="K92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" ht="12.75">
       <c r="A93" t="s">
         <v>193</v>
       </c>
@@ -3967,31 +4109,31 @@
         <v>5</v>
       </c>
       <c r="D93">
-        <v>1</v>
-      </c>
-      <c r="E93">
         <v>40</v>
       </c>
-      <c r="F93" t="s">
+      <c r="E93" t="s">
         <v>194</v>
       </c>
+      <c r="F93">
+        <v>600</v>
+      </c>
       <c r="G93">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I93">
-        <v>1</v>
-      </c>
-      <c r="J93">
-        <v>0</v>
-      </c>
-      <c r="K93" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="J93" t="b">
+        <v>0</v>
+      </c>
+      <c r="K93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" ht="12.75">
       <c r="A94" t="s">
         <v>195</v>
       </c>
@@ -4002,31 +4144,31 @@
         <v>5</v>
       </c>
       <c r="D94">
-        <v>0</v>
-      </c>
-      <c r="E94">
         <v>200</v>
       </c>
-      <c r="F94" t="s">
+      <c r="E94" t="s">
         <v>196</v>
       </c>
+      <c r="F94">
+        <v>1600</v>
+      </c>
       <c r="G94">
-        <v>1600</v>
+        <v>0</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I94">
-        <v>1</v>
-      </c>
-      <c r="J94">
-        <v>0</v>
-      </c>
-      <c r="K94" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="J94" t="b">
+        <v>0</v>
+      </c>
+      <c r="K94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" ht="12.75">
       <c r="A95" t="s">
         <v>197</v>
       </c>
@@ -4037,31 +4179,31 @@
         <v>5</v>
       </c>
       <c r="D95">
-        <v>1</v>
-      </c>
-      <c r="E95">
         <v>80</v>
       </c>
-      <c r="F95" t="s">
+      <c r="E95" t="s">
         <v>198</v>
       </c>
+      <c r="F95">
+        <v>2400</v>
+      </c>
       <c r="G95">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I95">
-        <v>1</v>
-      </c>
-      <c r="J95">
-        <v>0</v>
-      </c>
-      <c r="K95" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="J95" t="b">
+        <v>0</v>
+      </c>
+      <c r="K95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" ht="12.75">
       <c r="A96" t="s">
         <v>199</v>
       </c>
@@ -4072,67 +4214,241 @@
         <v>5</v>
       </c>
       <c r="D96">
-        <v>0</v>
-      </c>
-      <c r="E96">
         <v>400</v>
       </c>
-      <c r="F96" t="s">
+      <c r="E96" t="s">
         <v>200</v>
       </c>
+      <c r="F96">
+        <v>3200</v>
+      </c>
       <c r="G96">
-        <v>3200</v>
+        <v>0</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I96">
-        <v>1</v>
-      </c>
-      <c r="J96">
-        <v>0</v>
-      </c>
-      <c r="K96" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
+        <v>0</v>
+      </c>
+      <c r="J96" t="b">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" ht="18.75" customHeight="1">
+      <c r="A97" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="B97">
+      <c r="B97" s="2">
         <v>95</v>
       </c>
-      <c r="C97">
+      <c r="C97" s="2">
         <v>5</v>
       </c>
-      <c r="D97">
-        <v>1</v>
-      </c>
-      <c r="E97">
+      <c r="D97" s="2">
         <v>160</v>
       </c>
-      <c r="F97" t="s">
+      <c r="E97" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="G97">
+      <c r="F97" s="2">
         <v>4800</v>
       </c>
-      <c r="H97">
-        <v>0</v>
-      </c>
-      <c r="I97">
-        <v>1</v>
-      </c>
-      <c r="J97">
-        <v>0</v>
-      </c>
-      <c r="K97" t="b">
-        <v>0</v>
+      <c r="G97" s="2">
+        <v>0</v>
+      </c>
+      <c r="H97" s="2">
+        <v>1</v>
+      </c>
+      <c r="I97" s="2">
+        <v>0</v>
+      </c>
+      <c r="J97" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K97" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A98" t="s">
+        <v>203</v>
+      </c>
+      <c r="B98">
+        <v>96</v>
+      </c>
+      <c r="C98">
+        <v>5</v>
+      </c>
+      <c r="D98">
+        <v>10</v>
+      </c>
+      <c r="E98" t="s">
+        <v>204</v>
+      </c>
+      <c r="F98">
+        <v>3000</v>
+      </c>
+      <c r="G98">
+        <v>0</v>
+      </c>
+      <c r="H98">
+        <v>1</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98" t="s">
+        <v>205</v>
+      </c>
+      <c r="K98">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" ht="12.75">
+      <c r="A99" t="s">
+        <v>206</v>
+      </c>
+      <c r="B99">
+        <v>97</v>
+      </c>
+      <c r="C99">
+        <v>5</v>
+      </c>
+      <c r="D99">
+        <v>10</v>
+      </c>
+      <c r="E99" t="s">
+        <v>207</v>
+      </c>
+      <c r="F99">
+        <v>3000</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>1</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99" t="s">
+        <v>205</v>
+      </c>
+      <c r="K99">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" ht="12.75">
+      <c r="A100" t="s">
+        <v>208</v>
+      </c>
+      <c r="B100">
+        <v>98</v>
+      </c>
+      <c r="C100">
+        <v>5</v>
+      </c>
+      <c r="D100">
+        <v>30</v>
+      </c>
+      <c r="E100" t="s">
+        <v>209</v>
+      </c>
+      <c r="F100">
+        <v>1000</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>1</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100" t="s">
+        <v>205</v>
+      </c>
+      <c r="K100">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A101" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="B101" s="4">
+        <v>99</v>
+      </c>
+      <c r="C101" s="4">
+        <v>5</v>
+      </c>
+      <c r="D101" s="4">
+        <v>30</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="F101" s="4">
+        <v>1000</v>
+      </c>
+      <c r="G101" s="4">
+        <v>0</v>
+      </c>
+      <c r="H101" s="4">
+        <v>1</v>
+      </c>
+      <c r="I101" s="4">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="K101">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" ht="12.75">
+      <c r="A102" t="s">
+        <v>212</v>
+      </c>
+      <c r="B102">
+        <v>100</v>
+      </c>
+      <c r="C102">
+        <v>5</v>
+      </c>
+      <c r="D102">
+        <v>1000</v>
+      </c>
+      <c r="E102" t="s">
+        <v>213</v>
+      </c>
+      <c r="F102">
+        <v>3000</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>1</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102" t="s">
+        <v>205</v>
+      </c>
+      <c r="K102">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/TeamTextRPG/Data/Excel/Items.xlsx
+++ b/TeamTextRPG/Data/Excel/Items.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26626"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\js022\바탕 화면\WorkSpace\TeamTextRPG\TeamTextRPG\Data\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0972E0FC-480E-4B37-87C2-EC1FF1995D21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -599,9 +604,6 @@
     <t>마력 물약(소)</t>
   </si>
   <si>
-    <t>마력을 40 회복시켜줍니다</t>
-  </si>
-  <si>
     <t>체력 물약(중)</t>
   </si>
   <si>
@@ -611,9 +613,6 @@
     <t>마력 물약(중)</t>
   </si>
   <si>
-    <t>마력을 80 회복시켜줍니다</t>
-  </si>
-  <si>
     <t>체력 물약(대)</t>
   </si>
   <si>
@@ -623,9 +622,6 @@
     <t>마력 물약(대)</t>
   </si>
   <si>
-    <t>마력을 160 회복시켜줍니다</t>
-  </si>
-  <si>
     <t>스테로이드</t>
   </si>
   <si>
@@ -657,13 +653,109 @@
   </si>
   <si>
     <t>모든 적을 공격합니다</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>마나를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 160 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>회복시켜줍니다</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>마나를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 80 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>회복시켜줍니다</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>마나를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 40 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>회복시켜줍니다</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -680,6 +772,40 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="2">
@@ -699,126 +825,29 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment/>
-      <protection/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-  </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
-      <protection/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="15" builtinId="5"/>
-    <cellStyle name="Currency" xfId="16" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="17" builtinId="7"/>
-    <cellStyle name="Comma" xfId="18" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="19" builtinId="6"/>
+  <cellStyles count="1">
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1126,29 +1155,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{cb85b3b1-a707-4727-ae4e-3fe393a76e08}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB85B3B1-A707-4727-AE4E-3FE393A76E08}">
   <dimension ref="A1:K102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="K101" sqref="K101"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="E94" sqref="E94"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.285714285714285" customWidth="1"/>
-    <col min="2" max="2" width="8.571428571428571" customWidth="1"/>
-    <col min="3" max="3" width="4.714285714285714" customWidth="1"/>
-    <col min="4" max="4" width="5.285714285714286" customWidth="1"/>
-    <col min="5" max="5" width="44.857142857142854" customWidth="1"/>
-    <col min="6" max="6" width="7.285714285714286" customWidth="1"/>
-    <col min="7" max="7" width="5.428571428571429" customWidth="1"/>
-    <col min="8" max="8" width="6.142857142857143" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" customWidth="1"/>
+    <col min="3" max="3" width="4.7109375" customWidth="1"/>
+    <col min="4" max="4" width="5.28515625" customWidth="1"/>
+    <col min="5" max="5" width="44.85546875" customWidth="1"/>
+    <col min="6" max="6" width="7.28515625" customWidth="1"/>
+    <col min="7" max="7" width="5.42578125" customWidth="1"/>
+    <col min="8" max="8" width="6.140625" customWidth="1"/>
     <col min="9" max="9" width="10" customWidth="1"/>
-    <col min="10" max="10" width="10.428571428571429" customWidth="1"/>
-    <col min="11" max="11" width="14.571428571428571" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="12.75">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1183,7 +1212,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="12.75">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -1215,7 +1244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="12.75">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -1247,7 +1276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="12.75">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -1279,7 +1308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="12.75">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -1311,7 +1340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="12.75">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -1343,7 +1372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="12.75">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -1375,7 +1404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="12.75">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -1407,7 +1436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="12.75">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -1439,7 +1468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="12.75">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -1471,7 +1500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="12.75">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -1503,7 +1532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="12.75">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -1535,7 +1564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="12.75">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -1567,7 +1596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="12.75">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -1599,7 +1628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="12.75">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -1631,7 +1660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="12.75">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>39</v>
       </c>
@@ -1663,7 +1692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="12.75">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>41</v>
       </c>
@@ -1695,7 +1724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="12.75">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>43</v>
       </c>
@@ -1727,7 +1756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="12.75">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>45</v>
       </c>
@@ -1759,7 +1788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="12.75">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>47</v>
       </c>
@@ -1791,7 +1820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="12.75">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>49</v>
       </c>
@@ -1823,7 +1852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="12.75">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>51</v>
       </c>
@@ -1855,7 +1884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="12.75">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>53</v>
       </c>
@@ -1887,7 +1916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="12.75">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>55</v>
       </c>
@@ -1919,7 +1948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="12.75">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>57</v>
       </c>
@@ -1951,7 +1980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="12.75">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>59</v>
       </c>
@@ -1983,7 +2012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="12.75">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>61</v>
       </c>
@@ -2015,7 +2044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="12.75">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>63</v>
       </c>
@@ -2047,7 +2076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="12.75">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>65</v>
       </c>
@@ -2079,7 +2108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="12.75">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>67</v>
       </c>
@@ -2111,7 +2140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="12.75">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>69</v>
       </c>
@@ -2143,7 +2172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="12.75">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>71</v>
       </c>
@@ -2175,7 +2204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="12.75">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>73</v>
       </c>
@@ -2207,7 +2236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="12.75">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>75</v>
       </c>
@@ -2239,7 +2268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="12.75">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>77</v>
       </c>
@@ -2271,7 +2300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="12.75">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>79</v>
       </c>
@@ -2303,7 +2332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="12.75">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>81</v>
       </c>
@@ -2335,7 +2364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="12.75">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>83</v>
       </c>
@@ -2367,7 +2396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="12.75">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>85</v>
       </c>
@@ -2399,7 +2428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="12.75">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>87</v>
       </c>
@@ -2431,7 +2460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="12.75">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>89</v>
       </c>
@@ -2463,7 +2492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="12.75">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>91</v>
       </c>
@@ -2495,7 +2524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="12.75">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>93</v>
       </c>
@@ -2527,7 +2556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="12.75">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>95</v>
       </c>
@@ -2559,7 +2588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="12.75">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>97</v>
       </c>
@@ -2591,7 +2620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="12.75">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>99</v>
       </c>
@@ -2623,7 +2652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="12.75">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>101</v>
       </c>
@@ -2655,7 +2684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="12.75">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>103</v>
       </c>
@@ -2687,7 +2716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="12.75">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>105</v>
       </c>
@@ -2719,7 +2748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="12.75">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>107</v>
       </c>
@@ -2751,7 +2780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="12.75">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>109</v>
       </c>
@@ -2783,7 +2812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="12.75">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>111</v>
       </c>
@@ -2815,7 +2844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="12.75">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>113</v>
       </c>
@@ -2847,7 +2876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="12.75">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>115</v>
       </c>
@@ -2879,7 +2908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="12.75">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>117</v>
       </c>
@@ -2911,7 +2940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="12.75">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>119</v>
       </c>
@@ -2943,7 +2972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="12.75">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>121</v>
       </c>
@@ -2975,7 +3004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="12.75">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>123</v>
       </c>
@@ -3007,7 +3036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="12.75">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>125</v>
       </c>
@@ -3039,7 +3068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="12.75">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>127</v>
       </c>
@@ -3071,7 +3100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="12.75">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>129</v>
       </c>
@@ -3103,7 +3132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="12.75">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>131</v>
       </c>
@@ -3135,7 +3164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="12.75">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>133</v>
       </c>
@@ -3167,7 +3196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:10" ht="12.75">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>135</v>
       </c>
@@ -3199,7 +3228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:10" ht="12.75">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>137</v>
       </c>
@@ -3231,7 +3260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="12.75">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>139</v>
       </c>
@@ -3263,7 +3292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="12.75">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>141</v>
       </c>
@@ -3295,7 +3324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="12.75">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>143</v>
       </c>
@@ -3327,7 +3356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:10" ht="12.75">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>145</v>
       </c>
@@ -3359,7 +3388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:10" ht="12.75">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>147</v>
       </c>
@@ -3391,7 +3420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:10" ht="12.75">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>149</v>
       </c>
@@ -3423,7 +3452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="12.75">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>151</v>
       </c>
@@ -3455,7 +3484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="12.75">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>153</v>
       </c>
@@ -3487,7 +3516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:10" ht="12.75">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>155</v>
       </c>
@@ -3519,7 +3548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="12.75">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>157</v>
       </c>
@@ -3551,7 +3580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:10" ht="12.75">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>159</v>
       </c>
@@ -3583,7 +3612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:10" ht="12.75">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>161</v>
       </c>
@@ -3615,7 +3644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:10" ht="12.75">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>163</v>
       </c>
@@ -3647,7 +3676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:10" ht="12.75">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>165</v>
       </c>
@@ -3679,7 +3708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:10" ht="12.75">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>167</v>
       </c>
@@ -3711,7 +3740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:10" ht="12.75">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>169</v>
       </c>
@@ -3743,7 +3772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:10" ht="12.75">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>171</v>
       </c>
@@ -3775,7 +3804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:10" ht="12.75">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>173</v>
       </c>
@@ -3807,7 +3836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:10" ht="12.75">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>175</v>
       </c>
@@ -3839,7 +3868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:10" ht="12.75">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>177</v>
       </c>
@@ -3871,7 +3900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:10" ht="12.75">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>179</v>
       </c>
@@ -3903,7 +3932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:10" ht="12.75">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>181</v>
       </c>
@@ -3935,7 +3964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:10" ht="12.75">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>183</v>
       </c>
@@ -3967,7 +3996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:10" ht="12.75">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>185</v>
       </c>
@@ -3999,7 +4028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:10" ht="12.75">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>187</v>
       </c>
@@ -4031,7 +4060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:10" ht="12.75">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>189</v>
       </c>
@@ -4063,7 +4092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:11" ht="12.75">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>191</v>
       </c>
@@ -4098,7 +4127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:11" ht="12.75">
+    <row r="93" spans="1:11" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>193</v>
       </c>
@@ -4111,8 +4140,8 @@
       <c r="D93">
         <v>40</v>
       </c>
-      <c r="E93" t="s">
-        <v>194</v>
+      <c r="E93" s="6" t="s">
+        <v>213</v>
       </c>
       <c r="F93">
         <v>600</v>
@@ -4133,9 +4162,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:11" ht="12.75">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B94">
         <v>92</v>
@@ -4147,7 +4176,7 @@
         <v>200</v>
       </c>
       <c r="E94" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F94">
         <v>1600</v>
@@ -4168,9 +4197,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:11" ht="12.75">
+    <row r="95" spans="1:11" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B95">
         <v>93</v>
@@ -4181,8 +4210,8 @@
       <c r="D95">
         <v>80</v>
       </c>
-      <c r="E95" t="s">
-        <v>198</v>
+      <c r="E95" s="6" t="s">
+        <v>212</v>
       </c>
       <c r="F95">
         <v>2400</v>
@@ -4203,9 +4232,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:11" ht="12.75">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B96">
         <v>94</v>
@@ -4217,7 +4246,7 @@
         <v>400</v>
       </c>
       <c r="E96" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F96">
         <v>3200</v>
@@ -4238,9 +4267,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:11" ht="18.75" customHeight="1">
+    <row r="97" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B97" s="2">
         <v>95</v>
@@ -4251,8 +4280,8 @@
       <c r="D97" s="2">
         <v>160</v>
       </c>
-      <c r="E97" s="1" t="s">
-        <v>202</v>
+      <c r="E97" s="5" t="s">
+        <v>211</v>
       </c>
       <c r="F97" s="2">
         <v>4800</v>
@@ -4273,9 +4302,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:11" ht="12.75" customHeight="1">
+    <row r="98" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B98">
         <v>96</v>
@@ -4287,7 +4316,7 @@
         <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F98">
         <v>3000</v>
@@ -4302,15 +4331,15 @@
         <v>0</v>
       </c>
       <c r="J98" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="K98">
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:11" ht="12.75">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B99">
         <v>97</v>
@@ -4322,7 +4351,7 @@
         <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F99">
         <v>3000</v>
@@ -4337,15 +4366,15 @@
         <v>0</v>
       </c>
       <c r="J99" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="K99">
         <v>4</v>
       </c>
     </row>
-    <row r="100" spans="1:11" ht="12.75">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B100">
         <v>98</v>
@@ -4357,7 +4386,7 @@
         <v>30</v>
       </c>
       <c r="E100" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F100">
         <v>1000</v>
@@ -4372,15 +4401,15 @@
         <v>0</v>
       </c>
       <c r="J100" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="K100">
         <v>5</v>
       </c>
     </row>
-    <row r="101" spans="1:11" ht="12.75" customHeight="1">
+    <row r="101" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B101" s="4">
         <v>99</v>
@@ -4392,7 +4421,7 @@
         <v>30</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F101" s="4">
         <v>1000</v>
@@ -4407,15 +4436,15 @@
         <v>0</v>
       </c>
       <c r="J101" s="3" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="K101">
         <v>7</v>
       </c>
     </row>
-    <row r="102" spans="1:11" ht="12.75">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B102">
         <v>100</v>
@@ -4427,7 +4456,7 @@
         <v>1000</v>
       </c>
       <c r="E102" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F102">
         <v>3000</v>
@@ -4442,13 +4471,14 @@
         <v>0</v>
       </c>
       <c r="J102" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="K102">
         <v>2</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/TeamTextRPG/Data/Excel/Items.xlsx
+++ b/TeamTextRPG/Data/Excel/Items.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\js022\바탕 화면\WorkSpace\TeamTextRPG\TeamTextRPG\Data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0972E0FC-480E-4B37-87C2-EC1FF1995D21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01DA949E-2153-4412-A9DF-BA35860228B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1158,8 +1158,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB85B3B1-A707-4727-AE4E-3FE393A76E08}">
   <dimension ref="A1:K102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="E94" sqref="E94"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="F97" sqref="F97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4144,7 +4144,7 @@
         <v>213</v>
       </c>
       <c r="F93">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="G93">
         <v>0</v>
@@ -4214,7 +4214,7 @@
         <v>212</v>
       </c>
       <c r="F95">
-        <v>2400</v>
+        <v>600</v>
       </c>
       <c r="G95">
         <v>0</v>
@@ -4284,7 +4284,7 @@
         <v>211</v>
       </c>
       <c r="F97" s="2">
-        <v>4800</v>
+        <v>1200</v>
       </c>
       <c r="G97" s="2">
         <v>0</v>
